--- a/read_the_world.xlsx
+++ b/read_the_world.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682">
   <si>
     <t>Code</t>
   </si>
@@ -1906,28 +1906,16 @@
     <t>United States</t>
   </si>
   <si>
-    <t>The Color Purple</t>
-  </si>
-  <si>
-    <t>Alice Walker</t>
-  </si>
-  <si>
-    <t>Catcher in the Rye</t>
-  </si>
-  <si>
-    <t>J. D. Salinger</t>
+    <t>Native Son</t>
+  </si>
+  <si>
+    <t>Richard Wright</t>
   </si>
   <si>
     <t>To Kill a Mockingbird</t>
   </si>
   <si>
     <t>Harper Lee</t>
-  </si>
-  <si>
-    <t>Catch 22</t>
-  </si>
-  <si>
-    <t>Joseph Heller</t>
   </si>
   <si>
     <t>Parable of the Sower</t>
@@ -2079,9 +2067,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -2090,6 +2078,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2102,14 +2097,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2123,31 +2187,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2155,7 +2196,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2163,15 +2204,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2184,54 +2217,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2246,25 +2234,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2276,7 +2264,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2300,19 +2288,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2324,7 +2300,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2336,13 +2330,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2354,7 +2348,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2372,61 +2372,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2464,6 +2452,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2475,6 +2472,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2496,6 +2508,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2504,186 +2525,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3010,12 +2998,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F294"/>
+  <dimension ref="A1:F292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A270" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G285" sqref="G285"/>
+      <selection pane="bottomLeft" activeCell="I275" sqref="I275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -6496,7 +6484,7 @@
         <v>631</v>
       </c>
       <c r="E269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -6535,36 +6523,24 @@
     </row>
     <row r="272" spans="1:5">
       <c r="A272" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="B272" t="s">
-        <v>629</v>
-      </c>
-      <c r="C272" t="s">
-        <v>636</v>
-      </c>
-      <c r="D272" t="s">
         <v>637</v>
       </c>
       <c r="E272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:5">
       <c r="A273" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="B273" t="s">
-        <v>629</v>
-      </c>
-      <c r="C273" t="s">
-        <v>638</v>
-      </c>
-      <c r="D273" t="s">
         <v>639</v>
       </c>
       <c r="E273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -6706,16 +6682,28 @@
       <c r="B286" t="s">
         <v>665</v>
       </c>
+      <c r="C286" t="s">
+        <v>666</v>
+      </c>
+      <c r="D286" t="s">
+        <v>667</v>
+      </c>
       <c r="E286">
         <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:5">
       <c r="A287" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B287" t="s">
-        <v>667</v>
+        <v>665</v>
+      </c>
+      <c r="C287" t="s">
+        <v>668</v>
+      </c>
+      <c r="D287" t="s">
+        <v>669</v>
       </c>
       <c r="E287">
         <v>0</v>
@@ -6723,10 +6711,10 @@
     </row>
     <row r="288" spans="1:5">
       <c r="A288" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="B288" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C288" t="s">
         <v>670</v>
@@ -6735,20 +6723,14 @@
         <v>671</v>
       </c>
       <c r="E288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:5">
       <c r="A289" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="B289" t="s">
-        <v>669</v>
-      </c>
-      <c r="C289" t="s">
-        <v>672</v>
-      </c>
-      <c r="D289" t="s">
         <v>673</v>
       </c>
       <c r="E289">
@@ -6757,27 +6739,33 @@
     </row>
     <row r="290" spans="1:5">
       <c r="A290" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="B290" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="C290" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="D290" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="E290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:5">
       <c r="A291" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B291" t="s">
-        <v>677</v>
+        <v>675</v>
+      </c>
+      <c r="C291" t="s">
+        <v>678</v>
+      </c>
+      <c r="D291" t="s">
+        <v>679</v>
       </c>
       <c r="E291">
         <v>0</v>
@@ -6785,10 +6773,10 @@
     </row>
     <row r="292" spans="1:5">
       <c r="A292" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="B292" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="C292" t="s">
         <v>680</v>
@@ -6797,40 +6785,6 @@
         <v>681</v>
       </c>
       <c r="E292">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5">
-      <c r="A293" t="s">
-        <v>678</v>
-      </c>
-      <c r="B293" t="s">
-        <v>679</v>
-      </c>
-      <c r="C293" t="s">
-        <v>682</v>
-      </c>
-      <c r="D293" t="s">
-        <v>683</v>
-      </c>
-      <c r="E293">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5">
-      <c r="A294" t="s">
-        <v>678</v>
-      </c>
-      <c r="B294" t="s">
-        <v>679</v>
-      </c>
-      <c r="C294" t="s">
-        <v>684</v>
-      </c>
-      <c r="D294" t="s">
-        <v>685</v>
-      </c>
-      <c r="E294">
         <v>0</v>
       </c>
     </row>

--- a/read_the_world.xlsx
+++ b/read_the_world.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742">
   <si>
     <t>Code</t>
   </si>
@@ -55,7 +55,7 @@
     <t>A Thousand Splendid Suns</t>
   </si>
   <si>
-    <t>The Kiterunner</t>
+    <t>The Kite Runner</t>
   </si>
   <si>
     <t>AM</t>
@@ -118,6 +118,12 @@
     <t>Tim Butcher</t>
   </si>
   <si>
+    <t>The Poisonwood Bible</t>
+  </si>
+  <si>
+    <t>Barbara Kingsolver</t>
+  </si>
+  <si>
     <t>Congo: The Epic History of a People</t>
   </si>
   <si>
@@ -175,6 +181,12 @@
     <t>Jung Chang</t>
   </si>
   <si>
+    <t>Life</t>
+  </si>
+  <si>
+    <t>Lu Yao</t>
+  </si>
+  <si>
     <t>CO</t>
   </si>
   <si>
@@ -253,6 +265,12 @@
     <t>Argentina</t>
   </si>
   <si>
+    <t>Out of the Silence: After the Crash</t>
+  </si>
+  <si>
+    <t>Eduardo Strauch with Mireya Soriano</t>
+  </si>
+  <si>
     <t>AS</t>
   </si>
   <si>
@@ -367,6 +385,12 @@
     <t>Brazil</t>
   </si>
   <si>
+    <t>Along the Tapajós</t>
+  </si>
+  <si>
+    <t>Fernando Vilela</t>
+  </si>
+  <si>
     <t>BS</t>
   </si>
   <si>
@@ -463,7 +487,7 @@
     <t>Czech Republic</t>
   </si>
   <si>
-    <t>The IUnbearable Lightness of Being</t>
+    <t>The Unbearable Lightness of Being</t>
   </si>
   <si>
     <t>Milan Kundera</t>
@@ -475,6 +499,24 @@
     <t>Germany</t>
   </si>
   <si>
+    <t>Christopher and His Kind</t>
+  </si>
+  <si>
+    <t>Christopher Isherwood</t>
+  </si>
+  <si>
+    <t>Bent</t>
+  </si>
+  <si>
+    <t>Martin Sherman</t>
+  </si>
+  <si>
+    <t>Your Perfect Year</t>
+  </si>
+  <si>
+    <t>Charlotte Lucas</t>
+  </si>
+  <si>
     <t>DJ</t>
   </si>
   <si>
@@ -583,6 +625,12 @@
     <t>Javier Cercas</t>
   </si>
   <si>
+    <t>The Price of Paradise</t>
+  </si>
+  <si>
+    <t>Susana López Rubio</t>
+  </si>
+  <si>
     <t>ET</t>
   </si>
   <si>
@@ -649,6 +697,12 @@
     <t>Joanne Harris</t>
   </si>
   <si>
+    <t>The Spy</t>
+  </si>
+  <si>
+    <t>Paulo Coelho</t>
+  </si>
+  <si>
     <t>GA</t>
   </si>
   <si>
@@ -865,6 +919,21 @@
     <t>Ireland</t>
   </si>
   <si>
+    <t>The Field</t>
+  </si>
+  <si>
+    <t>John B. Keane</t>
+  </si>
+  <si>
+    <t>Sive</t>
+  </si>
+  <si>
+    <t>An tOileánach (The Islandman)</t>
+  </si>
+  <si>
+    <t>Tomás Ó Criomhthain</t>
+  </si>
+  <si>
     <t>IL</t>
   </si>
   <si>
@@ -877,6 +946,12 @@
     <t>Colum McCann</t>
   </si>
   <si>
+    <t>The First Mrs. Rothschild</t>
+  </si>
+  <si>
+    <t>Sara Aharoni</t>
+  </si>
+  <si>
     <t>IM</t>
   </si>
   <si>
@@ -913,6 +988,12 @@
     <t>Salman Rushdie</t>
   </si>
   <si>
+    <t>Siddhartha</t>
+  </si>
+  <si>
+    <t>Hermann Hesse</t>
+  </si>
+  <si>
     <t>IO</t>
   </si>
   <si>
@@ -943,6 +1024,12 @@
     <t>Iceland</t>
   </si>
   <si>
+    <t>Trolls - Monster Worm - Hidden People: Fond Memories of Iceland</t>
+  </si>
+  <si>
+    <t>Íeda Jónasdóttir Herman</t>
+  </si>
+  <si>
     <t>IT</t>
   </si>
   <si>
@@ -991,6 +1078,12 @@
     <t>Gengoroh Tagame</t>
   </si>
   <si>
+    <t>Number9Dream</t>
+  </si>
+  <si>
+    <t>David Mitchell</t>
+  </si>
+  <si>
     <t>KE</t>
   </si>
   <si>
@@ -1021,6 +1114,12 @@
     <t>Victoria Jamieson and Omar Mohamed</t>
   </si>
   <si>
+    <t>The Man-eaters of Tsavo</t>
+  </si>
+  <si>
+    <t>John Henry Patterson</t>
+  </si>
+  <si>
     <t>KG</t>
   </si>
   <si>
@@ -1123,6 +1222,12 @@
     <t>Liberia</t>
   </si>
   <si>
+    <t>Murder in the Cassava Patch</t>
+  </si>
+  <si>
+    <t>Bai T. Moore</t>
+  </si>
+  <si>
     <t>LS</t>
   </si>
   <si>
@@ -1213,6 +1318,15 @@
     <t>Amadou Hampâté Bâ</t>
   </si>
   <si>
+    <t>Sidikiba's Kora Lesson</t>
+  </si>
+  <si>
+    <t>Ryan Thomas Skinner</t>
+  </si>
+  <si>
+    <t>children's book</t>
+  </si>
+  <si>
     <t>MM</t>
   </si>
   <si>
@@ -1285,12 +1399,27 @@
     <t>Mexico</t>
   </si>
   <si>
+    <t>The Pearl</t>
+  </si>
+  <si>
+    <t>John Steinbeck</t>
+  </si>
+  <si>
     <t>MY</t>
   </si>
   <si>
     <t>Malaysia</t>
   </si>
   <si>
+    <t>The Kampung Boy</t>
+  </si>
+  <si>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t>Town Boy</t>
+  </si>
+  <si>
     <t>MZ</t>
   </si>
   <si>
@@ -1480,6 +1609,12 @@
     <t>Charlotte Mendelson</t>
   </si>
   <si>
+    <t>Night</t>
+  </si>
+  <si>
+    <t>Elie Wiesel</t>
+  </si>
+  <si>
     <t>PM</t>
   </si>
   <si>
@@ -1570,6 +1705,9 @@
     <t>Leo Tolstoy</t>
   </si>
   <si>
+    <t>Aleph</t>
+  </si>
+  <si>
     <t>RW</t>
   </si>
   <si>
@@ -1747,6 +1885,12 @@
     <t>Syria</t>
   </si>
   <si>
+    <t>We Crossed a Bridge and it Trembled: Voices from Syria</t>
+  </si>
+  <si>
+    <t>Wendy Pearlman</t>
+  </si>
+  <si>
     <t>SZ</t>
   </si>
   <si>
@@ -1837,12 +1981,27 @@
     <t>Orhan Pamuk</t>
   </si>
   <si>
+    <t>The Girl in the Tree</t>
+  </si>
+  <si>
+    <t>Şebnem İşigüzel</t>
+  </si>
+  <si>
     <t>TT</t>
   </si>
   <si>
     <t>Trinidad and Tobago</t>
   </si>
   <si>
+    <t>The Stars and the Blackness Between Them</t>
+  </si>
+  <si>
+    <t>Junauda Petrus</t>
+  </si>
+  <si>
+    <t>WIP</t>
+  </si>
+  <si>
     <t>TV</t>
   </si>
   <si>
@@ -1882,6 +2041,12 @@
     <t>Ukraine</t>
   </si>
   <si>
+    <t>Zakhar Berkut</t>
+  </si>
+  <si>
+    <t>Ivan Franko</t>
+  </si>
+  <si>
     <t>UG</t>
   </si>
   <si>
@@ -1924,6 +2089,12 @@
     <t>Octavia E. Butler</t>
   </si>
   <si>
+    <t>American War</t>
+  </si>
+  <si>
+    <t>Omar El Akkad</t>
+  </si>
+  <si>
     <t>UY</t>
   </si>
   <si>
@@ -1970,6 +2141,15 @@
   </si>
   <si>
     <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Inside Out &amp; Back Again</t>
+  </si>
+  <si>
+    <t>Thanhha Lai</t>
+  </si>
+  <si>
+    <t>mostly takes place in the U.S.</t>
   </si>
   <si>
     <t>VU</t>
@@ -2072,13 +2252,20 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Liberation Sans"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2530,155 +2717,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2998,15 +3186,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F292"/>
+  <dimension ref="A1:G310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I275" sqref="I275"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="10.9375" customWidth="1"/>
     <col min="3" max="3" width="27.8125" customWidth="1"/>
@@ -3202,21 +3390,21 @@
         <v>35</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
         <v>36</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>37</v>
-      </c>
-      <c r="C12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" t="s">
-        <v>39</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -3224,10 +3412,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
         <v>40</v>
@@ -3241,16 +3429,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
         <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -3258,16 +3446,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
         <v>43</v>
-      </c>
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" t="s">
-        <v>46</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3275,9 +3463,15 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
         <v>47</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
         <v>48</v>
       </c>
       <c r="E16">
@@ -3291,39 +3485,39 @@
       <c r="B17" t="s">
         <v>50</v>
       </c>
-      <c r="C17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" t="s">
-        <v>52</v>
-      </c>
       <c r="E17">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
         <v>53</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" t="s">
         <v>54</v>
       </c>
-      <c r="C18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" t="s">
-        <v>56</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" t="s">
+        <v>56</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -3331,27 +3525,27 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
         <v>59</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" t="s">
         <v>60</v>
       </c>
-      <c r="C20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" t="s">
-        <v>62</v>
-      </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -3359,9 +3553,15 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
         <v>65</v>
       </c>
-      <c r="B22" t="s">
+      <c r="D22" t="s">
         <v>66</v>
       </c>
       <c r="E22">
@@ -3452,16 +3652,22 @@
       <c r="B30" t="s">
         <v>82</v>
       </c>
+      <c r="C30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" t="s">
+        <v>84</v>
+      </c>
       <c r="E30">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -3469,10 +3675,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -3480,10 +3686,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -3491,10 +3697,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B34" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -3502,10 +3708,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -3513,10 +3719,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B36" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -3524,10 +3730,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -3535,10 +3741,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B38" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -3546,10 +3752,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -3557,10 +3763,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -3568,10 +3774,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B41" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -3579,10 +3785,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B42" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -3590,10 +3796,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B43" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -3601,10 +3807,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B44" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -3612,10 +3818,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B45" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3623,10 +3829,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B46" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3634,10 +3840,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B47" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3645,10 +3851,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B48" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3656,10 +3862,16 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B49" t="s">
-        <v>120</v>
+        <v>122</v>
+      </c>
+      <c r="C49" t="s">
+        <v>123</v>
+      </c>
+      <c r="D49" t="s">
+        <v>124</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3667,10 +3879,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B50" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3678,10 +3890,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B51" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3689,16 +3901,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B52" t="s">
-        <v>126</v>
-      </c>
-      <c r="C52" t="s">
-        <v>127</v>
-      </c>
-      <c r="D52" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3706,10 +3912,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B53" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3717,10 +3923,16 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B54" t="s">
-        <v>132</v>
+        <v>134</v>
+      </c>
+      <c r="C54" t="s">
+        <v>135</v>
+      </c>
+      <c r="D54" t="s">
+        <v>136</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3728,10 +3940,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B55" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3739,10 +3951,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B56" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3750,10 +3962,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B57" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3761,10 +3973,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>47</v>
+        <v>143</v>
       </c>
       <c r="B58" t="s">
-        <v>48</v>
+        <v>144</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3772,10 +3984,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="B59" t="s">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3783,10 +3995,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3794,10 +4006,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="B61" t="s">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3805,10 +4017,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>142</v>
+        <v>62</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3816,10 +4028,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B63" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3827,10 +4039,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B64" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3838,16 +4050,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B65" t="s">
-        <v>148</v>
-      </c>
-      <c r="C65" t="s">
-        <v>149</v>
-      </c>
-      <c r="D65" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3855,10 +4061,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B66" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3866,10 +4072,16 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B67" t="s">
-        <v>154</v>
+        <v>156</v>
+      </c>
+      <c r="C67" t="s">
+        <v>157</v>
+      </c>
+      <c r="D67" t="s">
+        <v>158</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3877,24 +4089,36 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B68" t="s">
-        <v>156</v>
+        <v>160</v>
+      </c>
+      <c r="C68" t="s">
+        <v>161</v>
+      </c>
+      <c r="D68" t="s">
+        <v>162</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B69" t="s">
-        <v>158</v>
+        <v>160</v>
+      </c>
+      <c r="C69" t="s">
+        <v>163</v>
+      </c>
+      <c r="D69" t="s">
+        <v>164</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3905,10 +4129,10 @@
         <v>160</v>
       </c>
       <c r="C70" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D70" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3916,10 +4140,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B71" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3927,10 +4151,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B72" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3938,10 +4162,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B73" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3949,16 +4173,16 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B74" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C74" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D74" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -3966,10 +4190,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B75" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3977,10 +4201,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B76" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -3988,16 +4212,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B77" t="s">
-        <v>178</v>
-      </c>
-      <c r="C77" t="s">
-        <v>179</v>
-      </c>
-      <c r="D77" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -4005,16 +4223,16 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B78" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C78" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D78" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -4022,16 +4240,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="B79" t="s">
-        <v>178</v>
-      </c>
-      <c r="C79" t="s">
-        <v>183</v>
-      </c>
-      <c r="D79" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -4039,16 +4251,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="B80" t="s">
-        <v>178</v>
-      </c>
-      <c r="C80" t="s">
-        <v>185</v>
-      </c>
-      <c r="D80" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -4056,16 +4262,16 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="B81" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="C81" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="D81" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -4073,16 +4279,16 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B82" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C82" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D82" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -4090,10 +4296,16 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B83" t="s">
-        <v>194</v>
+        <v>192</v>
+      </c>
+      <c r="C83" t="s">
+        <v>197</v>
+      </c>
+      <c r="D83" t="s">
+        <v>198</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -4101,10 +4313,16 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B84" t="s">
-        <v>196</v>
+        <v>192</v>
+      </c>
+      <c r="C84" t="s">
+        <v>199</v>
+      </c>
+      <c r="D84" t="s">
+        <v>200</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -4112,10 +4330,16 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B85" t="s">
-        <v>198</v>
+        <v>192</v>
+      </c>
+      <c r="C85" t="s">
+        <v>201</v>
+      </c>
+      <c r="D85" t="s">
+        <v>202</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -4123,10 +4347,16 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B86" t="s">
-        <v>200</v>
+        <v>192</v>
+      </c>
+      <c r="C86" t="s">
+        <v>203</v>
+      </c>
+      <c r="D86" t="s">
+        <v>204</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -4134,16 +4364,16 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B87" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C87" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D87" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -4151,16 +4381,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B88" t="s">
-        <v>206</v>
-      </c>
-      <c r="C88" t="s">
-        <v>207</v>
-      </c>
-      <c r="D88" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -4168,16 +4392,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B89" t="s">
-        <v>206</v>
-      </c>
-      <c r="C89" t="s">
-        <v>209</v>
-      </c>
-      <c r="D89" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -4185,10 +4403,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B90" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -4196,10 +4414,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B91" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -4207,10 +4425,16 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B92" t="s">
-        <v>216</v>
+        <v>218</v>
+      </c>
+      <c r="C92" t="s">
+        <v>219</v>
+      </c>
+      <c r="D92" t="s">
+        <v>220</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -4218,10 +4442,16 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B93" t="s">
-        <v>218</v>
+        <v>222</v>
+      </c>
+      <c r="C93" t="s">
+        <v>223</v>
+      </c>
+      <c r="D93" t="s">
+        <v>224</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -4229,10 +4459,16 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B94" t="s">
-        <v>220</v>
+        <v>222</v>
+      </c>
+      <c r="C94" t="s">
+        <v>225</v>
+      </c>
+      <c r="D94" t="s">
+        <v>226</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -4245,22 +4481,22 @@
       <c r="B95" t="s">
         <v>222</v>
       </c>
+      <c r="C95" t="s">
+        <v>227</v>
+      </c>
+      <c r="D95" t="s">
+        <v>228</v>
+      </c>
       <c r="E95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B96" t="s">
-        <v>224</v>
-      </c>
-      <c r="C96" t="s">
-        <v>225</v>
-      </c>
-      <c r="D96" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -4268,16 +4504,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="B97" t="s">
-        <v>224</v>
-      </c>
-      <c r="C97" t="s">
-        <v>227</v>
-      </c>
-      <c r="D97" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -4285,16 +4515,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="B98" t="s">
-        <v>224</v>
-      </c>
-      <c r="C98" t="s">
-        <v>229</v>
-      </c>
-      <c r="D98" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -4302,16 +4526,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="B99" t="s">
-        <v>224</v>
-      </c>
-      <c r="C99" t="s">
-        <v>231</v>
-      </c>
-      <c r="D99" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -4319,27 +4537,21 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="B100" t="s">
-        <v>224</v>
-      </c>
-      <c r="C100" t="s">
-        <v>233</v>
-      </c>
-      <c r="D100" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B101" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -4347,10 +4559,16 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B102" t="s">
-        <v>238</v>
+        <v>242</v>
+      </c>
+      <c r="C102" t="s">
+        <v>243</v>
+      </c>
+      <c r="D102" t="s">
+        <v>244</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -4358,10 +4576,16 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B103" t="s">
-        <v>240</v>
+        <v>242</v>
+      </c>
+      <c r="C103" t="s">
+        <v>245</v>
+      </c>
+      <c r="D103" t="s">
+        <v>246</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -4375,21 +4599,27 @@
         <v>242</v>
       </c>
       <c r="C104" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D104" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B105" t="s">
-        <v>246</v>
+        <v>242</v>
+      </c>
+      <c r="C105" t="s">
+        <v>249</v>
+      </c>
+      <c r="D105" t="s">
+        <v>250</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -4397,27 +4627,27 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B106" t="s">
-        <v>248</v>
+        <v>242</v>
+      </c>
+      <c r="C106" t="s">
+        <v>251</v>
+      </c>
+      <c r="D106" t="s">
+        <v>252</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B107" t="s">
-        <v>250</v>
-      </c>
-      <c r="C107" t="s">
-        <v>251</v>
-      </c>
-      <c r="D107" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -4425,16 +4655,10 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B108" t="s">
-        <v>250</v>
-      </c>
-      <c r="C108" t="s">
-        <v>253</v>
-      </c>
-      <c r="D108" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -4442,10 +4666,10 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B109" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -4453,21 +4677,27 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B110" t="s">
-        <v>258</v>
+        <v>260</v>
+      </c>
+      <c r="C110" t="s">
+        <v>261</v>
+      </c>
+      <c r="D110" t="s">
+        <v>262</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B111" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -4475,10 +4705,10 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B112" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -4486,10 +4716,16 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B113" t="s">
-        <v>264</v>
+        <v>268</v>
+      </c>
+      <c r="C113" t="s">
+        <v>269</v>
+      </c>
+      <c r="D113" t="s">
+        <v>270</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -4497,10 +4733,16 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B114" t="s">
-        <v>266</v>
+        <v>268</v>
+      </c>
+      <c r="C114" t="s">
+        <v>271</v>
+      </c>
+      <c r="D114" t="s">
+        <v>272</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -4508,10 +4750,10 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B115" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -4519,10 +4761,10 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="B116" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -4530,10 +4772,10 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B117" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -4541,16 +4783,10 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B118" t="s">
-        <v>274</v>
-      </c>
-      <c r="C118" t="s">
-        <v>275</v>
-      </c>
-      <c r="D118" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -4558,10 +4794,10 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B119" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -4569,10 +4805,10 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B120" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -4580,10 +4816,10 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B121" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -4591,16 +4827,10 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B122" t="s">
-        <v>284</v>
-      </c>
-      <c r="C122" t="s">
-        <v>285</v>
-      </c>
-      <c r="D122" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -4608,10 +4838,10 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B123" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -4619,16 +4849,16 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B124" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C124" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D124" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -4636,16 +4866,10 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="B125" t="s">
-        <v>290</v>
-      </c>
-      <c r="C125" t="s">
-        <v>293</v>
-      </c>
-      <c r="D125" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -4653,16 +4877,10 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="B126" t="s">
-        <v>290</v>
-      </c>
-      <c r="C126" t="s">
-        <v>295</v>
-      </c>
-      <c r="D126" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -4670,19 +4888,19 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="B127" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="C127" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D127" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -4692,16 +4910,28 @@
       <c r="B128" t="s">
         <v>300</v>
       </c>
+      <c r="C128" t="s">
+        <v>303</v>
+      </c>
+      <c r="D128" t="s">
+        <v>302</v>
+      </c>
       <c r="E128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B129" t="s">
-        <v>302</v>
+        <v>300</v>
+      </c>
+      <c r="C129" t="s">
+        <v>304</v>
+      </c>
+      <c r="D129" t="s">
+        <v>305</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -4709,27 +4939,33 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B130" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C130" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D130" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
+        <v>306</v>
+      </c>
+      <c r="B131" t="s">
         <v>307</v>
       </c>
-      <c r="B131" t="s">
-        <v>308</v>
+      <c r="C131" t="s">
+        <v>310</v>
+      </c>
+      <c r="D131" t="s">
+        <v>311</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -4737,16 +4973,10 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B132" t="s">
-        <v>310</v>
-      </c>
-      <c r="C132" t="s">
-        <v>311</v>
-      </c>
-      <c r="D132" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -4754,10 +4984,16 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B133" t="s">
-        <v>314</v>
+        <v>315</v>
+      </c>
+      <c r="C133" t="s">
+        <v>316</v>
+      </c>
+      <c r="D133" t="s">
+        <v>317</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -4765,10 +5001,16 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
+        <v>314</v>
+      </c>
+      <c r="B134" t="s">
         <v>315</v>
       </c>
-      <c r="B134" t="s">
-        <v>316</v>
+      <c r="C134" t="s">
+        <v>318</v>
+      </c>
+      <c r="D134" t="s">
+        <v>319</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -4776,10 +5018,16 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B135" t="s">
-        <v>318</v>
+        <v>315</v>
+      </c>
+      <c r="C135" t="s">
+        <v>320</v>
+      </c>
+      <c r="D135" t="s">
+        <v>321</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -4787,16 +5035,16 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B136" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C136" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D136" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -4804,16 +5052,16 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B137" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C137" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D137" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E137">
         <v>1</v>
@@ -4821,16 +5069,10 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B138" t="s">
-        <v>326</v>
-      </c>
-      <c r="C138" t="s">
         <v>327</v>
-      </c>
-      <c r="D138" t="s">
-        <v>328</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -4838,16 +5080,10 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B139" t="s">
-        <v>326</v>
-      </c>
-      <c r="C139" t="s">
         <v>329</v>
-      </c>
-      <c r="D139" t="s">
-        <v>330</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -4855,16 +5091,16 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B140" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C140" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D140" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E140">
         <v>1</v>
@@ -4872,16 +5108,16 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="B141" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="C141" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D141" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="E141">
         <v>1</v>
@@ -4889,10 +5125,16 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B142" t="s">
-        <v>336</v>
+        <v>339</v>
+      </c>
+      <c r="C142" t="s">
+        <v>340</v>
+      </c>
+      <c r="D142" t="s">
+        <v>341</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -4900,10 +5142,10 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="B143" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -4911,10 +5153,10 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B144" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -4922,10 +5164,10 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B145" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="E145">
         <v>0</v>
@@ -4933,10 +5175,16 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B146" t="s">
-        <v>344</v>
+        <v>349</v>
+      </c>
+      <c r="C146" t="s">
+        <v>350</v>
+      </c>
+      <c r="D146" t="s">
+        <v>351</v>
       </c>
       <c r="E146">
         <v>0</v>
@@ -4944,38 +5192,50 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B147" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C147" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="D147" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
+        <v>348</v>
+      </c>
+      <c r="B148" t="s">
         <v>349</v>
       </c>
-      <c r="B148" t="s">
-        <v>350</v>
+      <c r="C148" t="s">
+        <v>354</v>
+      </c>
+      <c r="D148" t="s">
+        <v>355</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B149" t="s">
-        <v>352</v>
+        <v>357</v>
+      </c>
+      <c r="C149" t="s">
+        <v>358</v>
+      </c>
+      <c r="D149" t="s">
+        <v>359</v>
       </c>
       <c r="E149">
         <v>0</v>
@@ -4983,10 +5243,16 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B150" t="s">
-        <v>354</v>
+        <v>357</v>
+      </c>
+      <c r="C150" t="s">
+        <v>360</v>
+      </c>
+      <c r="D150" t="s">
+        <v>361</v>
       </c>
       <c r="E150">
         <v>0</v>
@@ -4994,43 +5260,63 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B151" t="s">
+        <v>357</v>
+      </c>
+      <c r="C151" t="s">
+        <v>362</v>
+      </c>
+      <c r="D151" t="s">
+        <v>363</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" ht="16.8" spans="1:7">
+      <c r="A152" t="s">
         <v>356</v>
       </c>
-      <c r="E151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
-      <c r="A152" t="s">
+      <c r="B152" t="s">
         <v>357</v>
       </c>
-      <c r="B152" t="s">
-        <v>358</v>
+      <c r="C152" t="s">
+        <v>364</v>
+      </c>
+      <c r="D152" t="s">
+        <v>365</v>
       </c>
       <c r="E152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
+        <v>1</v>
+      </c>
+      <c r="G152" s="1"/>
+    </row>
+    <row r="153" ht="16.8" spans="1:7">
       <c r="A153" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B153" t="s">
-        <v>360</v>
+        <v>357</v>
+      </c>
+      <c r="C153" t="s">
+        <v>366</v>
+      </c>
+      <c r="D153" t="s">
+        <v>367</v>
       </c>
       <c r="E153">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G153" s="1"/>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="B154" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="E154">
         <v>0</v>
@@ -5038,10 +5324,10 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="B155" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -5049,10 +5335,10 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="B156" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -5060,10 +5346,10 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="B157" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="E157">
         <v>0</v>
@@ -5071,10 +5357,10 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="B158" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="E158">
         <v>0</v>
@@ -5082,10 +5368,16 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="B159" t="s">
-        <v>372</v>
+        <v>379</v>
+      </c>
+      <c r="C159" t="s">
+        <v>380</v>
+      </c>
+      <c r="D159" t="s">
+        <v>381</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -5093,10 +5385,10 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="B160" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="E160">
         <v>0</v>
@@ -5104,10 +5396,10 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="B161" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="E161">
         <v>0</v>
@@ -5115,10 +5407,10 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="B162" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="E162">
         <v>0</v>
@@ -5126,10 +5418,10 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="B163" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="E163">
         <v>0</v>
@@ -5137,10 +5429,10 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="B164" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="E164">
         <v>0</v>
@@ -5148,10 +5440,10 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="B165" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="E165">
         <v>0</v>
@@ -5159,10 +5451,10 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="B166" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="E166">
         <v>0</v>
@@ -5170,10 +5462,10 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="B167" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="E167">
         <v>0</v>
@@ -5181,10 +5473,10 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="B168" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="E168">
         <v>0</v>
@@ -5192,21 +5484,27 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="B169" t="s">
-        <v>392</v>
+        <v>401</v>
+      </c>
+      <c r="C169" t="s">
+        <v>402</v>
+      </c>
+      <c r="D169" t="s">
+        <v>403</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="B170" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="E170">
         <v>0</v>
@@ -5214,16 +5512,10 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="B171" t="s">
-        <v>396</v>
-      </c>
-      <c r="C171" t="s">
-        <v>397</v>
-      </c>
-      <c r="D171" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="E171">
         <v>0</v>
@@ -5231,10 +5523,10 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="B172" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="E172">
         <v>0</v>
@@ -5242,10 +5534,10 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="B173" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -5253,10 +5545,10 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="B174" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="E174">
         <v>0</v>
@@ -5264,10 +5556,10 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="B175" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="E175">
         <v>0</v>
@@ -5275,10 +5567,10 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="B176" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="E176">
         <v>0</v>
@@ -5286,10 +5578,10 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="B177" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="E177">
         <v>0</v>
@@ -5297,10 +5589,10 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B178" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="E178">
         <v>0</v>
@@ -5308,10 +5600,10 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="B179" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="E179">
         <v>0</v>
@@ -5319,10 +5611,10 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="B180" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="E180">
         <v>0</v>
@@ -5330,10 +5622,10 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="B181" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="E181">
         <v>0</v>
@@ -5341,10 +5633,10 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="B182" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="E182">
         <v>0</v>
@@ -5352,38 +5644,47 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="B183" t="s">
-        <v>422</v>
+        <v>431</v>
+      </c>
+      <c r="C183" t="s">
+        <v>432</v>
+      </c>
+      <c r="D183" t="s">
+        <v>433</v>
       </c>
       <c r="E183">
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:6">
       <c r="A184" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="B184" t="s">
-        <v>424</v>
+        <v>431</v>
+      </c>
+      <c r="C184" t="s">
+        <v>434</v>
+      </c>
+      <c r="D184" t="s">
+        <v>435</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F184" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="B185" t="s">
-        <v>426</v>
-      </c>
-      <c r="C185" t="s">
-        <v>427</v>
-      </c>
-      <c r="D185" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="E185">
         <v>0</v>
@@ -5391,10 +5692,10 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="B186" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="E186">
         <v>0</v>
@@ -5402,10 +5703,10 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="B187" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="E187">
         <v>0</v>
@@ -5413,10 +5714,10 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="B188" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="E188">
         <v>0</v>
@@ -5424,10 +5725,10 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="B189" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="E189">
         <v>0</v>
@@ -5435,50 +5736,32 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="B190" t="s">
-        <v>438</v>
-      </c>
-      <c r="C190" t="s">
-        <v>439</v>
-      </c>
-      <c r="D190" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="E190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="B191" t="s">
-        <v>438</v>
-      </c>
-      <c r="C191" t="s">
-        <v>441</v>
-      </c>
-      <c r="D191" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="E191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" t="s">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="B192" t="s">
-        <v>438</v>
-      </c>
-      <c r="C192" t="s">
-        <v>443</v>
-      </c>
-      <c r="D192" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="E192">
         <v>0</v>
@@ -5486,16 +5769,10 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="B193" t="s">
-        <v>438</v>
-      </c>
-      <c r="C193" t="s">
-        <v>445</v>
-      </c>
-      <c r="D193" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="E193">
         <v>0</v>
@@ -5503,10 +5780,10 @@
     </row>
     <row r="194" spans="1:5">
       <c r="A194" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="B194" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="E194">
         <v>0</v>
@@ -5514,72 +5791,78 @@
     </row>
     <row r="195" spans="1:5">
       <c r="A195" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="B195" t="s">
-        <v>450</v>
-      </c>
-      <c r="C195" t="s">
-        <v>451</v>
-      </c>
-      <c r="D195" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="E195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="B196" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="C196" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="D196" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="B197" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="C197" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="D197" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="B198" t="s">
-        <v>459</v>
+        <v>464</v>
+      </c>
+      <c r="C198" t="s">
+        <v>467</v>
+      </c>
+      <c r="D198" t="s">
+        <v>466</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="B199" t="s">
-        <v>461</v>
+        <v>469</v>
+      </c>
+      <c r="C199" t="s">
+        <v>470</v>
+      </c>
+      <c r="D199" t="s">
+        <v>471</v>
       </c>
       <c r="E199">
         <v>0</v>
@@ -5587,10 +5870,10 @@
     </row>
     <row r="200" spans="1:5">
       <c r="A200" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="B200" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="E200">
         <v>0</v>
@@ -5598,10 +5881,10 @@
     </row>
     <row r="201" spans="1:5">
       <c r="A201" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="B201" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="E201">
         <v>0</v>
@@ -5609,10 +5892,10 @@
     </row>
     <row r="202" spans="1:5">
       <c r="A202" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="B202" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="E202">
         <v>0</v>
@@ -5620,10 +5903,10 @@
     </row>
     <row r="203" spans="1:5">
       <c r="A203" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="B203" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="E203">
         <v>0</v>
@@ -5631,16 +5914,16 @@
     </row>
     <row r="204" spans="1:5">
       <c r="A204" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="B204" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="C204" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="D204" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="E204">
         <v>1</v>
@@ -5648,27 +5931,33 @@
     </row>
     <row r="205" spans="1:5">
       <c r="A205" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="B205" t="s">
-        <v>475</v>
+        <v>481</v>
+      </c>
+      <c r="C205" t="s">
+        <v>484</v>
+      </c>
+      <c r="D205" t="s">
+        <v>485</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B206" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="C206" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="D206" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="E206">
         <v>0</v>
@@ -5681,16 +5970,22 @@
       <c r="B207" t="s">
         <v>481</v>
       </c>
+      <c r="C207" t="s">
+        <v>488</v>
+      </c>
+      <c r="D207" t="s">
+        <v>489</v>
+      </c>
       <c r="E207">
         <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="B208" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="E208">
         <v>0</v>
@@ -5698,27 +5993,33 @@
     </row>
     <row r="209" spans="1:5">
       <c r="A209" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="B209" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="C209" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="D209" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="B210" t="s">
-        <v>489</v>
+        <v>497</v>
+      </c>
+      <c r="C210" t="s">
+        <v>498</v>
+      </c>
+      <c r="D210" t="s">
+        <v>499</v>
       </c>
       <c r="E210">
         <v>0</v>
@@ -5726,10 +6027,16 @@
     </row>
     <row r="211" spans="1:5">
       <c r="A211" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="B211" t="s">
-        <v>491</v>
+        <v>497</v>
+      </c>
+      <c r="C211" t="s">
+        <v>500</v>
+      </c>
+      <c r="D211" t="s">
+        <v>499</v>
       </c>
       <c r="E211">
         <v>0</v>
@@ -5737,10 +6044,10 @@
     </row>
     <row r="212" spans="1:5">
       <c r="A212" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="B212" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="E212">
         <v>0</v>
@@ -5748,10 +6055,10 @@
     </row>
     <row r="213" spans="1:5">
       <c r="A213" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="B213" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="E213">
         <v>0</v>
@@ -5759,10 +6066,10 @@
     </row>
     <row r="214" spans="1:5">
       <c r="A214" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="B214" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="E214">
         <v>0</v>
@@ -5770,10 +6077,10 @@
     </row>
     <row r="215" spans="1:5">
       <c r="A215" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="B215" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="E215">
         <v>0</v>
@@ -5781,10 +6088,10 @@
     </row>
     <row r="216" spans="1:5">
       <c r="A216" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="B216" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="E216">
         <v>0</v>
@@ -5792,10 +6099,10 @@
     </row>
     <row r="217" spans="1:5">
       <c r="A217" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="B217" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="E217">
         <v>0</v>
@@ -5803,21 +6110,27 @@
     </row>
     <row r="218" spans="1:5">
       <c r="A218" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="B218" t="s">
-        <v>505</v>
+        <v>514</v>
+      </c>
+      <c r="C218" t="s">
+        <v>515</v>
+      </c>
+      <c r="D218" t="s">
+        <v>516</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="B219" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="E219">
         <v>0</v>
@@ -5825,10 +6138,16 @@
     </row>
     <row r="220" spans="1:5">
       <c r="A220" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="B220" t="s">
-        <v>509</v>
+        <v>520</v>
+      </c>
+      <c r="C220" t="s">
+        <v>521</v>
+      </c>
+      <c r="D220" t="s">
+        <v>522</v>
       </c>
       <c r="E220">
         <v>0</v>
@@ -5836,16 +6155,10 @@
     </row>
     <row r="221" spans="1:5">
       <c r="A221" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="B221" t="s">
-        <v>511</v>
-      </c>
-      <c r="C221" t="s">
-        <v>512</v>
-      </c>
-      <c r="D221" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="E221">
         <v>0</v>
@@ -5853,16 +6166,10 @@
     </row>
     <row r="222" spans="1:5">
       <c r="A222" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="B222" t="s">
-        <v>511</v>
-      </c>
-      <c r="C222" t="s">
-        <v>514</v>
-      </c>
-      <c r="D222" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="E222">
         <v>0</v>
@@ -5870,16 +6177,16 @@
     </row>
     <row r="223" spans="1:5">
       <c r="A223" t="s">
-        <v>510</v>
+        <v>527</v>
       </c>
       <c r="B223" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="C223" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="D223" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="E223">
         <v>0</v>
@@ -5887,27 +6194,27 @@
     </row>
     <row r="224" spans="1:5">
       <c r="A224" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="B224" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="C224" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="D224" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="B225" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="E225">
         <v>0</v>
@@ -5915,10 +6222,10 @@
     </row>
     <row r="226" spans="1:5">
       <c r="A226" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="B226" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="E226">
         <v>0</v>
@@ -5926,10 +6233,10 @@
     </row>
     <row r="227" spans="1:5">
       <c r="A227" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="B227" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="E227">
         <v>0</v>
@@ -5937,16 +6244,10 @@
     </row>
     <row r="228" spans="1:5">
       <c r="A228" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="B228" t="s">
-        <v>529</v>
-      </c>
-      <c r="C228" t="s">
-        <v>530</v>
-      </c>
-      <c r="D228" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="E228">
         <v>0</v>
@@ -5954,16 +6255,10 @@
     </row>
     <row r="229" spans="1:5">
       <c r="A229" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="B229" t="s">
-        <v>533</v>
-      </c>
-      <c r="C229" t="s">
-        <v>534</v>
-      </c>
-      <c r="D229" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="E229">
         <v>0</v>
@@ -5971,16 +6266,10 @@
     </row>
     <row r="230" spans="1:5">
       <c r="A230" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="B230" t="s">
-        <v>533</v>
-      </c>
-      <c r="C230" t="s">
-        <v>536</v>
-      </c>
-      <c r="D230" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="E230">
         <v>0</v>
@@ -5988,10 +6277,10 @@
     </row>
     <row r="231" spans="1:5">
       <c r="A231" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="B231" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="E231">
         <v>0</v>
@@ -5999,10 +6288,10 @@
     </row>
     <row r="232" spans="1:5">
       <c r="A232" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="B232" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="E232">
         <v>0</v>
@@ -6010,10 +6299,10 @@
     </row>
     <row r="233" spans="1:5">
       <c r="A233" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="B233" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="E233">
         <v>0</v>
@@ -6021,10 +6310,10 @@
     </row>
     <row r="234" spans="1:5">
       <c r="A234" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="B234" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="E234">
         <v>0</v>
@@ -6032,10 +6321,10 @@
     </row>
     <row r="235" spans="1:5">
       <c r="A235" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="B235" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="E235">
         <v>0</v>
@@ -6043,16 +6332,16 @@
     </row>
     <row r="236" spans="1:5">
       <c r="A236" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="B236" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="C236" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="D236" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="E236">
         <v>0</v>
@@ -6060,10 +6349,16 @@
     </row>
     <row r="237" spans="1:5">
       <c r="A237" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="B237" t="s">
-        <v>552</v>
+        <v>556</v>
+      </c>
+      <c r="C237" t="s">
+        <v>559</v>
+      </c>
+      <c r="D237" t="s">
+        <v>560</v>
       </c>
       <c r="E237">
         <v>0</v>
@@ -6071,16 +6366,16 @@
     </row>
     <row r="238" spans="1:5">
       <c r="A238" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B238" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C238" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="D238" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="E238">
         <v>0</v>
@@ -6088,33 +6383,33 @@
     </row>
     <row r="239" spans="1:5">
       <c r="A239" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B239" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C239" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="D239" t="s">
-        <v>560</v>
+        <v>228</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="B240" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="C240" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="D240" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="E240">
         <v>0</v>
@@ -6122,10 +6417,10 @@
     </row>
     <row r="241" spans="1:5">
       <c r="A241" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="B241" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="E241">
         <v>0</v>
@@ -6133,16 +6428,10 @@
     </row>
     <row r="242" spans="1:5">
       <c r="A242" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="B242" t="s">
-        <v>566</v>
-      </c>
-      <c r="C242" t="s">
-        <v>567</v>
-      </c>
-      <c r="D242" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="E242">
         <v>0</v>
@@ -6150,10 +6439,10 @@
     </row>
     <row r="243" spans="1:5">
       <c r="A243" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="B243" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="E243">
         <v>0</v>
@@ -6161,10 +6450,16 @@
     </row>
     <row r="244" spans="1:5">
       <c r="A244" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="B244" t="s">
-        <v>572</v>
+        <v>575</v>
+      </c>
+      <c r="C244" t="s">
+        <v>576</v>
+      </c>
+      <c r="D244" t="s">
+        <v>577</v>
       </c>
       <c r="E244">
         <v>0</v>
@@ -6172,10 +6467,16 @@
     </row>
     <row r="245" spans="1:5">
       <c r="A245" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="B245" t="s">
-        <v>574</v>
+        <v>579</v>
+      </c>
+      <c r="C245" t="s">
+        <v>580</v>
+      </c>
+      <c r="D245" t="s">
+        <v>581</v>
       </c>
       <c r="E245">
         <v>0</v>
@@ -6183,10 +6484,16 @@
     </row>
     <row r="246" spans="1:5">
       <c r="A246" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="B246" t="s">
-        <v>576</v>
+        <v>579</v>
+      </c>
+      <c r="C246" t="s">
+        <v>582</v>
+      </c>
+      <c r="D246" t="s">
+        <v>581</v>
       </c>
       <c r="E246">
         <v>0</v>
@@ -6194,10 +6501,10 @@
     </row>
     <row r="247" spans="1:5">
       <c r="A247" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="B247" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="E247">
         <v>0</v>
@@ -6205,10 +6512,10 @@
     </row>
     <row r="248" spans="1:5">
       <c r="A248" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="B248" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="E248">
         <v>0</v>
@@ -6216,10 +6523,10 @@
     </row>
     <row r="249" spans="1:5">
       <c r="A249" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="B249" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="E249">
         <v>0</v>
@@ -6227,10 +6534,10 @@
     </row>
     <row r="250" spans="1:5">
       <c r="A250" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="B250" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="E250">
         <v>0</v>
@@ -6238,10 +6545,10 @@
     </row>
     <row r="251" spans="1:5">
       <c r="A251" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="B251" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="E251">
         <v>0</v>
@@ -6249,10 +6556,16 @@
     </row>
     <row r="252" spans="1:5">
       <c r="A252" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="B252" t="s">
-        <v>588</v>
+        <v>594</v>
+      </c>
+      <c r="C252" t="s">
+        <v>595</v>
+      </c>
+      <c r="D252" t="s">
+        <v>596</v>
       </c>
       <c r="E252">
         <v>0</v>
@@ -6260,10 +6573,10 @@
     </row>
     <row r="253" spans="1:5">
       <c r="A253" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="B253" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="E253">
         <v>0</v>
@@ -6271,10 +6584,16 @@
     </row>
     <row r="254" spans="1:5">
       <c r="A254" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="B254" t="s">
-        <v>592</v>
+        <v>600</v>
+      </c>
+      <c r="C254" t="s">
+        <v>601</v>
+      </c>
+      <c r="D254" t="s">
+        <v>602</v>
       </c>
       <c r="E254">
         <v>0</v>
@@ -6282,16 +6601,16 @@
     </row>
     <row r="255" spans="1:5">
       <c r="A255" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="B255" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="C255" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="D255" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="E255">
         <v>0</v>
@@ -6299,10 +6618,16 @@
     </row>
     <row r="256" spans="1:5">
       <c r="A256" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="B256" t="s">
-        <v>598</v>
+        <v>604</v>
+      </c>
+      <c r="C256" t="s">
+        <v>607</v>
+      </c>
+      <c r="D256" t="s">
+        <v>608</v>
       </c>
       <c r="E256">
         <v>0</v>
@@ -6310,10 +6635,10 @@
     </row>
     <row r="257" spans="1:5">
       <c r="A257" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
       <c r="B257" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="E257">
         <v>0</v>
@@ -6321,10 +6646,16 @@
     </row>
     <row r="258" spans="1:5">
       <c r="A258" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="B258" t="s">
-        <v>602</v>
+        <v>612</v>
+      </c>
+      <c r="C258" t="s">
+        <v>613</v>
+      </c>
+      <c r="D258" t="s">
+        <v>614</v>
       </c>
       <c r="E258">
         <v>0</v>
@@ -6332,16 +6663,10 @@
     </row>
     <row r="259" spans="1:5">
       <c r="A259" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="B259" t="s">
-        <v>604</v>
-      </c>
-      <c r="C259" t="s">
-        <v>605</v>
-      </c>
-      <c r="D259" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="E259">
         <v>0</v>
@@ -6349,10 +6674,10 @@
     </row>
     <row r="260" spans="1:5">
       <c r="A260" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
       <c r="B260" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
       <c r="E260">
         <v>0</v>
@@ -6360,10 +6685,10 @@
     </row>
     <row r="261" spans="1:5">
       <c r="A261" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="B261" t="s">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="E261">
         <v>0</v>
@@ -6371,10 +6696,16 @@
     </row>
     <row r="262" spans="1:5">
       <c r="A262" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
       <c r="B262" t="s">
-        <v>612</v>
+        <v>622</v>
+      </c>
+      <c r="C262" t="s">
+        <v>623</v>
+      </c>
+      <c r="D262" t="s">
+        <v>624</v>
       </c>
       <c r="E262">
         <v>0</v>
@@ -6382,16 +6713,10 @@
     </row>
     <row r="263" spans="1:5">
       <c r="A263" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="B263" t="s">
-        <v>614</v>
-      </c>
-      <c r="C263" t="s">
-        <v>615</v>
-      </c>
-      <c r="D263" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
       <c r="E263">
         <v>0</v>
@@ -6399,16 +6724,10 @@
     </row>
     <row r="264" spans="1:5">
       <c r="A264" t="s">
-        <v>613</v>
+        <v>627</v>
       </c>
       <c r="B264" t="s">
-        <v>614</v>
-      </c>
-      <c r="C264" t="s">
-        <v>617</v>
-      </c>
-      <c r="D264" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="E264">
         <v>0</v>
@@ -6416,16 +6735,10 @@
     </row>
     <row r="265" spans="1:5">
       <c r="A265" t="s">
-        <v>613</v>
+        <v>629</v>
       </c>
       <c r="B265" t="s">
-        <v>614</v>
-      </c>
-      <c r="C265" t="s">
-        <v>618</v>
-      </c>
-      <c r="D265" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="E265">
         <v>0</v>
@@ -6433,10 +6746,10 @@
     </row>
     <row r="266" spans="1:5">
       <c r="A266" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
       <c r="B266" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="E266">
         <v>0</v>
@@ -6444,27 +6757,21 @@
     </row>
     <row r="267" spans="1:5">
       <c r="A267" t="s">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="B267" t="s">
-        <v>623</v>
-      </c>
-      <c r="C267" t="s">
-        <v>624</v>
-      </c>
-      <c r="D267" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
       <c r="E267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:5">
       <c r="A268" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
       <c r="B268" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E268">
         <v>0</v>
@@ -6472,61 +6779,49 @@
     </row>
     <row r="269" spans="1:5">
       <c r="A269" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="B269" t="s">
-        <v>629</v>
-      </c>
-      <c r="C269" t="s">
-        <v>630</v>
-      </c>
-      <c r="D269" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="E269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:5">
       <c r="A270" t="s">
-        <v>628</v>
+        <v>639</v>
       </c>
       <c r="B270" t="s">
-        <v>629</v>
-      </c>
-      <c r="C270" t="s">
-        <v>632</v>
-      </c>
-      <c r="D270" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="E270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:5">
       <c r="A271" t="s">
-        <v>628</v>
+        <v>641</v>
       </c>
       <c r="B271" t="s">
-        <v>629</v>
+        <v>642</v>
       </c>
       <c r="C271" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="D271" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="E271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:5">
       <c r="A272" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="B272" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="E272">
         <v>0</v>
@@ -6534,10 +6829,10 @@
     </row>
     <row r="273" spans="1:5">
       <c r="A273" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="B273" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="E273">
         <v>0</v>
@@ -6545,10 +6840,10 @@
     </row>
     <row r="274" spans="1:5">
       <c r="A274" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="B274" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
       <c r="E274">
         <v>0</v>
@@ -6556,10 +6851,16 @@
     </row>
     <row r="275" spans="1:5">
       <c r="A275" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
       <c r="B275" t="s">
-        <v>643</v>
+        <v>652</v>
+      </c>
+      <c r="C275" t="s">
+        <v>653</v>
+      </c>
+      <c r="D275" t="s">
+        <v>654</v>
       </c>
       <c r="E275">
         <v>0</v>
@@ -6567,32 +6868,47 @@
     </row>
     <row r="276" spans="1:5">
       <c r="A276" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="B276" t="s">
-        <v>645</v>
+        <v>652</v>
+      </c>
+      <c r="C276" t="s">
+        <v>655</v>
+      </c>
+      <c r="D276" t="s">
+        <v>656</v>
       </c>
       <c r="E276">
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:6">
       <c r="A277" t="s">
-        <v>646</v>
+        <v>657</v>
       </c>
       <c r="B277" t="s">
-        <v>647</v>
+        <v>658</v>
+      </c>
+      <c r="C277" t="s">
+        <v>659</v>
+      </c>
+      <c r="D277" t="s">
+        <v>660</v>
       </c>
       <c r="E277">
         <v>0</v>
+      </c>
+      <c r="F277" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="278" spans="1:5">
       <c r="A278" t="s">
-        <v>648</v>
+        <v>662</v>
       </c>
       <c r="B278" t="s">
-        <v>649</v>
+        <v>663</v>
       </c>
       <c r="E278">
         <v>0</v>
@@ -6600,10 +6916,10 @@
     </row>
     <row r="279" spans="1:5">
       <c r="A279" t="s">
-        <v>650</v>
+        <v>664</v>
       </c>
       <c r="B279" t="s">
-        <v>651</v>
+        <v>665</v>
       </c>
       <c r="E279">
         <v>0</v>
@@ -6611,10 +6927,16 @@
     </row>
     <row r="280" spans="1:5">
       <c r="A280" t="s">
-        <v>652</v>
+        <v>666</v>
       </c>
       <c r="B280" t="s">
-        <v>653</v>
+        <v>667</v>
+      </c>
+      <c r="C280" t="s">
+        <v>668</v>
+      </c>
+      <c r="D280" t="s">
+        <v>669</v>
       </c>
       <c r="E280">
         <v>0</v>
@@ -6622,10 +6944,16 @@
     </row>
     <row r="281" spans="1:5">
       <c r="A281" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="B281" t="s">
-        <v>655</v>
+        <v>667</v>
+      </c>
+      <c r="C281" t="s">
+        <v>670</v>
+      </c>
+      <c r="D281" t="s">
+        <v>669</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -6633,10 +6961,16 @@
     </row>
     <row r="282" spans="1:5">
       <c r="A282" t="s">
-        <v>656</v>
+        <v>666</v>
       </c>
       <c r="B282" t="s">
-        <v>657</v>
+        <v>667</v>
+      </c>
+      <c r="C282" t="s">
+        <v>671</v>
+      </c>
+      <c r="D282" t="s">
+        <v>672</v>
       </c>
       <c r="E282">
         <v>0</v>
@@ -6644,10 +6978,16 @@
     </row>
     <row r="283" spans="1:5">
       <c r="A283" t="s">
-        <v>658</v>
+        <v>673</v>
       </c>
       <c r="B283" t="s">
-        <v>659</v>
+        <v>674</v>
+      </c>
+      <c r="C283" t="s">
+        <v>675</v>
+      </c>
+      <c r="D283" t="s">
+        <v>676</v>
       </c>
       <c r="E283">
         <v>0</v>
@@ -6655,21 +6995,27 @@
     </row>
     <row r="284" spans="1:5">
       <c r="A284" t="s">
-        <v>660</v>
+        <v>677</v>
       </c>
       <c r="B284" t="s">
-        <v>661</v>
+        <v>678</v>
+      </c>
+      <c r="C284" t="s">
+        <v>679</v>
+      </c>
+      <c r="D284" t="s">
+        <v>680</v>
       </c>
       <c r="E284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:5">
       <c r="A285" t="s">
-        <v>662</v>
+        <v>681</v>
       </c>
       <c r="B285" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="E285">
         <v>0</v>
@@ -6677,50 +7023,50 @@
     </row>
     <row r="286" spans="1:5">
       <c r="A286" t="s">
-        <v>664</v>
+        <v>683</v>
       </c>
       <c r="B286" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="C286" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
       <c r="D286" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="E286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:5">
       <c r="A287" t="s">
-        <v>664</v>
+        <v>683</v>
       </c>
       <c r="B287" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="C287" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="D287" t="s">
-        <v>669</v>
+        <v>688</v>
       </c>
       <c r="E287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:5">
       <c r="A288" t="s">
-        <v>664</v>
+        <v>683</v>
       </c>
       <c r="B288" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="C288" t="s">
-        <v>670</v>
+        <v>689</v>
       </c>
       <c r="D288" t="s">
-        <v>671</v>
+        <v>690</v>
       </c>
       <c r="E288">
         <v>1</v>
@@ -6728,27 +7074,27 @@
     </row>
     <row r="289" spans="1:5">
       <c r="A289" t="s">
-        <v>672</v>
+        <v>683</v>
       </c>
       <c r="B289" t="s">
-        <v>673</v>
+        <v>684</v>
+      </c>
+      <c r="C289" t="s">
+        <v>691</v>
+      </c>
+      <c r="D289" t="s">
+        <v>692</v>
       </c>
       <c r="E289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:5">
       <c r="A290" t="s">
-        <v>674</v>
+        <v>693</v>
       </c>
       <c r="B290" t="s">
-        <v>675</v>
-      </c>
-      <c r="C290" t="s">
-        <v>676</v>
-      </c>
-      <c r="D290" t="s">
-        <v>677</v>
+        <v>694</v>
       </c>
       <c r="E290">
         <v>0</v>
@@ -6756,16 +7102,10 @@
     </row>
     <row r="291" spans="1:5">
       <c r="A291" t="s">
-        <v>674</v>
+        <v>695</v>
       </c>
       <c r="B291" t="s">
-        <v>675</v>
-      </c>
-      <c r="C291" t="s">
-        <v>678</v>
-      </c>
-      <c r="D291" t="s">
-        <v>679</v>
+        <v>696</v>
       </c>
       <c r="E291">
         <v>0</v>
@@ -6773,18 +7113,255 @@
     </row>
     <row r="292" spans="1:5">
       <c r="A292" t="s">
-        <v>674</v>
+        <v>697</v>
       </c>
       <c r="B292" t="s">
-        <v>675</v>
-      </c>
-      <c r="C292" t="s">
-        <v>680</v>
-      </c>
-      <c r="D292" t="s">
-        <v>681</v>
+        <v>698</v>
       </c>
       <c r="E292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" t="s">
+        <v>699</v>
+      </c>
+      <c r="B293" t="s">
+        <v>700</v>
+      </c>
+      <c r="E293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" t="s">
+        <v>701</v>
+      </c>
+      <c r="B294" t="s">
+        <v>702</v>
+      </c>
+      <c r="E294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" t="s">
+        <v>703</v>
+      </c>
+      <c r="B295" t="s">
+        <v>704</v>
+      </c>
+      <c r="E295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" t="s">
+        <v>705</v>
+      </c>
+      <c r="B296" t="s">
+        <v>706</v>
+      </c>
+      <c r="E296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
+      <c r="A297" t="s">
+        <v>707</v>
+      </c>
+      <c r="B297" t="s">
+        <v>708</v>
+      </c>
+      <c r="C297" t="s">
+        <v>709</v>
+      </c>
+      <c r="D297" t="s">
+        <v>710</v>
+      </c>
+      <c r="E297">
+        <v>1</v>
+      </c>
+      <c r="F297" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" t="s">
+        <v>712</v>
+      </c>
+      <c r="B298" t="s">
+        <v>713</v>
+      </c>
+      <c r="E298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" t="s">
+        <v>714</v>
+      </c>
+      <c r="B299" t="s">
+        <v>715</v>
+      </c>
+      <c r="E299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" t="s">
+        <v>716</v>
+      </c>
+      <c r="B300" t="s">
+        <v>717</v>
+      </c>
+      <c r="E300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" t="s">
+        <v>718</v>
+      </c>
+      <c r="B301" t="s">
+        <v>719</v>
+      </c>
+      <c r="E301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" t="s">
+        <v>720</v>
+      </c>
+      <c r="B302" t="s">
+        <v>721</v>
+      </c>
+      <c r="E302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" t="s">
+        <v>722</v>
+      </c>
+      <c r="B303" t="s">
+        <v>723</v>
+      </c>
+      <c r="E303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" t="s">
+        <v>724</v>
+      </c>
+      <c r="B304" t="s">
+        <v>725</v>
+      </c>
+      <c r="C304" t="s">
+        <v>726</v>
+      </c>
+      <c r="D304" t="s">
+        <v>727</v>
+      </c>
+      <c r="E304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" t="s">
+        <v>724</v>
+      </c>
+      <c r="B305" t="s">
+        <v>725</v>
+      </c>
+      <c r="C305" t="s">
+        <v>728</v>
+      </c>
+      <c r="D305" t="s">
+        <v>729</v>
+      </c>
+      <c r="E305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" t="s">
+        <v>724</v>
+      </c>
+      <c r="B306" t="s">
+        <v>725</v>
+      </c>
+      <c r="C306" t="s">
+        <v>730</v>
+      </c>
+      <c r="D306" t="s">
+        <v>731</v>
+      </c>
+      <c r="E306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" t="s">
+        <v>732</v>
+      </c>
+      <c r="B307" t="s">
+        <v>733</v>
+      </c>
+      <c r="E307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" t="s">
+        <v>734</v>
+      </c>
+      <c r="B308" t="s">
+        <v>735</v>
+      </c>
+      <c r="C308" t="s">
+        <v>736</v>
+      </c>
+      <c r="D308" t="s">
+        <v>737</v>
+      </c>
+      <c r="E308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" t="s">
+        <v>734</v>
+      </c>
+      <c r="B309" t="s">
+        <v>735</v>
+      </c>
+      <c r="C309" t="s">
+        <v>738</v>
+      </c>
+      <c r="D309" t="s">
+        <v>739</v>
+      </c>
+      <c r="E309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" t="s">
+        <v>734</v>
+      </c>
+      <c r="B310" t="s">
+        <v>735</v>
+      </c>
+      <c r="C310" t="s">
+        <v>740</v>
+      </c>
+      <c r="D310" t="s">
+        <v>741</v>
+      </c>
+      <c r="E310">
         <v>0</v>
       </c>
     </row>

--- a/read_the_world.xlsx
+++ b/read_the_world.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$310</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746">
   <si>
     <t>Code</t>
   </si>
@@ -58,6 +61,66 @@
     <t>The Kite Runner</t>
   </si>
   <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>DZ</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>AO</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>AQ</t>
+  </si>
+  <si>
+    <t>Antarctica</t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Out of the Silence: After the Crash</t>
+  </si>
+  <si>
+    <t>Eduardo Strauch with Mireya Soriano</t>
+  </si>
+  <si>
     <t>AM</t>
   </si>
   <si>
@@ -70,6 +133,24 @@
     <t>Franz Werfel</t>
   </si>
   <si>
+    <t>AW</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>The Narrow Road to the Deep North</t>
+  </si>
+  <si>
+    <t>Richard Flanagan</t>
+  </si>
+  <si>
     <t>AT</t>
   </si>
   <si>
@@ -82,16 +163,94 @@
     <t>Selden Edwards</t>
   </si>
   <si>
-    <t>AU</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>The Narrow Road to the Deep North</t>
-  </si>
-  <si>
-    <t>Richard Flanagan</t>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>BS</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>BH</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>BY</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>BZ</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Snapshots of Belize: An Anthology of Short Fiction</t>
+  </si>
+  <si>
+    <t>Leo Bradley, Zoila Ellis, Evadne Garcia, Evan X. Hyde, Lawrence Vernon, Colville Young, John A. Watler</t>
+  </si>
+  <si>
+    <t>BJ</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>BM</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>BO</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>BQ</t>
+  </si>
+  <si>
+    <t>Bonaire</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
   </si>
   <si>
     <t>BW</t>
@@ -106,6 +265,210 @@
     <t>Alexander McCall Smith</t>
   </si>
   <si>
+    <t>BV</t>
+  </si>
+  <si>
+    <t>Bouvet Island</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Along the Tapajós</t>
+  </si>
+  <si>
+    <t>Fernando Vilela</t>
+  </si>
+  <si>
+    <t>IO</t>
+  </si>
+  <si>
+    <t>British Indian Ocean Territory</t>
+  </si>
+  <si>
+    <t>VG</t>
+  </si>
+  <si>
+    <t>British Virgin Islands</t>
+  </si>
+  <si>
+    <t>BN</t>
+  </si>
+  <si>
+    <t>Brunei</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>BF</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>BI</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>The House of the Spirits</t>
+  </si>
+  <si>
+    <t>Isabel Allende</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Wild Swans: Three Daughters of China</t>
+  </si>
+  <si>
+    <t>Jung Chang</t>
+  </si>
+  <si>
+    <t>Life</t>
+  </si>
+  <si>
+    <t>Lu Yao</t>
+  </si>
+  <si>
+    <t>CX</t>
+  </si>
+  <si>
+    <t>Christmas Island</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>One Hundred Years of Solitude</t>
+  </si>
+  <si>
+    <t>Gabriel García Márquez</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>CK</t>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>CU</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Love in the Time of Cholera</t>
+  </si>
+  <si>
+    <t>Gael Garcia Maquez</t>
+  </si>
+  <si>
+    <t>CW</t>
+  </si>
+  <si>
+    <t>Curacao</t>
+  </si>
+  <si>
+    <t>CY</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>The Unbearable Lightness of Being</t>
+  </si>
+  <si>
+    <t>Milan Kundera</t>
+  </si>
+  <si>
     <t>CD</t>
   </si>
   <si>
@@ -130,6 +493,1443 @@
     <t>David van Reybrouck</t>
   </si>
   <si>
+    <t>DK</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>DJ</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>The Life of Oscar Wao</t>
+  </si>
+  <si>
+    <t>Junot Diaz</t>
+  </si>
+  <si>
+    <t>TL</t>
+  </si>
+  <si>
+    <t>East Timor</t>
+  </si>
+  <si>
+    <t>Beloved Land</t>
+  </si>
+  <si>
+    <t>Gordon Peake</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>EG</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>The Yacoubian Building</t>
+  </si>
+  <si>
+    <t>Alaa Al Aswany</t>
+  </si>
+  <si>
+    <t>SV</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>GQ</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>ET</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cutting for Stone </t>
+  </si>
+  <si>
+    <t>Abraham Verghese</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>Falkland Islands</t>
+  </si>
+  <si>
+    <t>FO</t>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+  </si>
+  <si>
+    <t>Far Afield</t>
+  </si>
+  <si>
+    <t>Susanna Kaysen</t>
+  </si>
+  <si>
+    <t>FJ</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Germinal</t>
+  </si>
+  <si>
+    <t>Emile Zola</t>
+  </si>
+  <si>
+    <t>Chocolat</t>
+  </si>
+  <si>
+    <t>Joanne Harris</t>
+  </si>
+  <si>
+    <t>The Spy</t>
+  </si>
+  <si>
+    <t>Paulo Coelho</t>
+  </si>
+  <si>
+    <t>GF</t>
+  </si>
+  <si>
+    <t>French Guiana</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+  </si>
+  <si>
+    <t>TF</t>
+  </si>
+  <si>
+    <t>French Southern Territories</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>GM</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Christopher and His Kind</t>
+  </si>
+  <si>
+    <t>Christopher Isherwood</t>
+  </si>
+  <si>
+    <t>Bent</t>
+  </si>
+  <si>
+    <t>Martin Sherman</t>
+  </si>
+  <si>
+    <t>Your Perfect Year</t>
+  </si>
+  <si>
+    <t>Charlotte Lucas</t>
+  </si>
+  <si>
+    <t>GH</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Ghana Must Go</t>
+  </si>
+  <si>
+    <t>Taiye Selasi</t>
+  </si>
+  <si>
+    <t>No Sweetness Here</t>
+  </si>
+  <si>
+    <t>Ama Ata Aidoo</t>
+  </si>
+  <si>
+    <t>Accra</t>
+  </si>
+  <si>
+    <t>Kwei Quartey</t>
+  </si>
+  <si>
+    <t>The Beautiful Ones Are Not Yet Born</t>
+  </si>
+  <si>
+    <t>Ayi Kwei Armah</t>
+  </si>
+  <si>
+    <t>Homegoing</t>
+  </si>
+  <si>
+    <t>Yaa Gyasi</t>
+  </si>
+  <si>
+    <t>GI</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>GR</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Captain Correli's Mandolin</t>
+  </si>
+  <si>
+    <t>Louse de Bernieres</t>
+  </si>
+  <si>
+    <t>Middlesex</t>
+  </si>
+  <si>
+    <t>Jeffrey Eugenides</t>
+  </si>
+  <si>
+    <t>GL</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>GD</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>GP</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>GU</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>GG</t>
+  </si>
+  <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>GN</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>The African Child</t>
+  </si>
+  <si>
+    <t>Camara Laye</t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>GY</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>HT</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Breath, Eyes, Memory</t>
+  </si>
+  <si>
+    <t>Edwidge Danticat</t>
+  </si>
+  <si>
+    <t>HM</t>
+  </si>
+  <si>
+    <t>Heard Island and McDonald Islands</t>
+  </si>
+  <si>
+    <t>HN</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>HK</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>HU</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>IS</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Trolls - Monster Worm - Hidden People: Fond Memories of Iceland</t>
+  </si>
+  <si>
+    <t>Íeda Jónasdóttir Herman</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>The Lowland</t>
+  </si>
+  <si>
+    <t>Jhumpa Lahiri</t>
+  </si>
+  <si>
+    <t>The Lives of Others</t>
+  </si>
+  <si>
+    <t>Neel Murkherjee</t>
+  </si>
+  <si>
+    <t>Shantaram</t>
+  </si>
+  <si>
+    <t>Gregory David Roberts</t>
+  </si>
+  <si>
+    <t>Midnight's Children</t>
+  </si>
+  <si>
+    <t>Salman Rushdie</t>
+  </si>
+  <si>
+    <t>Siddhartha</t>
+  </si>
+  <si>
+    <t>Hermann Hesse</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Persepolis</t>
+  </si>
+  <si>
+    <t>Marjane Satrapi</t>
+  </si>
+  <si>
+    <t>IQ</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>The Field</t>
+  </si>
+  <si>
+    <t>John B. Keane</t>
+  </si>
+  <si>
+    <t>Sive</t>
+  </si>
+  <si>
+    <t>An tOileánach (The Islandman)</t>
+  </si>
+  <si>
+    <t>Tomás Ó Criomhthain</t>
+  </si>
+  <si>
+    <t>IM</t>
+  </si>
+  <si>
+    <t>Isle of Man</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Apeirogon</t>
+  </si>
+  <si>
+    <t>Colum McCann</t>
+  </si>
+  <si>
+    <t>Rachael W. recommends</t>
+  </si>
+  <si>
+    <t>The First Mrs. Rothschild</t>
+  </si>
+  <si>
+    <t>Sara Aharoni</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>The Name of the Rose</t>
+  </si>
+  <si>
+    <t>Umberto Eco</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>Ivory Coast</t>
+  </si>
+  <si>
+    <t>JM</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>An Artist of the Floating World</t>
+  </si>
+  <si>
+    <t>Kazuo Ishiguro</t>
+  </si>
+  <si>
+    <t>My Brother's Husband</t>
+  </si>
+  <si>
+    <t>Gengoroh Tagame</t>
+  </si>
+  <si>
+    <t>Number9Dream</t>
+  </si>
+  <si>
+    <t>David Mitchell</t>
+  </si>
+  <si>
+    <t>JE</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>JO</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>KZ</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>KE</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>A Grain of Wheat</t>
+  </si>
+  <si>
+    <t>Ngugi wa Thiong'o</t>
+  </si>
+  <si>
+    <t>Out of Africa</t>
+  </si>
+  <si>
+    <t>Isak Dinesen</t>
+  </si>
+  <si>
+    <t>The White Masai</t>
+  </si>
+  <si>
+    <t>Corinne Hofmann</t>
+  </si>
+  <si>
+    <t>When Stars are Scattered</t>
+  </si>
+  <si>
+    <t>Victoria Jamieson and Omar Mohamed</t>
+  </si>
+  <si>
+    <t>The Man-eaters of Tsavo</t>
+  </si>
+  <si>
+    <t>John Henry Patterson</t>
+  </si>
+  <si>
+    <t>KI</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>XK</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
+  </si>
+  <si>
+    <t>KW</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>KG</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>LV</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>LB</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Murder in the Cassava Patch</t>
+  </si>
+  <si>
+    <t>Bai T. Moore</t>
+  </si>
+  <si>
+    <t>LY</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>LI</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>LU</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>Macao</t>
+  </si>
+  <si>
+    <t>MK</t>
+  </si>
+  <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>MY</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>The Kampung Boy</t>
+  </si>
+  <si>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t>Town Boy</t>
+  </si>
+  <si>
+    <t>MV</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>The Fortunes of Wangri</t>
+  </si>
+  <si>
+    <t>Amadou Hampâté Bâ</t>
+  </si>
+  <si>
+    <t>Sidikiba's Kora Lesson</t>
+  </si>
+  <si>
+    <t>Ryan Thomas Skinner</t>
+  </si>
+  <si>
+    <t>children's book</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>MH</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>MQ</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>YT</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>MX</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>The Pearl</t>
+  </si>
+  <si>
+    <t>John Steinbeck</t>
+  </si>
+  <si>
+    <t>FM</t>
+  </si>
+  <si>
+    <t>Micronesia</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>MZ</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Chronicler of the Winds</t>
+  </si>
+  <si>
+    <t>Henning Mankell</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>Myanmar (Burma)</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>NP</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>The Diary of Anne Frank</t>
+  </si>
+  <si>
+    <t>Anne Frank</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>NZ</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Americanah</t>
+  </si>
+  <si>
+    <t>Chimamanda Ngozi Adichie</t>
+  </si>
+  <si>
+    <t>Things Fall Apart</t>
+  </si>
+  <si>
+    <t>Chinua Achebe</t>
+  </si>
+  <si>
+    <t>Lagos__2060</t>
+  </si>
+  <si>
+    <t>Afolabi Muheez Ashiru, Okey Egboluche, Chiagozie Fred Nwonwu, Kofo Akib, Ayodele Arigbabu, Adebola Rayo, Terh Agbedeh, Temitayo Olofinlua, Curated by Ayodele Arigbabu, Illustrated by Ibrahim Ganiyu</t>
+  </si>
+  <si>
+    <t>have read partially</t>
+  </si>
+  <si>
+    <t>Egbon of Lagos: A Play</t>
+  </si>
+  <si>
+    <t>Akin Bello</t>
+  </si>
+  <si>
+    <t>NU</t>
+  </si>
+  <si>
+    <t>Niue</t>
+  </si>
+  <si>
+    <t>NF</t>
+  </si>
+  <si>
+    <t>Norfolk Island</t>
+  </si>
+  <si>
+    <t>KP</t>
+  </si>
+  <si>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Orphan Master's Son </t>
+  </si>
+  <si>
+    <t>Adam Johnson</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Sophie’s World</t>
+  </si>
+  <si>
+    <t>Jostein Gaardner</t>
+  </si>
+  <si>
+    <t>Through a Glass, Darkly</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Shabanu, Daughter of the Wind</t>
+  </si>
+  <si>
+    <t>Suzanne Fisher Staples</t>
+  </si>
+  <si>
+    <t>Ryan recommends</t>
+  </si>
+  <si>
+    <t>PW</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>Palestine</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Savage Harvest: A Tale of Cannibals, Colonialism and Michael Rockefeller's Tragic Quest</t>
+  </si>
+  <si>
+    <t>Carl Hoffman</t>
+  </si>
+  <si>
+    <t>PY</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Turn Right at Machu Picchu</t>
+  </si>
+  <si>
+    <t>Mark Adams</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>PN</t>
+  </si>
+  <si>
+    <t>Pitcairn Islands</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Almost English</t>
+  </si>
+  <si>
+    <t>Charlotte Mendelson</t>
+  </si>
+  <si>
+    <t>Night</t>
+  </si>
+  <si>
+    <t>Elie Wiesel</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>Republic of the Congo</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>RU</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fear No Evil </t>
+  </si>
+  <si>
+    <t>Natan Sharansky</t>
+  </si>
+  <si>
+    <t>Crime and Punishment</t>
+  </si>
+  <si>
+    <t>Fyodor Dostoevsky</t>
+  </si>
+  <si>
+    <t>War and Peace</t>
+  </si>
+  <si>
+    <t>Leo Tolstoy</t>
+  </si>
+  <si>
+    <t>Aleph</t>
+  </si>
+  <si>
+    <t>RW</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>A Sunday at the Pool in Kigali</t>
+  </si>
+  <si>
+    <t>Gil Courtemanche</t>
+  </si>
+  <si>
+    <t>RE</t>
+  </si>
+  <si>
+    <t>Réunion</t>
+  </si>
+  <si>
+    <t>BL</t>
+  </si>
+  <si>
+    <t>Saint Barthélemy</t>
+  </si>
+  <si>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>Saint Helena</t>
+  </si>
+  <si>
+    <t>KN</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>MF</t>
+  </si>
+  <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>Saint Pierre and Miquelon</t>
+  </si>
+  <si>
+    <t>VC</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>WS</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>SN</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>The Belly of the Atlantic</t>
+  </si>
+  <si>
+    <t>Fatou Diome</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>A Long Way Gone: Memoirs of a Boy Soldier</t>
+  </si>
+  <si>
+    <t>Ishmael Beah</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>SX</t>
+  </si>
+  <si>
+    <t>Sint Maarten</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desert Flower </t>
+  </si>
+  <si>
+    <t>Waris Dirie</t>
+  </si>
+  <si>
+    <t>Hiding in Plain Sight</t>
+  </si>
+  <si>
+    <t>Nuruddin Farah</t>
+  </si>
+  <si>
+    <t>ZA</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Cry The Beloved Country</t>
+  </si>
+  <si>
+    <t>Alan Paton</t>
+  </si>
+  <si>
+    <t>July's People</t>
+  </si>
+  <si>
+    <t>Nadine Gordimer</t>
+  </si>
+  <si>
+    <t>Born a Crime</t>
+  </si>
+  <si>
+    <t>Trevor Noah</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>South Georgia and the South Sandwich Islands</t>
+  </si>
+  <si>
+    <t>KR</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>What is the What</t>
+  </si>
+  <si>
+    <t>Dave Eggars</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>The Savage Detectives</t>
+  </si>
+  <si>
+    <t>Roberto Bolano</t>
+  </si>
+  <si>
+    <t>The Shadow of the Wind</t>
+  </si>
+  <si>
+    <t>Carlos Ruiz Zafon</t>
+  </si>
+  <si>
+    <t>City of Marvels</t>
+  </si>
+  <si>
+    <t>Eduardo Mendoa</t>
+  </si>
+  <si>
+    <t>Cold Skin</t>
+  </si>
+  <si>
+    <t>Albert Sanchez Pinol</t>
+  </si>
+  <si>
+    <t>Soldiers of Salamis</t>
+  </si>
+  <si>
+    <t>Javier Cercas</t>
+  </si>
+  <si>
+    <t>The Price of Paradise</t>
+  </si>
+  <si>
+    <t>Susana López Rubio</t>
+  </si>
+  <si>
+    <t>LK</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Season of Migration to the North</t>
+  </si>
+  <si>
+    <t>Tayeb Salih</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>SJ</t>
+  </si>
+  <si>
+    <t>Svalbard and Jan Mayen</t>
+  </si>
+  <si>
+    <t>SZ</t>
+  </si>
+  <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>The Hundred Year Old Man Who Climbed Out of the Window and Disappeared</t>
+  </si>
+  <si>
+    <t>Jonas Jonasson</t>
+  </si>
+  <si>
+    <t>The Girl Who Saved the King of Sweden</t>
+  </si>
+  <si>
     <t>CH</t>
   </si>
   <si>
@@ -151,76 +1951,169 @@
     <t>Homo Faber</t>
   </si>
   <si>
-    <t>CL</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>The House of the Spirits</t>
-  </si>
-  <si>
-    <t>Isabel Allende</t>
-  </si>
-  <si>
-    <t>CM</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>CN</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Wild Swans: Three Daughters of China</t>
-  </si>
-  <si>
-    <t>Jung Chang</t>
-  </si>
-  <si>
-    <t>Life</t>
-  </si>
-  <si>
-    <t>Lu Yao</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>One Hundred Years of Solitude</t>
-  </si>
-  <si>
-    <t>Gabriel García Márquez</t>
-  </si>
-  <si>
-    <t>CR</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>CU</t>
-  </si>
-  <si>
-    <t>Cuba</t>
-  </si>
-  <si>
-    <t>Love in the Time of Cholera</t>
-  </si>
-  <si>
-    <t>Gael Garcia Maquez</t>
-  </si>
-  <si>
-    <t>AD</t>
-  </si>
-  <si>
-    <t>Andorra</t>
+    <t>SY</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>We Crossed a Bridge and it Trembled: Voices from Syria</t>
+  </si>
+  <si>
+    <t>Wendy Pearlman</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>São Tomé and Príncipe</t>
+  </si>
+  <si>
+    <t>TW</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>TJ</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>TZ</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By the Sea </t>
+  </si>
+  <si>
+    <t>Abdulrazak Gurnah</t>
+  </si>
+  <si>
+    <t>Desertion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Magic of Saida </t>
+  </si>
+  <si>
+    <t>M. G. Vassanji</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>TG</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>TK</t>
+  </si>
+  <si>
+    <t>Tokelau</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>The Stars and the Blackness Between Them</t>
+  </si>
+  <si>
+    <t>Junauda Petrus</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My Name is Red </t>
+  </si>
+  <si>
+    <t>Orhan Pamuk</t>
+  </si>
+  <si>
+    <t>The Girl in the Tree</t>
+  </si>
+  <si>
+    <t>Şebnem İşigüzel</t>
+  </si>
+  <si>
+    <t>TM</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>Turks and Caicos Islands</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>UM</t>
+  </si>
+  <si>
+    <t>U.S. Minor Outlying Islands</t>
+  </si>
+  <si>
+    <t>VI</t>
+  </si>
+  <si>
+    <t>U.S. Virgin Islands</t>
+  </si>
+  <si>
+    <t>UG</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>The Queen of Katwe</t>
+  </si>
+  <si>
+    <t>Tim Crothers</t>
+  </si>
+  <si>
+    <t>UA</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Zakhar Berkut</t>
+  </si>
+  <si>
+    <t>Ivan Franko</t>
   </si>
   <si>
     <t>AE</t>
@@ -229,2017 +2122,139 @@
     <t>United Arab Emirates</t>
   </si>
   <si>
-    <t>AG</t>
-  </si>
-  <si>
-    <t>Antigua and Barbuda</t>
-  </si>
-  <si>
-    <t>AI</t>
-  </si>
-  <si>
-    <t>Anguilla</t>
-  </si>
-  <si>
-    <t>AL</t>
-  </si>
-  <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>AO</t>
-  </si>
-  <si>
-    <t>Angola</t>
-  </si>
-  <si>
-    <t>AQ</t>
-  </si>
-  <si>
-    <t>Antarctica</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Out of the Silence: After the Crash</t>
-  </si>
-  <si>
-    <t>Eduardo Strauch with Mireya Soriano</t>
-  </si>
-  <si>
-    <t>AS</t>
-  </si>
-  <si>
-    <t>American Samoa</t>
-  </si>
-  <si>
-    <t>AW</t>
-  </si>
-  <si>
-    <t>Aruba</t>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Native Son</t>
+  </si>
+  <si>
+    <t>Richard Wright</t>
+  </si>
+  <si>
+    <t>To Kill a Mockingbird</t>
+  </si>
+  <si>
+    <t>Harper Lee</t>
+  </si>
+  <si>
+    <t>Parable of the Sower</t>
+  </si>
+  <si>
+    <t>Octavia E. Butler</t>
+  </si>
+  <si>
+    <t>American War</t>
+  </si>
+  <si>
+    <t>Omar El Akkad</t>
+  </si>
+  <si>
+    <t>UY</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>UZ</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>VU</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>Vatican City</t>
+  </si>
+  <si>
+    <t>VE</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>VN</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Inside Out &amp; Back Again</t>
+  </si>
+  <si>
+    <t>Thanhha Lai</t>
+  </si>
+  <si>
+    <t>mostly takes place in the U.S.</t>
+  </si>
+  <si>
+    <t>WF</t>
+  </si>
+  <si>
+    <t>Wallis and Futuna</t>
+  </si>
+  <si>
+    <t>EH</t>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+  </si>
+  <si>
+    <t>YE</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>ZM</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>ZW</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>We Need New Names</t>
+  </si>
+  <si>
+    <t>NoViolet Bulawayo</t>
+  </si>
+  <si>
+    <t>Nervous Conditions</t>
+  </si>
+  <si>
+    <t>Tsitsi Dangarembga</t>
+  </si>
+  <si>
+    <t>The Hairdresser of Harare</t>
+  </si>
+  <si>
+    <t>Tendai Huchu</t>
   </si>
   <si>
     <t>AX</t>
   </si>
   <si>
     <t>Åland</t>
-  </si>
-  <si>
-    <t>AZ</t>
-  </si>
-  <si>
-    <t>Azerbaijan</t>
-  </si>
-  <si>
-    <t>BA</t>
-  </si>
-  <si>
-    <t>Bosnia and Herzegovina</t>
-  </si>
-  <si>
-    <t>BB</t>
-  </si>
-  <si>
-    <t>Barbados</t>
-  </si>
-  <si>
-    <t>BD</t>
-  </si>
-  <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
-    <t>BE</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>BF</t>
-  </si>
-  <si>
-    <t>Burkina Faso</t>
-  </si>
-  <si>
-    <t>BG</t>
-  </si>
-  <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
-    <t>BH</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
-    <t>BI</t>
-  </si>
-  <si>
-    <t>Burundi</t>
-  </si>
-  <si>
-    <t>BJ</t>
-  </si>
-  <si>
-    <t>Benin</t>
-  </si>
-  <si>
-    <t>BL</t>
-  </si>
-  <si>
-    <t>Saint Barthélemy</t>
-  </si>
-  <si>
-    <t>BM</t>
-  </si>
-  <si>
-    <t>Bermuda</t>
-  </si>
-  <si>
-    <t>BN</t>
-  </si>
-  <si>
-    <t>Brunei</t>
-  </si>
-  <si>
-    <t>BO</t>
-  </si>
-  <si>
-    <t>Bolivia</t>
-  </si>
-  <si>
-    <t>BQ</t>
-  </si>
-  <si>
-    <t>Bonaire</t>
-  </si>
-  <si>
-    <t>BR</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>Along the Tapajós</t>
-  </si>
-  <si>
-    <t>Fernando Vilela</t>
-  </si>
-  <si>
-    <t>BS</t>
-  </si>
-  <si>
-    <t>Bahamas</t>
-  </si>
-  <si>
-    <t>BT</t>
-  </si>
-  <si>
-    <t>Bhutan</t>
-  </si>
-  <si>
-    <t>BV</t>
-  </si>
-  <si>
-    <t>Bouvet Island</t>
-  </si>
-  <si>
-    <t>BY</t>
-  </si>
-  <si>
-    <t>Belarus</t>
-  </si>
-  <si>
-    <t>BZ</t>
-  </si>
-  <si>
-    <t>Belize</t>
-  </si>
-  <si>
-    <t>Snapshots of Belize: An Anthology of Short Fiction</t>
-  </si>
-  <si>
-    <t>Leo Bradley, Zoila Ellis, Evadne Garcia, Evan X. Hyde, Lawrence Vernon, Colville Young, John A. Watler</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>CF</t>
-  </si>
-  <si>
-    <t>Central African Republic</t>
-  </si>
-  <si>
-    <t>CG</t>
-  </si>
-  <si>
-    <t>Republic of the Congo</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>Ivory Coast</t>
-  </si>
-  <si>
-    <t>CK</t>
-  </si>
-  <si>
-    <t>Cook Islands</t>
-  </si>
-  <si>
-    <t>CV</t>
-  </si>
-  <si>
-    <t>Cape Verde</t>
-  </si>
-  <si>
-    <t>CW</t>
-  </si>
-  <si>
-    <t>Curacao</t>
-  </si>
-  <si>
-    <t>CX</t>
-  </si>
-  <si>
-    <t>Christmas Island</t>
-  </si>
-  <si>
-    <t>CY</t>
-  </si>
-  <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
-    <t>CZ</t>
-  </si>
-  <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>The Unbearable Lightness of Being</t>
-  </si>
-  <si>
-    <t>Milan Kundera</t>
-  </si>
-  <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Christopher and His Kind</t>
-  </si>
-  <si>
-    <t>Christopher Isherwood</t>
-  </si>
-  <si>
-    <t>Bent</t>
-  </si>
-  <si>
-    <t>Martin Sherman</t>
-  </si>
-  <si>
-    <t>Your Perfect Year</t>
-  </si>
-  <si>
-    <t>Charlotte Lucas</t>
-  </si>
-  <si>
-    <t>DJ</t>
-  </si>
-  <si>
-    <t>Djibouti</t>
-  </si>
-  <si>
-    <t>DK</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>DM</t>
-  </si>
-  <si>
-    <t>Dominica</t>
-  </si>
-  <si>
-    <t>DO</t>
-  </si>
-  <si>
-    <t>Dominican Republic</t>
-  </si>
-  <si>
-    <t>The Life of Oscar Wao</t>
-  </si>
-  <si>
-    <t>Junot Diaz</t>
-  </si>
-  <si>
-    <t>DZ</t>
-  </si>
-  <si>
-    <t>Algeria</t>
-  </si>
-  <si>
-    <t>EC</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>EE</t>
-  </si>
-  <si>
-    <t>Estonia</t>
-  </si>
-  <si>
-    <t>EG</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>The Yacoubian Building</t>
-  </si>
-  <si>
-    <t>Alaa Al Aswany</t>
-  </si>
-  <si>
-    <t>EH</t>
-  </si>
-  <si>
-    <t>Western Sahara</t>
-  </si>
-  <si>
-    <t>ER</t>
-  </si>
-  <si>
-    <t>Eritrea</t>
-  </si>
-  <si>
-    <t>ES</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>The Savage Detectives</t>
-  </si>
-  <si>
-    <t>Roberto Bolano</t>
-  </si>
-  <si>
-    <t>The Shadow of the Wind</t>
-  </si>
-  <si>
-    <t>Carlos Ruiz Zafon</t>
-  </si>
-  <si>
-    <t>City of Marvels</t>
-  </si>
-  <si>
-    <t>Eduardo Mendoa</t>
-  </si>
-  <si>
-    <t>Cold Skin</t>
-  </si>
-  <si>
-    <t>Albert Sanchez Pinol</t>
-  </si>
-  <si>
-    <t>Soldiers of Salamis</t>
-  </si>
-  <si>
-    <t>Javier Cercas</t>
-  </si>
-  <si>
-    <t>The Price of Paradise</t>
-  </si>
-  <si>
-    <t>Susana López Rubio</t>
-  </si>
-  <si>
-    <t>ET</t>
-  </si>
-  <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cutting for Stone </t>
-  </si>
-  <si>
-    <t>Abraham Verghese</t>
-  </si>
-  <si>
-    <t>FI</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>FJ</t>
-  </si>
-  <si>
-    <t>Fiji</t>
-  </si>
-  <si>
-    <t>FK</t>
-  </si>
-  <si>
-    <t>Falkland Islands</t>
-  </si>
-  <si>
-    <t>FM</t>
-  </si>
-  <si>
-    <t>Micronesia</t>
-  </si>
-  <si>
-    <t>FO</t>
-  </si>
-  <si>
-    <t>Faroe Islands</t>
-  </si>
-  <si>
-    <t>Far Afield</t>
-  </si>
-  <si>
-    <t>Susanna Kaysen</t>
-  </si>
-  <si>
-    <t>FR</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Germinal</t>
-  </si>
-  <si>
-    <t>Emile Zola</t>
-  </si>
-  <si>
-    <t>Chocolat</t>
-  </si>
-  <si>
-    <t>Joanne Harris</t>
-  </si>
-  <si>
-    <t>The Spy</t>
-  </si>
-  <si>
-    <t>Paulo Coelho</t>
-  </si>
-  <si>
-    <t>GA</t>
-  </si>
-  <si>
-    <t>Gabon</t>
-  </si>
-  <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>GD</t>
-  </si>
-  <si>
-    <t>Grenada</t>
-  </si>
-  <si>
-    <t>GE</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>GF</t>
-  </si>
-  <si>
-    <t>French Guiana</t>
-  </si>
-  <si>
-    <t>GG</t>
-  </si>
-  <si>
-    <t>Guernsey</t>
-  </si>
-  <si>
-    <t>GH</t>
-  </si>
-  <si>
-    <t>Ghana</t>
-  </si>
-  <si>
-    <t>Ghana Must Go</t>
-  </si>
-  <si>
-    <t>Taiye Selasi</t>
-  </si>
-  <si>
-    <t>No Sweetness Here</t>
-  </si>
-  <si>
-    <t>Ama Ata Aidoo</t>
-  </si>
-  <si>
-    <t>Accra</t>
-  </si>
-  <si>
-    <t>Kwei Quartey</t>
-  </si>
-  <si>
-    <t>The Beautiful Ones Are Not Yet Born</t>
-  </si>
-  <si>
-    <t>Ayi Kwei Armah</t>
-  </si>
-  <si>
-    <t>Homegoing</t>
-  </si>
-  <si>
-    <t>Yaa Gyasi</t>
-  </si>
-  <si>
-    <t>GI</t>
-  </si>
-  <si>
-    <t>Gibraltar</t>
-  </si>
-  <si>
-    <t>GL</t>
-  </si>
-  <si>
-    <t>Greenland</t>
-  </si>
-  <si>
-    <t>GM</t>
-  </si>
-  <si>
-    <t>Gambia</t>
-  </si>
-  <si>
-    <t>GN</t>
-  </si>
-  <si>
-    <t>Guinea</t>
-  </si>
-  <si>
-    <t>The African Child</t>
-  </si>
-  <si>
-    <t>Camara Laye</t>
-  </si>
-  <si>
-    <t>GP</t>
-  </si>
-  <si>
-    <t>Guadeloupe</t>
-  </si>
-  <si>
-    <t>GQ</t>
-  </si>
-  <si>
-    <t>Equatorial Guinea</t>
-  </si>
-  <si>
-    <t>GR</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>Captain Correli's Mandolin</t>
-  </si>
-  <si>
-    <t>Louse de Bernieres</t>
-  </si>
-  <si>
-    <t>Middlesex</t>
-  </si>
-  <si>
-    <t>Jeffrey Eugenides</t>
-  </si>
-  <si>
-    <t>GS</t>
-  </si>
-  <si>
-    <t>South Georgia and the South Sandwich Islands</t>
-  </si>
-  <si>
-    <t>GT</t>
-  </si>
-  <si>
-    <t>Guatemala</t>
-  </si>
-  <si>
-    <t>GU</t>
-  </si>
-  <si>
-    <t>Guam</t>
-  </si>
-  <si>
-    <t>GW</t>
-  </si>
-  <si>
-    <t>Guinea-Bissau</t>
-  </si>
-  <si>
-    <t>GY</t>
-  </si>
-  <si>
-    <t>Guyana</t>
-  </si>
-  <si>
-    <t>HK</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>HM</t>
-  </si>
-  <si>
-    <t>Heard Island and McDonald Islands</t>
-  </si>
-  <si>
-    <t>HN</t>
-  </si>
-  <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>HR</t>
-  </si>
-  <si>
-    <t>Croatia</t>
-  </si>
-  <si>
-    <t>HT</t>
-  </si>
-  <si>
-    <t>Haiti</t>
-  </si>
-  <si>
-    <t>Breath, Eyes, Memory</t>
-  </si>
-  <si>
-    <t>Edwidge Danticat</t>
-  </si>
-  <si>
-    <t>HU</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>IE</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>The Field</t>
-  </si>
-  <si>
-    <t>John B. Keane</t>
-  </si>
-  <si>
-    <t>Sive</t>
-  </si>
-  <si>
-    <t>An tOileánach (The Islandman)</t>
-  </si>
-  <si>
-    <t>Tomás Ó Criomhthain</t>
-  </si>
-  <si>
-    <t>IL</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>Apeirogon</t>
-  </si>
-  <si>
-    <t>Colum McCann</t>
-  </si>
-  <si>
-    <t>The First Mrs. Rothschild</t>
-  </si>
-  <si>
-    <t>Sara Aharoni</t>
-  </si>
-  <si>
-    <t>IM</t>
-  </si>
-  <si>
-    <t>Isle of Man</t>
-  </si>
-  <si>
-    <t>IN</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>The Lowland</t>
-  </si>
-  <si>
-    <t>Jhumpa Lahiri</t>
-  </si>
-  <si>
-    <t>The Lives of Others</t>
-  </si>
-  <si>
-    <t>Neel Murkherjee</t>
-  </si>
-  <si>
-    <t>Shantaram</t>
-  </si>
-  <si>
-    <t>Gregory David Roberts</t>
-  </si>
-  <si>
-    <t>Midnight's Children</t>
-  </si>
-  <si>
-    <t>Salman Rushdie</t>
-  </si>
-  <si>
-    <t>Siddhartha</t>
-  </si>
-  <si>
-    <t>Hermann Hesse</t>
-  </si>
-  <si>
-    <t>IO</t>
-  </si>
-  <si>
-    <t>British Indian Ocean Territory</t>
-  </si>
-  <si>
-    <t>IQ</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>IR</t>
-  </si>
-  <si>
-    <t>Iran</t>
-  </si>
-  <si>
-    <t>Persepolis</t>
-  </si>
-  <si>
-    <t>Marjane Satrapi</t>
-  </si>
-  <si>
-    <t>IS</t>
-  </si>
-  <si>
-    <t>Iceland</t>
-  </si>
-  <si>
-    <t>Trolls - Monster Worm - Hidden People: Fond Memories of Iceland</t>
-  </si>
-  <si>
-    <t>Íeda Jónasdóttir Herman</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>The Name of the Rose</t>
-  </si>
-  <si>
-    <t>Umberto Eco</t>
-  </si>
-  <si>
-    <t>JE</t>
-  </si>
-  <si>
-    <t>Jersey</t>
-  </si>
-  <si>
-    <t>JM</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>JO</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>JP</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>An Artist of the Floating World</t>
-  </si>
-  <si>
-    <t>Kazuo Ishiguro</t>
-  </si>
-  <si>
-    <t>My Brother's Husband</t>
-  </si>
-  <si>
-    <t>Gengoroh Tagame</t>
-  </si>
-  <si>
-    <t>Number9Dream</t>
-  </si>
-  <si>
-    <t>David Mitchell</t>
-  </si>
-  <si>
-    <t>KE</t>
-  </si>
-  <si>
-    <t>Kenya</t>
-  </si>
-  <si>
-    <t>A Grain of Wheat</t>
-  </si>
-  <si>
-    <t>Ngugi wa Thiong'o</t>
-  </si>
-  <si>
-    <t>Out of Africa</t>
-  </si>
-  <si>
-    <t>Isak Dinesen</t>
-  </si>
-  <si>
-    <t>The White Masai</t>
-  </si>
-  <si>
-    <t>Corinne Hofmann</t>
-  </si>
-  <si>
-    <t>When Stars are Scattered</t>
-  </si>
-  <si>
-    <t>Victoria Jamieson and Omar Mohamed</t>
-  </si>
-  <si>
-    <t>The Man-eaters of Tsavo</t>
-  </si>
-  <si>
-    <t>John Henry Patterson</t>
-  </si>
-  <si>
-    <t>KG</t>
-  </si>
-  <si>
-    <t>Kyrgyzstan</t>
-  </si>
-  <si>
-    <t>KH</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>KI</t>
-  </si>
-  <si>
-    <t>Kiribati</t>
-  </si>
-  <si>
-    <t>KM</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>KN</t>
-  </si>
-  <si>
-    <t>Saint Kitts and Nevis</t>
-  </si>
-  <si>
-    <t>KP</t>
-  </si>
-  <si>
-    <t>North Korea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Orphan Master's Son </t>
-  </si>
-  <si>
-    <t>Adam Johnson</t>
-  </si>
-  <si>
-    <t>KR</t>
-  </si>
-  <si>
-    <t>South Korea</t>
-  </si>
-  <si>
-    <t>KW</t>
-  </si>
-  <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
-    <t>KY</t>
-  </si>
-  <si>
-    <t>Cayman Islands</t>
-  </si>
-  <si>
-    <t>KZ</t>
-  </si>
-  <si>
-    <t>Kazakhstan</t>
-  </si>
-  <si>
-    <t>LA</t>
-  </si>
-  <si>
-    <t>Laos</t>
-  </si>
-  <si>
-    <t>LB</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>LC</t>
-  </si>
-  <si>
-    <t>Saint Lucia</t>
-  </si>
-  <si>
-    <t>LI</t>
-  </si>
-  <si>
-    <t>Liechtenstein</t>
-  </si>
-  <si>
-    <t>LK</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>LR</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>Murder in the Cassava Patch</t>
-  </si>
-  <si>
-    <t>Bai T. Moore</t>
-  </si>
-  <si>
-    <t>LS</t>
-  </si>
-  <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
-    <t>LT</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>LU</t>
-  </si>
-  <si>
-    <t>Luxembourg</t>
-  </si>
-  <si>
-    <t>LV</t>
-  </si>
-  <si>
-    <t>Latvia</t>
-  </si>
-  <si>
-    <t>LY</t>
-  </si>
-  <si>
-    <t>Libya</t>
-  </si>
-  <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>MC</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>MD</t>
-  </si>
-  <si>
-    <t>Moldova</t>
-  </si>
-  <si>
-    <t>ME</t>
-  </si>
-  <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
-    <t>MF</t>
-  </si>
-  <si>
-    <t>Saint Martin</t>
-  </si>
-  <si>
-    <t>MG</t>
-  </si>
-  <si>
-    <t>Madagascar</t>
-  </si>
-  <si>
-    <t>MH</t>
-  </si>
-  <si>
-    <t>Marshall Islands</t>
-  </si>
-  <si>
-    <t>MK</t>
-  </si>
-  <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
-    <t>ML</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>The Fortunes of Wangri</t>
-  </si>
-  <si>
-    <t>Amadou Hampâté Bâ</t>
-  </si>
-  <si>
-    <t>Sidikiba's Kora Lesson</t>
-  </si>
-  <si>
-    <t>Ryan Thomas Skinner</t>
-  </si>
-  <si>
-    <t>children's book</t>
-  </si>
-  <si>
-    <t>MM</t>
-  </si>
-  <si>
-    <t>Myanmar (Burma)</t>
-  </si>
-  <si>
-    <t>MN</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>MO</t>
-  </si>
-  <si>
-    <t>Macao</t>
-  </si>
-  <si>
-    <t>MP</t>
-  </si>
-  <si>
-    <t>Northern Mariana Islands</t>
-  </si>
-  <si>
-    <t>MQ</t>
-  </si>
-  <si>
-    <t>Martinique</t>
-  </si>
-  <si>
-    <t>MR</t>
-  </si>
-  <si>
-    <t>Mauritania</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>Montserrat</t>
-  </si>
-  <si>
-    <t>MT</t>
-  </si>
-  <si>
-    <t>Malta</t>
-  </si>
-  <si>
-    <t>MU</t>
-  </si>
-  <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t>MV</t>
-  </si>
-  <si>
-    <t>Maldives</t>
-  </si>
-  <si>
-    <t>MW</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>MX</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>The Pearl</t>
-  </si>
-  <si>
-    <t>John Steinbeck</t>
-  </si>
-  <si>
-    <t>MY</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>The Kampung Boy</t>
-  </si>
-  <si>
-    <t>Lat</t>
-  </si>
-  <si>
-    <t>Town Boy</t>
-  </si>
-  <si>
-    <t>MZ</t>
-  </si>
-  <si>
-    <t>Mozambique</t>
-  </si>
-  <si>
-    <t>Chronicler of the Winds</t>
-  </si>
-  <si>
-    <t>Henning Mankell</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Namibia</t>
-  </si>
-  <si>
-    <t>NC</t>
-  </si>
-  <si>
-    <t>New Caledonia</t>
-  </si>
-  <si>
-    <t>NE</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
-    <t>NF</t>
-  </si>
-  <si>
-    <t>Norfolk Island</t>
-  </si>
-  <si>
-    <t>NG</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>Americanah</t>
-  </si>
-  <si>
-    <t>Chimamanda Ngozi Adichie</t>
-  </si>
-  <si>
-    <t>Things Fall Apart</t>
-  </si>
-  <si>
-    <t>Chinua Achebe</t>
-  </si>
-  <si>
-    <t>Lagos__2060</t>
-  </si>
-  <si>
-    <t>Afolabi Muheez Ashiru, Okey Egboluche, Chiagozie Fred Nwonwu, Kofo Akib, Ayodele Arigbabu, Adebola Rayo, Terh Agbedeh, Temitayo Olofinlua, Curated by Ayodele Arigbabu, Illustrated by Ibrahim Ganiyu</t>
-  </si>
-  <si>
-    <t>Egbon of Lagos: A Play</t>
-  </si>
-  <si>
-    <t>Akin Bello</t>
-  </si>
-  <si>
-    <t>NI</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>NL</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>The Diary of Anne Frank</t>
-  </si>
-  <si>
-    <t>Anne Frank</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Sophie’s World</t>
-  </si>
-  <si>
-    <t>Jostein Gaardner</t>
-  </si>
-  <si>
-    <t>Through a Glass, Darkly</t>
-  </si>
-  <si>
-    <t>NP</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>NR</t>
-  </si>
-  <si>
-    <t>Nauru</t>
-  </si>
-  <si>
-    <t>NU</t>
-  </si>
-  <si>
-    <t>Niue</t>
-  </si>
-  <si>
-    <t>NZ</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>PA</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>PE</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Turn Right at Machu Picchu</t>
-  </si>
-  <si>
-    <t>Mark Adams</t>
-  </si>
-  <si>
-    <t>PF</t>
-  </si>
-  <si>
-    <t>French Polynesia</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
-    <t>Savage Harvest: A Tale of Cannibals, Colonialism and Michael Rockefeller's Tragic Quest</t>
-  </si>
-  <si>
-    <t>Carl Hoffman</t>
-  </si>
-  <si>
-    <t>PH</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>PK</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>PL</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Almost English</t>
-  </si>
-  <si>
-    <t>Charlotte Mendelson</t>
-  </si>
-  <si>
-    <t>Night</t>
-  </si>
-  <si>
-    <t>Elie Wiesel</t>
-  </si>
-  <si>
-    <t>PM</t>
-  </si>
-  <si>
-    <t>Saint Pierre and Miquelon</t>
-  </si>
-  <si>
-    <t>PN</t>
-  </si>
-  <si>
-    <t>Pitcairn Islands</t>
-  </si>
-  <si>
-    <t>PR</t>
-  </si>
-  <si>
-    <t>Puerto Rico</t>
-  </si>
-  <si>
-    <t>PS</t>
-  </si>
-  <si>
-    <t>Palestine</t>
-  </si>
-  <si>
-    <t>PT</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>PW</t>
-  </si>
-  <si>
-    <t>Palau</t>
-  </si>
-  <si>
-    <t>PY</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>QA</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>RE</t>
-  </si>
-  <si>
-    <t>Réunion</t>
-  </si>
-  <si>
-    <t>RO</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>RS</t>
-  </si>
-  <si>
-    <t>Serbia</t>
-  </si>
-  <si>
-    <t>RU</t>
-  </si>
-  <si>
-    <t>Russia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fear No Evil </t>
-  </si>
-  <si>
-    <t>Natan Sharansky</t>
-  </si>
-  <si>
-    <t>Crime and Punishment</t>
-  </si>
-  <si>
-    <t>Fyodor Dostoevsky</t>
-  </si>
-  <si>
-    <t>War and Peace</t>
-  </si>
-  <si>
-    <t>Leo Tolstoy</t>
-  </si>
-  <si>
-    <t>Aleph</t>
-  </si>
-  <si>
-    <t>RW</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>A Sunday at the Pool in Kigali</t>
-  </si>
-  <si>
-    <t>Gil Courtemanche</t>
-  </si>
-  <si>
-    <t>SA</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>SB</t>
-  </si>
-  <si>
-    <t>Solomon Islands</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>Season of Migration to the North</t>
-  </si>
-  <si>
-    <t>Tayeb Salih</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>The Hundred Year Old Man Who Climbed Out of the Window and Disappeared</t>
-  </si>
-  <si>
-    <t>Jonas Jonasson</t>
-  </si>
-  <si>
-    <t>The Girl Who Saved the King of Sweden</t>
-  </si>
-  <si>
-    <t>SG</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>SH</t>
-  </si>
-  <si>
-    <t>Saint Helena</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
-    <t>SJ</t>
-  </si>
-  <si>
-    <t>Svalbard and Jan Mayen</t>
-  </si>
-  <si>
-    <t>SK</t>
-  </si>
-  <si>
-    <t>Slovakia</t>
-  </si>
-  <si>
-    <t>SL</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>A Long Way Gone: Memoirs of a Boy Soldier</t>
-  </si>
-  <si>
-    <t>Ishmael Beah</t>
-  </si>
-  <si>
-    <t>SM</t>
-  </si>
-  <si>
-    <t>San Marino</t>
-  </si>
-  <si>
-    <t>SN</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>The Belly of the Atlantic</t>
-  </si>
-  <si>
-    <t>Fatou Diome</t>
-  </si>
-  <si>
-    <t>SO</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desert Flower </t>
-  </si>
-  <si>
-    <t>Waris Dirie</t>
-  </si>
-  <si>
-    <t>Hiding in Plain Sight</t>
-  </si>
-  <si>
-    <t>Nuruddin Farah</t>
-  </si>
-  <si>
-    <t>SR</t>
-  </si>
-  <si>
-    <t>Suriname</t>
-  </si>
-  <si>
-    <t>SS</t>
-  </si>
-  <si>
-    <t>South Sudan</t>
-  </si>
-  <si>
-    <t>What is the What</t>
-  </si>
-  <si>
-    <t>Dave Eggars</t>
-  </si>
-  <si>
-    <t>ST</t>
-  </si>
-  <si>
-    <t>São Tomé and Príncipe</t>
-  </si>
-  <si>
-    <t>SV</t>
-  </si>
-  <si>
-    <t>El Salvador</t>
-  </si>
-  <si>
-    <t>SX</t>
-  </si>
-  <si>
-    <t>Sint Maarten</t>
-  </si>
-  <si>
-    <t>SY</t>
-  </si>
-  <si>
-    <t>Syria</t>
-  </si>
-  <si>
-    <t>We Crossed a Bridge and it Trembled: Voices from Syria</t>
-  </si>
-  <si>
-    <t>Wendy Pearlman</t>
-  </si>
-  <si>
-    <t>SZ</t>
-  </si>
-  <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
-    <t>TC</t>
-  </si>
-  <si>
-    <t>Turks and Caicos Islands</t>
-  </si>
-  <si>
-    <t>TD</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>TF</t>
-  </si>
-  <si>
-    <t>French Southern Territories</t>
-  </si>
-  <si>
-    <t>TG</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>TH</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>TJ</t>
-  </si>
-  <si>
-    <t>Tajikistan</t>
-  </si>
-  <si>
-    <t>TK</t>
-  </si>
-  <si>
-    <t>Tokelau</t>
-  </si>
-  <si>
-    <t>TL</t>
-  </si>
-  <si>
-    <t>East Timor</t>
-  </si>
-  <si>
-    <t>Beloved Land</t>
-  </si>
-  <si>
-    <t>Gordon Peake</t>
-  </si>
-  <si>
-    <t>TM</t>
-  </si>
-  <si>
-    <t>Turkmenistan</t>
-  </si>
-  <si>
-    <t>TN</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>TO</t>
-  </si>
-  <si>
-    <t>Tonga</t>
-  </si>
-  <si>
-    <t>TR</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My Name is Red </t>
-  </si>
-  <si>
-    <t>Orhan Pamuk</t>
-  </si>
-  <si>
-    <t>The Girl in the Tree</t>
-  </si>
-  <si>
-    <t>Şebnem İşigüzel</t>
-  </si>
-  <si>
-    <t>TT</t>
-  </si>
-  <si>
-    <t>Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t>The Stars and the Blackness Between Them</t>
-  </si>
-  <si>
-    <t>Junauda Petrus</t>
-  </si>
-  <si>
-    <t>WIP</t>
-  </si>
-  <si>
-    <t>TV</t>
-  </si>
-  <si>
-    <t>Tuvalu</t>
-  </si>
-  <si>
-    <t>TW</t>
-  </si>
-  <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
-    <t>TZ</t>
-  </si>
-  <si>
-    <t>Tanzania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">By the Sea </t>
-  </si>
-  <si>
-    <t>Abdulrazak Gurnah</t>
-  </si>
-  <si>
-    <t>Desertion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Magic of Saida </t>
-  </si>
-  <si>
-    <t>M. G. Vassanji</t>
-  </si>
-  <si>
-    <t>UA</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>Zakhar Berkut</t>
-  </si>
-  <si>
-    <t>Ivan Franko</t>
-  </si>
-  <si>
-    <t>UG</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>The Queen of Katwe</t>
-  </si>
-  <si>
-    <t>Tim Crothers</t>
-  </si>
-  <si>
-    <t>UM</t>
-  </si>
-  <si>
-    <t>U.S. Minor Outlying Islands</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>Native Son</t>
-  </si>
-  <si>
-    <t>Richard Wright</t>
-  </si>
-  <si>
-    <t>To Kill a Mockingbird</t>
-  </si>
-  <si>
-    <t>Harper Lee</t>
-  </si>
-  <si>
-    <t>Parable of the Sower</t>
-  </si>
-  <si>
-    <t>Octavia E. Butler</t>
-  </si>
-  <si>
-    <t>American War</t>
-  </si>
-  <si>
-    <t>Omar El Akkad</t>
-  </si>
-  <si>
-    <t>UY</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>UZ</t>
-  </si>
-  <si>
-    <t>Uzbekistan</t>
-  </si>
-  <si>
-    <t>VA</t>
-  </si>
-  <si>
-    <t>Vatican City</t>
-  </si>
-  <si>
-    <t>VC</t>
-  </si>
-  <si>
-    <t>Saint Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t>VE</t>
-  </si>
-  <si>
-    <t>Venezuela</t>
-  </si>
-  <si>
-    <t>VG</t>
-  </si>
-  <si>
-    <t>British Virgin Islands</t>
-  </si>
-  <si>
-    <t>VI</t>
-  </si>
-  <si>
-    <t>U.S. Virgin Islands</t>
-  </si>
-  <si>
-    <t>VN</t>
-  </si>
-  <si>
-    <t>Vietnam</t>
-  </si>
-  <si>
-    <t>Inside Out &amp; Back Again</t>
-  </si>
-  <si>
-    <t>Thanhha Lai</t>
-  </si>
-  <si>
-    <t>mostly takes place in the U.S.</t>
-  </si>
-  <si>
-    <t>VU</t>
-  </si>
-  <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
-    <t>WF</t>
-  </si>
-  <si>
-    <t>Wallis and Futuna</t>
-  </si>
-  <si>
-    <t>WS</t>
-  </si>
-  <si>
-    <t>Samoa</t>
-  </si>
-  <si>
-    <t>XK</t>
-  </si>
-  <si>
-    <t>Kosovo</t>
-  </si>
-  <si>
-    <t>YE</t>
-  </si>
-  <si>
-    <t>Yemen</t>
-  </si>
-  <si>
-    <t>YT</t>
-  </si>
-  <si>
-    <t>Mayotte</t>
-  </si>
-  <si>
-    <t>ZA</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>Cry The Beloved Country</t>
-  </si>
-  <si>
-    <t>Alan Paton</t>
-  </si>
-  <si>
-    <t>July's People</t>
-  </si>
-  <si>
-    <t>Nadine Gordimer</t>
-  </si>
-  <si>
-    <t>Born a Crime</t>
-  </si>
-  <si>
-    <t>Trevor Noah</t>
-  </si>
-  <si>
-    <t>ZM</t>
-  </si>
-  <si>
-    <t>Zambia</t>
-  </si>
-  <si>
-    <t>ZW</t>
-  </si>
-  <si>
-    <t>Zimbabwe</t>
-  </si>
-  <si>
-    <t>We Need New Names</t>
-  </si>
-  <si>
-    <t>NoViolet Bulawayo</t>
-  </si>
-  <si>
-    <t>Nervous Conditions</t>
-  </si>
-  <si>
-    <t>Tsitsi Dangarembga</t>
-  </si>
-  <si>
-    <t>The Hairdresser of Harare</t>
-  </si>
-  <si>
-    <t>Tendai Huchu</t>
   </si>
 </sst>
 </file>
@@ -3189,9 +3204,9 @@
   <dimension ref="A1:G310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomLeft" activeCell="F196" sqref="F196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -3298,28 +3313,16 @@
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
       <c r="E6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3327,16 +3330,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3344,33 +3341,21 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3378,33 +3363,21 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -3412,16 +3385,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -3429,16 +3396,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -3446,16 +3413,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3463,16 +3430,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3480,10 +3441,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3491,16 +3458,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3508,16 +3475,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -3525,27 +3486,21 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -3553,16 +3508,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -3570,10 +3519,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -3581,10 +3530,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -3592,10 +3541,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -3603,10 +3552,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>63</v>
+      </c>
+      <c r="C26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" t="s">
+        <v>65</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -3614,10 +3569,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -3625,10 +3580,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -3636,10 +3591,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -3647,16 +3602,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -3664,10 +3613,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -3675,10 +3624,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -3686,21 +3635,27 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B33" t="s">
-        <v>90</v>
+        <v>79</v>
+      </c>
+      <c r="C33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" t="s">
+        <v>81</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B34" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -3708,10 +3663,16 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>85</v>
+      </c>
+      <c r="C35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" t="s">
+        <v>87</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -3719,10 +3680,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -3730,10 +3691,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B37" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -3741,10 +3702,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B38" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -3752,10 +3713,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -3763,10 +3724,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B40" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -3774,10 +3735,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B41" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -3785,10 +3746,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B42" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -3796,10 +3757,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B43" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -3807,10 +3768,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B44" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -3818,10 +3779,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B45" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3829,10 +3790,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B46" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3840,10 +3801,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B47" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3851,10 +3812,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B48" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3862,16 +3823,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B49" t="s">
-        <v>122</v>
-      </c>
-      <c r="C49" t="s">
-        <v>123</v>
-      </c>
-      <c r="D49" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3879,10 +3834,16 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B50" t="s">
-        <v>126</v>
+        <v>115</v>
+      </c>
+      <c r="C50" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50" t="s">
+        <v>117</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3890,10 +3851,16 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B51" t="s">
-        <v>128</v>
+        <v>119</v>
+      </c>
+      <c r="C51" t="s">
+        <v>120</v>
+      </c>
+      <c r="D51" t="s">
+        <v>121</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3901,10 +3868,16 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B52" t="s">
-        <v>130</v>
+        <v>119</v>
+      </c>
+      <c r="C52" t="s">
+        <v>122</v>
+      </c>
+      <c r="D52" t="s">
+        <v>123</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3912,10 +3885,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B53" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3923,27 +3896,27 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B54" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C54" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D54" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="B55" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3951,10 +3924,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B56" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3962,10 +3935,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B57" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3973,10 +3946,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B58" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3984,10 +3957,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B59" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3995,10 +3968,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="B60" t="s">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -4006,10 +3979,16 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="B61" t="s">
-        <v>58</v>
+        <v>139</v>
+      </c>
+      <c r="C61" t="s">
+        <v>140</v>
+      </c>
+      <c r="D61" t="s">
+        <v>141</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -4017,10 +3996,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
+        <v>143</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -4028,10 +4007,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B63" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -4039,10 +4018,16 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
+        <v>146</v>
+      </c>
+      <c r="B64" t="s">
+        <v>147</v>
+      </c>
+      <c r="C64" t="s">
+        <v>148</v>
+      </c>
+      <c r="D64" t="s">
         <v>149</v>
-      </c>
-      <c r="B64" t="s">
-        <v>150</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -4050,10 +4035,16 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
+        <v>150</v>
+      </c>
+      <c r="B65" t="s">
         <v>151</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>152</v>
+      </c>
+      <c r="D65" t="s">
+        <v>153</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -4061,27 +4052,33 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B66" t="s">
+        <v>151</v>
+      </c>
+      <c r="C66" t="s">
         <v>154</v>
       </c>
+      <c r="D66" t="s">
+        <v>155</v>
+      </c>
       <c r="E66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B67" t="s">
+        <v>151</v>
+      </c>
+      <c r="C67" t="s">
         <v>156</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>157</v>
-      </c>
-      <c r="D67" t="s">
-        <v>158</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -4089,50 +4086,32 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
+        <v>158</v>
+      </c>
+      <c r="B68" t="s">
         <v>159</v>
       </c>
-      <c r="B68" t="s">
-        <v>160</v>
-      </c>
-      <c r="C68" t="s">
-        <v>161</v>
-      </c>
-      <c r="D68" t="s">
-        <v>162</v>
-      </c>
       <c r="E68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B69" t="s">
-        <v>160</v>
-      </c>
-      <c r="C69" t="s">
-        <v>163</v>
-      </c>
-      <c r="D69" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B70" t="s">
-        <v>160</v>
-      </c>
-      <c r="C70" t="s">
-        <v>165</v>
-      </c>
-      <c r="D70" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -4140,10 +4119,16 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
+        <v>164</v>
+      </c>
+      <c r="B71" t="s">
+        <v>165</v>
+      </c>
+      <c r="C71" t="s">
+        <v>166</v>
+      </c>
+      <c r="D71" t="s">
         <v>167</v>
-      </c>
-      <c r="B71" t="s">
-        <v>168</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -4151,10 +4136,16 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
+        <v>168</v>
+      </c>
+      <c r="B72" t="s">
         <v>169</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>170</v>
+      </c>
+      <c r="D72" t="s">
+        <v>171</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -4162,10 +4153,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B73" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -4173,16 +4164,16 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B74" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C74" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D74" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -4190,10 +4181,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B75" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -4201,10 +4192,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B76" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -4212,10 +4203,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B77" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -4223,16 +4214,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B78" t="s">
-        <v>184</v>
-      </c>
-      <c r="C78" t="s">
         <v>185</v>
-      </c>
-      <c r="D78" t="s">
-        <v>186</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -4240,10 +4225,16 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
+        <v>186</v>
+      </c>
+      <c r="B79" t="s">
         <v>187</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>188</v>
+      </c>
+      <c r="D79" t="s">
+        <v>189</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -4251,10 +4242,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B80" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -4262,16 +4253,16 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B81" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C81" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D81" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -4279,16 +4270,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B82" t="s">
-        <v>192</v>
-      </c>
-      <c r="C82" t="s">
-        <v>195</v>
-      </c>
-      <c r="D82" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -4296,16 +4281,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B83" t="s">
-        <v>192</v>
-      </c>
-      <c r="C83" t="s">
-        <v>197</v>
-      </c>
-      <c r="D83" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -4313,16 +4292,16 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="B84" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="C84" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D84" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -4330,16 +4309,16 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="B85" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="C85" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D85" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -4347,33 +4326,27 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="B86" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="C86" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D86" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B87" t="s">
-        <v>206</v>
-      </c>
-      <c r="C87" t="s">
-        <v>207</v>
-      </c>
-      <c r="D87" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -4381,10 +4354,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B88" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -4392,10 +4365,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B89" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -4403,10 +4376,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B90" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -4414,10 +4387,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B91" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -4425,16 +4398,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B92" t="s">
-        <v>218</v>
-      </c>
-      <c r="C92" t="s">
         <v>219</v>
-      </c>
-      <c r="D92" t="s">
-        <v>220</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -4442,61 +4409,67 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
+        <v>220</v>
+      </c>
+      <c r="B93" t="s">
         <v>221</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>222</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>223</v>
       </c>
-      <c r="D93" t="s">
-        <v>224</v>
-      </c>
       <c r="E93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
+        <v>220</v>
+      </c>
+      <c r="B94" t="s">
         <v>221</v>
       </c>
-      <c r="B94" t="s">
-        <v>222</v>
-      </c>
       <c r="C94" t="s">
+        <v>224</v>
+      </c>
+      <c r="D94" t="s">
         <v>225</v>
       </c>
-      <c r="D94" t="s">
-        <v>226</v>
-      </c>
       <c r="E94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
+        <v>220</v>
+      </c>
+      <c r="B95" t="s">
         <v>221</v>
       </c>
-      <c r="B95" t="s">
-        <v>222</v>
-      </c>
       <c r="C95" t="s">
+        <v>226</v>
+      </c>
+      <c r="D95" t="s">
         <v>227</v>
       </c>
-      <c r="D95" t="s">
-        <v>228</v>
-      </c>
       <c r="E95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
+        <v>228</v>
+      </c>
+      <c r="B96" t="s">
         <v>229</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>230</v>
+      </c>
+      <c r="D96" t="s">
+        <v>231</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -4504,10 +4477,16 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B97" t="s">
+        <v>229</v>
+      </c>
+      <c r="C97" t="s">
         <v>232</v>
+      </c>
+      <c r="D97" t="s">
+        <v>233</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -4515,10 +4494,16 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B98" t="s">
+        <v>229</v>
+      </c>
+      <c r="C98" t="s">
         <v>234</v>
+      </c>
+      <c r="D98" t="s">
+        <v>235</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -4526,10 +4511,16 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B99" t="s">
+        <v>229</v>
+      </c>
+      <c r="C99" t="s">
         <v>236</v>
+      </c>
+      <c r="D99" t="s">
+        <v>237</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -4537,21 +4528,27 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B100" t="s">
+        <v>229</v>
+      </c>
+      <c r="C100" t="s">
         <v>238</v>
       </c>
+      <c r="D100" t="s">
+        <v>239</v>
+      </c>
       <c r="E100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B101" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -4559,16 +4556,16 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B102" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C102" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D102" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -4576,16 +4573,16 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B103" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C103" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D103" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -4593,16 +4590,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B104" t="s">
-        <v>242</v>
-      </c>
-      <c r="C104" t="s">
-        <v>247</v>
-      </c>
-      <c r="D104" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -4610,16 +4601,10 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="B105" t="s">
-        <v>242</v>
-      </c>
-      <c r="C105" t="s">
-        <v>249</v>
-      </c>
-      <c r="D105" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -4627,27 +4612,21 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="B106" t="s">
-        <v>242</v>
-      </c>
-      <c r="C106" t="s">
-        <v>251</v>
-      </c>
-      <c r="D106" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B107" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -4655,10 +4634,10 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B108" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -4666,10 +4645,10 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B109" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -4677,16 +4656,16 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B110" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C110" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D110" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -4694,10 +4673,10 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B111" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -4705,10 +4684,10 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B112" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -4716,16 +4695,16 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B113" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C113" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D113" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -4733,16 +4712,10 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B114" t="s">
-        <v>268</v>
-      </c>
-      <c r="C114" t="s">
-        <v>271</v>
-      </c>
-      <c r="D114" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -4750,10 +4723,10 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B115" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -4761,10 +4734,10 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B116" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -4772,10 +4745,10 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B117" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -4783,21 +4756,33 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B118" t="s">
-        <v>280</v>
+        <v>281</v>
+      </c>
+      <c r="C118" t="s">
+        <v>282</v>
+      </c>
+      <c r="D118" t="s">
+        <v>283</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B119" t="s">
-        <v>282</v>
+        <v>285</v>
+      </c>
+      <c r="C119" t="s">
+        <v>286</v>
+      </c>
+      <c r="D119" t="s">
+        <v>287</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -4805,10 +4790,16 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B120" t="s">
-        <v>284</v>
+        <v>285</v>
+      </c>
+      <c r="C120" t="s">
+        <v>288</v>
+      </c>
+      <c r="D120" t="s">
+        <v>289</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -4816,10 +4807,16 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
+        <v>284</v>
+      </c>
+      <c r="B121" t="s">
         <v>285</v>
       </c>
-      <c r="B121" t="s">
-        <v>286</v>
+      <c r="C121" t="s">
+        <v>290</v>
+      </c>
+      <c r="D121" t="s">
+        <v>291</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -4827,10 +4824,16 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B122" t="s">
-        <v>288</v>
+        <v>285</v>
+      </c>
+      <c r="C122" t="s">
+        <v>292</v>
+      </c>
+      <c r="D122" t="s">
+        <v>293</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -4838,27 +4841,27 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B123" t="s">
-        <v>290</v>
+        <v>285</v>
+      </c>
+      <c r="C123" t="s">
+        <v>294</v>
+      </c>
+      <c r="D123" t="s">
+        <v>295</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="B124" t="s">
-        <v>292</v>
-      </c>
-      <c r="C124" t="s">
-        <v>293</v>
-      </c>
-      <c r="D124" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -4866,21 +4869,27 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B125" t="s">
-        <v>296</v>
+        <v>299</v>
+      </c>
+      <c r="C125" t="s">
+        <v>300</v>
+      </c>
+      <c r="D125" t="s">
+        <v>301</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B126" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -4888,16 +4897,16 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B127" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C127" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="D127" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="E127">
         <v>1</v>
@@ -4905,16 +4914,16 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B128" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C128" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="D128" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -4922,16 +4931,16 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B129" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C129" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="D129" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -4939,44 +4948,47 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="B130" t="s">
-        <v>307</v>
-      </c>
-      <c r="C130" t="s">
-        <v>308</v>
-      </c>
-      <c r="D130" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="E130">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="B131" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="C131" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="D131" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="E131">
         <v>0</v>
+      </c>
+      <c r="F131" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B132" t="s">
-        <v>313</v>
+        <v>314</v>
+      </c>
+      <c r="C132" t="s">
+        <v>318</v>
+      </c>
+      <c r="D132" t="s">
+        <v>319</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -4984,16 +4996,16 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="B133" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C133" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="D133" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -5001,16 +5013,10 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="B134" t="s">
-        <v>315</v>
-      </c>
-      <c r="C134" t="s">
-        <v>318</v>
-      </c>
-      <c r="D134" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -5018,16 +5024,10 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="B135" t="s">
-        <v>315</v>
-      </c>
-      <c r="C135" t="s">
-        <v>320</v>
-      </c>
-      <c r="D135" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -5035,16 +5035,16 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="B136" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="C136" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="D136" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -5052,16 +5052,16 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="B137" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="C137" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="D137" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="E137">
         <v>1</v>
@@ -5069,21 +5069,27 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B138" t="s">
-        <v>327</v>
+        <v>329</v>
+      </c>
+      <c r="C138" t="s">
+        <v>334</v>
+      </c>
+      <c r="D138" t="s">
+        <v>335</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="B139" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -5091,50 +5097,38 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="B140" t="s">
-        <v>331</v>
-      </c>
-      <c r="C140" t="s">
-        <v>332</v>
-      </c>
-      <c r="D140" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="E140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B141" t="s">
-        <v>335</v>
-      </c>
-      <c r="C141" t="s">
-        <v>336</v>
-      </c>
-      <c r="D141" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="E141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B142" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C142" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D142" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -5147,94 +5141,94 @@
       <c r="B143" t="s">
         <v>343</v>
       </c>
+      <c r="C143" t="s">
+        <v>346</v>
+      </c>
+      <c r="D143" t="s">
+        <v>347</v>
+      </c>
       <c r="E143">
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B144" t="s">
-        <v>345</v>
+        <v>343</v>
+      </c>
+      <c r="C144" t="s">
+        <v>348</v>
+      </c>
+      <c r="D144" t="s">
+        <v>349</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B145" t="s">
-        <v>347</v>
+        <v>343</v>
+      </c>
+      <c r="C145" t="s">
+        <v>350</v>
+      </c>
+      <c r="D145" t="s">
+        <v>351</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B146" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C146" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D146" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="B147" t="s">
-        <v>349</v>
-      </c>
-      <c r="C147" t="s">
-        <v>352</v>
-      </c>
-      <c r="D147" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="B148" t="s">
-        <v>349</v>
-      </c>
-      <c r="C148" t="s">
-        <v>354</v>
-      </c>
-      <c r="D148" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B149" t="s">
-        <v>357</v>
-      </c>
-      <c r="C149" t="s">
-        <v>358</v>
-      </c>
-      <c r="D149" t="s">
         <v>359</v>
       </c>
       <c r="E149">
@@ -5243,15 +5237,9 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B150" t="s">
-        <v>357</v>
-      </c>
-      <c r="C150" t="s">
-        <v>360</v>
-      </c>
-      <c r="D150" t="s">
         <v>361</v>
       </c>
       <c r="E150">
@@ -5260,58 +5248,39 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B151" t="s">
-        <v>357</v>
-      </c>
-      <c r="C151" t="s">
-        <v>362</v>
-      </c>
-      <c r="D151" t="s">
         <v>363</v>
       </c>
       <c r="E151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" ht="16.8" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="B152" t="s">
-        <v>357</v>
-      </c>
-      <c r="C152" t="s">
-        <v>364</v>
-      </c>
-      <c r="D152" t="s">
         <v>365</v>
       </c>
       <c r="E152">
-        <v>1</v>
-      </c>
-      <c r="G152" s="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="153" ht="16.8" spans="1:7">
       <c r="A153" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="B153" t="s">
-        <v>357</v>
-      </c>
-      <c r="C153" t="s">
-        <v>366</v>
-      </c>
-      <c r="D153" t="s">
         <v>367</v>
       </c>
       <c r="E153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G153" s="1"/>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" ht="16.8" spans="1:7">
       <c r="A154" t="s">
         <v>368</v>
       </c>
@@ -5321,6 +5290,7 @@
       <c r="E154">
         <v>0</v>
       </c>
+      <c r="G154" s="1"/>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
@@ -5329,16 +5299,22 @@
       <c r="B155" t="s">
         <v>371</v>
       </c>
+      <c r="C155" t="s">
+        <v>372</v>
+      </c>
+      <c r="D155" t="s">
+        <v>373</v>
+      </c>
       <c r="E155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B156" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -5346,10 +5322,10 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B157" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E157">
         <v>0</v>
@@ -5357,10 +5333,10 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B158" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E158">
         <v>0</v>
@@ -5368,15 +5344,9 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B159" t="s">
-        <v>379</v>
-      </c>
-      <c r="C159" t="s">
-        <v>380</v>
-      </c>
-      <c r="D159" t="s">
         <v>381</v>
       </c>
       <c r="E159">
@@ -5434,27 +5404,39 @@
       <c r="B164" t="s">
         <v>391</v>
       </c>
+      <c r="C164" t="s">
+        <v>392</v>
+      </c>
+      <c r="D164" t="s">
+        <v>393</v>
+      </c>
       <c r="E164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B165" t="s">
+        <v>391</v>
+      </c>
+      <c r="C165" t="s">
+        <v>394</v>
+      </c>
+      <c r="D165" t="s">
         <v>393</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B166" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E166">
         <v>0</v>
@@ -5462,49 +5444,58 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B167" t="s">
+        <v>398</v>
+      </c>
+      <c r="C167" t="s">
+        <v>399</v>
+      </c>
+      <c r="D167" t="s">
+        <v>400</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" t="s">
         <v>397</v>
       </c>
-      <c r="E167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
-      <c r="A168" t="s">
+      <c r="B168" t="s">
         <v>398</v>
       </c>
-      <c r="B168" t="s">
-        <v>399</v>
+      <c r="C168" t="s">
+        <v>401</v>
+      </c>
+      <c r="D168" t="s">
+        <v>402</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F168" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B169" t="s">
-        <v>401</v>
-      </c>
-      <c r="C169" t="s">
-        <v>402</v>
-      </c>
-      <c r="D169" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B170" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E170">
         <v>0</v>
@@ -5512,10 +5503,10 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B171" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E171">
         <v>0</v>
@@ -5523,10 +5514,10 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B172" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E172">
         <v>0</v>
@@ -5534,10 +5525,10 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B173" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -5545,10 +5536,10 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B174" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E174">
         <v>0</v>
@@ -5556,21 +5547,27 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B175" t="s">
-        <v>415</v>
+        <v>417</v>
+      </c>
+      <c r="C175" t="s">
+        <v>418</v>
+      </c>
+      <c r="D175" t="s">
+        <v>419</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B176" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="E176">
         <v>0</v>
@@ -5578,10 +5575,10 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B177" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="E177">
         <v>0</v>
@@ -5589,10 +5586,10 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B178" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="E178">
         <v>0</v>
@@ -5600,10 +5597,10 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B179" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="E179">
         <v>0</v>
@@ -5611,10 +5608,10 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B180" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="E180">
         <v>0</v>
@@ -5622,10 +5619,10 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B181" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="E181">
         <v>0</v>
@@ -5633,10 +5630,10 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B182" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="E182">
         <v>0</v>
@@ -5644,47 +5641,38 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B183" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C183" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D183" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="E183">
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:5">
       <c r="A184" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="B184" t="s">
-        <v>431</v>
-      </c>
-      <c r="C184" t="s">
-        <v>434</v>
-      </c>
-      <c r="D184" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="E184">
-        <v>1</v>
-      </c>
-      <c r="F184" t="s">
-        <v>436</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B185" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="E185">
         <v>0</v>
@@ -5692,10 +5680,10 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B186" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="E186">
         <v>0</v>
@@ -5703,10 +5691,10 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B187" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="E187">
         <v>0</v>
@@ -5714,21 +5702,27 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B188" t="s">
-        <v>444</v>
+        <v>447</v>
+      </c>
+      <c r="C188" t="s">
+        <v>448</v>
+      </c>
+      <c r="D188" t="s">
+        <v>449</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="B189" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="E189">
         <v>0</v>
@@ -5736,10 +5730,10 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="B190" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="E190">
         <v>0</v>
@@ -5747,10 +5741,10 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="B191" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="E191">
         <v>0</v>
@@ -5758,10 +5752,10 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="B192" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="E192">
         <v>0</v>
@@ -5769,100 +5763,109 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="B193" t="s">
-        <v>454</v>
+        <v>459</v>
+      </c>
+      <c r="C193" t="s">
+        <v>460</v>
+      </c>
+      <c r="D193" t="s">
+        <v>461</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B194" t="s">
-        <v>456</v>
+        <v>459</v>
+      </c>
+      <c r="C194" t="s">
+        <v>462</v>
+      </c>
+      <c r="D194" t="s">
+        <v>463</v>
       </c>
       <c r="E194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
       <c r="A195" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B195" t="s">
-        <v>458</v>
+        <v>459</v>
+      </c>
+      <c r="C195" t="s">
+        <v>464</v>
+      </c>
+      <c r="D195" t="s">
+        <v>465</v>
       </c>
       <c r="E195">
         <v>0</v>
+      </c>
+      <c r="F195" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" t="s">
+        <v>458</v>
+      </c>
+      <c r="B196" t="s">
         <v>459</v>
       </c>
-      <c r="B196" t="s">
-        <v>460</v>
-      </c>
       <c r="C196" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="D196" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="E196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="B197" t="s">
-        <v>464</v>
-      </c>
-      <c r="C197" t="s">
-        <v>465</v>
-      </c>
-      <c r="D197" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="E197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="B198" t="s">
-        <v>464</v>
-      </c>
-      <c r="C198" t="s">
-        <v>467</v>
-      </c>
-      <c r="D198" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="E198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="B199" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="C199" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="D199" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="E199">
         <v>0</v>
@@ -5870,10 +5873,10 @@
     </row>
     <row r="200" spans="1:5">
       <c r="A200" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="B200" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="E200">
         <v>0</v>
@@ -5881,10 +5884,16 @@
     </row>
     <row r="201" spans="1:5">
       <c r="A201" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="B201" t="s">
-        <v>475</v>
+        <v>480</v>
+      </c>
+      <c r="C201" t="s">
+        <v>481</v>
+      </c>
+      <c r="D201" t="s">
+        <v>482</v>
       </c>
       <c r="E201">
         <v>0</v>
@@ -5892,10 +5901,16 @@
     </row>
     <row r="202" spans="1:5">
       <c r="A202" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B202" t="s">
-        <v>477</v>
+        <v>480</v>
+      </c>
+      <c r="C202" t="s">
+        <v>483</v>
+      </c>
+      <c r="D202" t="s">
+        <v>482</v>
       </c>
       <c r="E202">
         <v>0</v>
@@ -5903,61 +5918,52 @@
     </row>
     <row r="203" spans="1:5">
       <c r="A203" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="B203" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="E203">
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:6">
       <c r="A204" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="B204" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="C204" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="D204" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="E204">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F204" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="B205" t="s">
-        <v>481</v>
-      </c>
-      <c r="C205" t="s">
-        <v>484</v>
-      </c>
-      <c r="D205" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="E205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="B206" t="s">
-        <v>481</v>
-      </c>
-      <c r="C206" t="s">
-        <v>486</v>
-      </c>
-      <c r="D206" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="E206">
         <v>0</v>
@@ -5965,16 +5971,10 @@
     </row>
     <row r="207" spans="1:5">
       <c r="A207" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="B207" t="s">
-        <v>481</v>
-      </c>
-      <c r="C207" t="s">
-        <v>488</v>
-      </c>
-      <c r="D207" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="E207">
         <v>0</v>
@@ -5982,10 +5982,16 @@
     </row>
     <row r="208" spans="1:5">
       <c r="A208" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="B208" t="s">
-        <v>491</v>
+        <v>498</v>
+      </c>
+      <c r="C208" t="s">
+        <v>499</v>
+      </c>
+      <c r="D208" t="s">
+        <v>500</v>
       </c>
       <c r="E208">
         <v>0</v>
@@ -5993,50 +5999,38 @@
     </row>
     <row r="209" spans="1:5">
       <c r="A209" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="B209" t="s">
-        <v>493</v>
-      </c>
-      <c r="C209" t="s">
-        <v>494</v>
-      </c>
-      <c r="D209" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="E209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="B210" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="C210" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="D210" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="B211" t="s">
-        <v>497</v>
-      </c>
-      <c r="C211" t="s">
-        <v>500</v>
-      </c>
-      <c r="D211" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="E211">
         <v>0</v>
@@ -6044,10 +6038,10 @@
     </row>
     <row r="212" spans="1:5">
       <c r="A212" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="B212" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="E212">
         <v>0</v>
@@ -6055,10 +6049,16 @@
     </row>
     <row r="213" spans="1:5">
       <c r="A213" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="B213" t="s">
-        <v>504</v>
+        <v>512</v>
+      </c>
+      <c r="C213" t="s">
+        <v>513</v>
+      </c>
+      <c r="D213" t="s">
+        <v>514</v>
       </c>
       <c r="E213">
         <v>0</v>
@@ -6066,21 +6066,27 @@
     </row>
     <row r="214" spans="1:5">
       <c r="A214" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="B214" t="s">
-        <v>506</v>
+        <v>512</v>
+      </c>
+      <c r="C214" t="s">
+        <v>515</v>
+      </c>
+      <c r="D214" t="s">
+        <v>516</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="B215" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="E215">
         <v>0</v>
@@ -6088,10 +6094,10 @@
     </row>
     <row r="216" spans="1:5">
       <c r="A216" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="B216" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="E216">
         <v>0</v>
@@ -6099,10 +6105,10 @@
     </row>
     <row r="217" spans="1:5">
       <c r="A217" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="B217" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="E217">
         <v>0</v>
@@ -6110,27 +6116,21 @@
     </row>
     <row r="218" spans="1:5">
       <c r="A218" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="B218" t="s">
-        <v>514</v>
-      </c>
-      <c r="C218" t="s">
-        <v>515</v>
-      </c>
-      <c r="D218" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="E218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="B219" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="E219">
         <v>0</v>
@@ -6138,16 +6138,16 @@
     </row>
     <row r="220" spans="1:5">
       <c r="A220" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="B220" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="C220" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="D220" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="E220">
         <v>0</v>
@@ -6155,10 +6155,16 @@
     </row>
     <row r="221" spans="1:5">
       <c r="A221" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B221" t="s">
-        <v>524</v>
+        <v>528</v>
+      </c>
+      <c r="C221" t="s">
+        <v>531</v>
+      </c>
+      <c r="D221" t="s">
+        <v>532</v>
       </c>
       <c r="E221">
         <v>0</v>
@@ -6166,10 +6172,16 @@
     </row>
     <row r="222" spans="1:5">
       <c r="A222" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B222" t="s">
-        <v>526</v>
+        <v>528</v>
+      </c>
+      <c r="C222" t="s">
+        <v>533</v>
+      </c>
+      <c r="D222" t="s">
+        <v>534</v>
       </c>
       <c r="E222">
         <v>0</v>
@@ -6183,38 +6195,38 @@
         <v>528</v>
       </c>
       <c r="C223" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="D223" t="s">
-        <v>530</v>
+        <v>207</v>
       </c>
       <c r="E223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="B224" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="C224" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="D224" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="E224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="B225" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="E225">
         <v>0</v>
@@ -6222,10 +6234,10 @@
     </row>
     <row r="226" spans="1:5">
       <c r="A226" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="B226" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="E226">
         <v>0</v>
@@ -6233,10 +6245,10 @@
     </row>
     <row r="227" spans="1:5">
       <c r="A227" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="B227" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="E227">
         <v>0</v>
@@ -6244,10 +6256,10 @@
     </row>
     <row r="228" spans="1:5">
       <c r="A228" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="B228" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="E228">
         <v>0</v>
@@ -6255,10 +6267,10 @@
     </row>
     <row r="229" spans="1:5">
       <c r="A229" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="B229" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="E229">
         <v>0</v>
@@ -6266,10 +6278,10 @@
     </row>
     <row r="230" spans="1:5">
       <c r="A230" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="B230" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="E230">
         <v>0</v>
@@ -6277,10 +6289,10 @@
     </row>
     <row r="231" spans="1:5">
       <c r="A231" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="B231" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="E231">
         <v>0</v>
@@ -6288,10 +6300,10 @@
     </row>
     <row r="232" spans="1:5">
       <c r="A232" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="B232" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="E232">
         <v>0</v>
@@ -6299,10 +6311,10 @@
     </row>
     <row r="233" spans="1:5">
       <c r="A233" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="B233" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="E233">
         <v>0</v>
@@ -6310,10 +6322,10 @@
     </row>
     <row r="234" spans="1:5">
       <c r="A234" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="B234" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="E234">
         <v>0</v>
@@ -6321,10 +6333,10 @@
     </row>
     <row r="235" spans="1:5">
       <c r="A235" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="B235" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="E235">
         <v>0</v>
@@ -6332,16 +6344,16 @@
     </row>
     <row r="236" spans="1:5">
       <c r="A236" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="B236" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="C236" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="D236" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="E236">
         <v>0</v>
@@ -6349,16 +6361,10 @@
     </row>
     <row r="237" spans="1:5">
       <c r="A237" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="B237" t="s">
-        <v>556</v>
-      </c>
-      <c r="C237" t="s">
-        <v>559</v>
-      </c>
-      <c r="D237" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="E237">
         <v>0</v>
@@ -6366,16 +6372,10 @@
     </row>
     <row r="238" spans="1:5">
       <c r="A238" t="s">
-        <v>555</v>
+        <v>568</v>
       </c>
       <c r="B238" t="s">
-        <v>556</v>
-      </c>
-      <c r="C238" t="s">
-        <v>561</v>
-      </c>
-      <c r="D238" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="E238">
         <v>0</v>
@@ -6383,33 +6383,27 @@
     </row>
     <row r="239" spans="1:5">
       <c r="A239" t="s">
-        <v>555</v>
+        <v>570</v>
       </c>
       <c r="B239" t="s">
-        <v>556</v>
+        <v>571</v>
       </c>
       <c r="C239" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="D239" t="s">
-        <v>228</v>
+        <v>573</v>
       </c>
       <c r="E239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="B240" t="s">
-        <v>565</v>
-      </c>
-      <c r="C240" t="s">
-        <v>566</v>
-      </c>
-      <c r="D240" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="E240">
         <v>0</v>
@@ -6417,10 +6411,10 @@
     </row>
     <row r="241" spans="1:5">
       <c r="A241" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="B241" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="E241">
         <v>0</v>
@@ -6428,10 +6422,10 @@
     </row>
     <row r="242" spans="1:5">
       <c r="A242" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="B242" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="E242">
         <v>0</v>
@@ -6439,10 +6433,10 @@
     </row>
     <row r="243" spans="1:5">
       <c r="A243" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="B243" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="E243">
         <v>0</v>
@@ -6450,16 +6444,10 @@
     </row>
     <row r="244" spans="1:5">
       <c r="A244" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="B244" t="s">
-        <v>575</v>
-      </c>
-      <c r="C244" t="s">
-        <v>576</v>
-      </c>
-      <c r="D244" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="E244">
         <v>0</v>
@@ -6467,16 +6455,16 @@
     </row>
     <row r="245" spans="1:5">
       <c r="A245" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="B245" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="C245" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="D245" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="E245">
         <v>0</v>
@@ -6484,16 +6472,16 @@
     </row>
     <row r="246" spans="1:5">
       <c r="A246" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="B246" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="C246" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="D246" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="E246">
         <v>0</v>
@@ -6501,10 +6489,16 @@
     </row>
     <row r="247" spans="1:5">
       <c r="A247" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="B247" t="s">
-        <v>584</v>
+        <v>591</v>
+      </c>
+      <c r="C247" t="s">
+        <v>592</v>
+      </c>
+      <c r="D247" t="s">
+        <v>593</v>
       </c>
       <c r="E247">
         <v>0</v>
@@ -6512,10 +6506,16 @@
     </row>
     <row r="248" spans="1:5">
       <c r="A248" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="B248" t="s">
-        <v>586</v>
+        <v>591</v>
+      </c>
+      <c r="C248" t="s">
+        <v>594</v>
+      </c>
+      <c r="D248" t="s">
+        <v>595</v>
       </c>
       <c r="E248">
         <v>0</v>
@@ -6523,21 +6523,27 @@
     </row>
     <row r="249" spans="1:5">
       <c r="A249" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B249" t="s">
-        <v>588</v>
+        <v>591</v>
+      </c>
+      <c r="C249" t="s">
+        <v>596</v>
+      </c>
+      <c r="D249" t="s">
+        <v>597</v>
       </c>
       <c r="E249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="B250" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="E250">
         <v>0</v>
@@ -6545,10 +6551,10 @@
     </row>
     <row r="251" spans="1:5">
       <c r="A251" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="B251" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="E251">
         <v>0</v>
@@ -6556,16 +6562,16 @@
     </row>
     <row r="252" spans="1:5">
       <c r="A252" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
       <c r="B252" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
       <c r="C252" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="D252" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
       <c r="E252">
         <v>0</v>
@@ -6573,10 +6579,16 @@
     </row>
     <row r="253" spans="1:5">
       <c r="A253" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="B253" t="s">
-        <v>598</v>
+        <v>607</v>
+      </c>
+      <c r="C253" t="s">
+        <v>608</v>
+      </c>
+      <c r="D253" t="s">
+        <v>609</v>
       </c>
       <c r="E253">
         <v>0</v>
@@ -6584,16 +6596,16 @@
     </row>
     <row r="254" spans="1:5">
       <c r="A254" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="B254" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="C254" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="D254" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="E254">
         <v>0</v>
@@ -6601,16 +6613,16 @@
     </row>
     <row r="255" spans="1:5">
       <c r="A255" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="B255" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="C255" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="D255" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="E255">
         <v>0</v>
@@ -6618,16 +6630,16 @@
     </row>
     <row r="256" spans="1:5">
       <c r="A256" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="B256" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="C256" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="D256" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="E256">
         <v>0</v>
@@ -6635,10 +6647,16 @@
     </row>
     <row r="257" spans="1:5">
       <c r="A257" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B257" t="s">
-        <v>610</v>
+        <v>607</v>
+      </c>
+      <c r="C257" t="s">
+        <v>616</v>
+      </c>
+      <c r="D257" t="s">
+        <v>617</v>
       </c>
       <c r="E257">
         <v>0</v>
@@ -6646,16 +6664,16 @@
     </row>
     <row r="258" spans="1:5">
       <c r="A258" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="B258" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="C258" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="D258" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="E258">
         <v>0</v>
@@ -6663,10 +6681,10 @@
     </row>
     <row r="259" spans="1:5">
       <c r="A259" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="B259" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="E259">
         <v>0</v>
@@ -6674,10 +6692,16 @@
     </row>
     <row r="260" spans="1:5">
       <c r="A260" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="B260" t="s">
-        <v>618</v>
+        <v>623</v>
+      </c>
+      <c r="C260" t="s">
+        <v>624</v>
+      </c>
+      <c r="D260" t="s">
+        <v>625</v>
       </c>
       <c r="E260">
         <v>0</v>
@@ -6685,10 +6709,10 @@
     </row>
     <row r="261" spans="1:5">
       <c r="A261" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="B261" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="E261">
         <v>0</v>
@@ -6696,16 +6720,10 @@
     </row>
     <row r="262" spans="1:5">
       <c r="A262" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="B262" t="s">
-        <v>622</v>
-      </c>
-      <c r="C262" t="s">
-        <v>623</v>
-      </c>
-      <c r="D262" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="E262">
         <v>0</v>
@@ -6713,10 +6731,10 @@
     </row>
     <row r="263" spans="1:5">
       <c r="A263" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="B263" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="E263">
         <v>0</v>
@@ -6724,10 +6742,16 @@
     </row>
     <row r="264" spans="1:5">
       <c r="A264" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="B264" t="s">
-        <v>628</v>
+        <v>633</v>
+      </c>
+      <c r="C264" t="s">
+        <v>634</v>
+      </c>
+      <c r="D264" t="s">
+        <v>635</v>
       </c>
       <c r="E264">
         <v>0</v>
@@ -6735,10 +6759,16 @@
     </row>
     <row r="265" spans="1:5">
       <c r="A265" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="B265" t="s">
-        <v>630</v>
+        <v>633</v>
+      </c>
+      <c r="C265" t="s">
+        <v>636</v>
+      </c>
+      <c r="D265" t="s">
+        <v>635</v>
       </c>
       <c r="E265">
         <v>0</v>
@@ -6746,10 +6776,16 @@
     </row>
     <row r="266" spans="1:5">
       <c r="A266" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="B266" t="s">
-        <v>632</v>
+        <v>638</v>
+      </c>
+      <c r="C266" t="s">
+        <v>639</v>
+      </c>
+      <c r="D266" t="s">
+        <v>640</v>
       </c>
       <c r="E266">
         <v>0</v>
@@ -6757,10 +6793,16 @@
     </row>
     <row r="267" spans="1:5">
       <c r="A267" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="B267" t="s">
-        <v>634</v>
+        <v>638</v>
+      </c>
+      <c r="C267" t="s">
+        <v>641</v>
+      </c>
+      <c r="D267" t="s">
+        <v>642</v>
       </c>
       <c r="E267">
         <v>0</v>
@@ -6768,10 +6810,16 @@
     </row>
     <row r="268" spans="1:5">
       <c r="A268" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B268" t="s">
-        <v>636</v>
+        <v>638</v>
+      </c>
+      <c r="C268" t="s">
+        <v>643</v>
+      </c>
+      <c r="D268" t="s">
+        <v>642</v>
       </c>
       <c r="E268">
         <v>0</v>
@@ -6779,10 +6827,16 @@
     </row>
     <row r="269" spans="1:5">
       <c r="A269" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="B269" t="s">
-        <v>638</v>
+        <v>645</v>
+      </c>
+      <c r="C269" t="s">
+        <v>646</v>
+      </c>
+      <c r="D269" t="s">
+        <v>647</v>
       </c>
       <c r="E269">
         <v>0</v>
@@ -6790,10 +6844,10 @@
     </row>
     <row r="270" spans="1:5">
       <c r="A270" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="B270" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E270">
         <v>0</v>
@@ -6801,16 +6855,10 @@
     </row>
     <row r="271" spans="1:5">
       <c r="A271" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
       <c r="B271" t="s">
-        <v>642</v>
-      </c>
-      <c r="C271" t="s">
-        <v>643</v>
-      </c>
-      <c r="D271" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="E271">
         <v>0</v>
@@ -6818,10 +6866,10 @@
     </row>
     <row r="272" spans="1:5">
       <c r="A272" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="B272" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="E272">
         <v>0</v>
@@ -6829,10 +6877,16 @@
     </row>
     <row r="273" spans="1:5">
       <c r="A273" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="B273" t="s">
-        <v>648</v>
+        <v>655</v>
+      </c>
+      <c r="C273" t="s">
+        <v>656</v>
+      </c>
+      <c r="D273" t="s">
+        <v>657</v>
       </c>
       <c r="E273">
         <v>0</v>
@@ -6840,10 +6894,16 @@
     </row>
     <row r="274" spans="1:5">
       <c r="A274" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="B274" t="s">
-        <v>650</v>
+        <v>655</v>
+      </c>
+      <c r="C274" t="s">
+        <v>658</v>
+      </c>
+      <c r="D274" t="s">
+        <v>657</v>
       </c>
       <c r="E274">
         <v>0</v>
@@ -6851,16 +6911,16 @@
     </row>
     <row r="275" spans="1:5">
       <c r="A275" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="B275" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="C275" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="D275" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="E275">
         <v>0</v>
@@ -6868,47 +6928,32 @@
     </row>
     <row r="276" spans="1:5">
       <c r="A276" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="B276" t="s">
-        <v>652</v>
-      </c>
-      <c r="C276" t="s">
-        <v>655</v>
-      </c>
-      <c r="D276" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="E276">
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:6">
+    <row r="277" spans="1:5">
       <c r="A277" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="B277" t="s">
-        <v>658</v>
-      </c>
-      <c r="C277" t="s">
-        <v>659</v>
-      </c>
-      <c r="D277" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="E277">
         <v>0</v>
-      </c>
-      <c r="F277" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="278" spans="1:5">
       <c r="A278" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="B278" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="E278">
         <v>0</v>
@@ -6916,10 +6961,10 @@
     </row>
     <row r="279" spans="1:5">
       <c r="A279" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="B279" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="E279">
         <v>0</v>
@@ -6927,33 +6972,27 @@
     </row>
     <row r="280" spans="1:5">
       <c r="A280" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="B280" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="C280" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="D280" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="E280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:5">
       <c r="A281" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="B281" t="s">
-        <v>667</v>
-      </c>
-      <c r="C281" t="s">
-        <v>670</v>
-      </c>
-      <c r="D281" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -6961,16 +7000,16 @@
     </row>
     <row r="282" spans="1:5">
       <c r="A282" t="s">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="B282" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="C282" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="D282" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="E282">
         <v>0</v>
@@ -6978,16 +7017,16 @@
     </row>
     <row r="283" spans="1:5">
       <c r="A283" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B283" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C283" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="D283" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="E283">
         <v>0</v>
@@ -6995,27 +7034,21 @@
     </row>
     <row r="284" spans="1:5">
       <c r="A284" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="B284" t="s">
-        <v>678</v>
-      </c>
-      <c r="C284" t="s">
-        <v>679</v>
-      </c>
-      <c r="D284" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="E284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:5">
       <c r="A285" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B285" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="E285">
         <v>0</v>
@@ -7023,67 +7056,49 @@
     </row>
     <row r="286" spans="1:5">
       <c r="A286" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B286" t="s">
-        <v>684</v>
-      </c>
-      <c r="C286" t="s">
-        <v>685</v>
-      </c>
-      <c r="D286" t="s">
         <v>686</v>
       </c>
       <c r="E286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:5">
       <c r="A287" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="B287" t="s">
-        <v>684</v>
-      </c>
-      <c r="C287" t="s">
-        <v>687</v>
-      </c>
-      <c r="D287" t="s">
         <v>688</v>
       </c>
       <c r="E287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:5">
       <c r="A288" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="B288" t="s">
-        <v>684</v>
-      </c>
-      <c r="C288" t="s">
-        <v>689</v>
-      </c>
-      <c r="D288" t="s">
         <v>690</v>
       </c>
       <c r="E288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:5">
       <c r="A289" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="B289" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="C289" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="D289" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="E289">
         <v>1</v>
@@ -7091,10 +7106,16 @@
     </row>
     <row r="290" spans="1:5">
       <c r="A290" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B290" t="s">
-        <v>694</v>
+        <v>696</v>
+      </c>
+      <c r="C290" t="s">
+        <v>697</v>
+      </c>
+      <c r="D290" t="s">
+        <v>698</v>
       </c>
       <c r="E290">
         <v>0</v>
@@ -7102,10 +7123,10 @@
     </row>
     <row r="291" spans="1:5">
       <c r="A291" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="B291" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="E291">
         <v>0</v>
@@ -7113,10 +7134,10 @@
     </row>
     <row r="292" spans="1:5">
       <c r="A292" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="B292" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="E292">
         <v>0</v>
@@ -7124,24 +7145,36 @@
     </row>
     <row r="293" spans="1:5">
       <c r="A293" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="B293" t="s">
-        <v>700</v>
+        <v>704</v>
+      </c>
+      <c r="C293" t="s">
+        <v>705</v>
+      </c>
+      <c r="D293" t="s">
+        <v>706</v>
       </c>
       <c r="E293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:5">
       <c r="A294" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="B294" t="s">
-        <v>702</v>
+        <v>704</v>
+      </c>
+      <c r="C294" t="s">
+        <v>707</v>
+      </c>
+      <c r="D294" t="s">
+        <v>708</v>
       </c>
       <c r="E294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -7151,47 +7184,50 @@
       <c r="B295" t="s">
         <v>704</v>
       </c>
+      <c r="C295" t="s">
+        <v>709</v>
+      </c>
+      <c r="D295" t="s">
+        <v>710</v>
+      </c>
       <c r="E295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:5">
       <c r="A296" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B296" t="s">
-        <v>706</v>
+        <v>704</v>
+      </c>
+      <c r="C296" t="s">
+        <v>711</v>
+      </c>
+      <c r="D296" t="s">
+        <v>712</v>
       </c>
       <c r="E296">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
       <c r="A297" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="B297" t="s">
-        <v>708</v>
-      </c>
-      <c r="C297" t="s">
-        <v>709</v>
-      </c>
-      <c r="D297" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="E297">
-        <v>1</v>
-      </c>
-      <c r="F297" t="s">
-        <v>711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:5">
       <c r="A298" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="B298" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="E298">
         <v>0</v>
@@ -7199,10 +7235,10 @@
     </row>
     <row r="299" spans="1:5">
       <c r="A299" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="B299" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="E299">
         <v>0</v>
@@ -7210,10 +7246,10 @@
     </row>
     <row r="300" spans="1:5">
       <c r="A300" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="B300" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="E300">
         <v>0</v>
@@ -7221,32 +7257,41 @@
     </row>
     <row r="301" spans="1:5">
       <c r="A301" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="B301" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="E301">
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:6">
       <c r="A302" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="B302" t="s">
-        <v>721</v>
+        <v>724</v>
+      </c>
+      <c r="C302" t="s">
+        <v>725</v>
+      </c>
+      <c r="D302" t="s">
+        <v>726</v>
       </c>
       <c r="E302">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F302" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="303" spans="1:5">
       <c r="A303" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="B303" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="E303">
         <v>0</v>
@@ -7254,16 +7299,10 @@
     </row>
     <row r="304" spans="1:5">
       <c r="A304" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="B304" t="s">
-        <v>725</v>
-      </c>
-      <c r="C304" t="s">
-        <v>726</v>
-      </c>
-      <c r="D304" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="E304">
         <v>0</v>
@@ -7271,16 +7310,10 @@
     </row>
     <row r="305" spans="1:5">
       <c r="A305" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
       <c r="B305" t="s">
-        <v>725</v>
-      </c>
-      <c r="C305" t="s">
-        <v>728</v>
-      </c>
-      <c r="D305" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="E305">
         <v>0</v>
@@ -7288,27 +7321,27 @@
     </row>
     <row r="306" spans="1:5">
       <c r="A306" t="s">
-        <v>724</v>
+        <v>734</v>
       </c>
       <c r="B306" t="s">
-        <v>725</v>
-      </c>
-      <c r="C306" t="s">
-        <v>730</v>
-      </c>
-      <c r="D306" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="E306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:5">
       <c r="A307" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="B307" t="s">
-        <v>733</v>
+        <v>737</v>
+      </c>
+      <c r="C307" t="s">
+        <v>738</v>
+      </c>
+      <c r="D307" t="s">
+        <v>739</v>
       </c>
       <c r="E307">
         <v>0</v>
@@ -7316,16 +7349,16 @@
     </row>
     <row r="308" spans="1:5">
       <c r="A308" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B308" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C308" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="D308" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="E308">
         <v>0</v>
@@ -7333,16 +7366,16 @@
     </row>
     <row r="309" spans="1:5">
       <c r="A309" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B309" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C309" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="D309" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="E309">
         <v>0</v>
@@ -7350,22 +7383,21 @@
     </row>
     <row r="310" spans="1:5">
       <c r="A310" t="s">
-        <v>734</v>
+        <v>744</v>
       </c>
       <c r="B310" t="s">
-        <v>735</v>
-      </c>
-      <c r="C310" t="s">
-        <v>740</v>
-      </c>
-      <c r="D310" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="E310">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F310">
+    <sortState ref="A2:F310">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/read_the_world.xlsx
+++ b/read_the_world.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$310</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$311</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751">
   <si>
     <t>Code</t>
   </si>
@@ -469,6 +469,15 @@
     <t>Milan Kundera</t>
   </si>
   <si>
+    <t>The Affliction of Praha</t>
+  </si>
+  <si>
+    <t>Simon Gillard</t>
+  </si>
+  <si>
+    <t>murder mystery set in 1920s Czechoslovakia</t>
+  </si>
+  <si>
     <t>CD</t>
   </si>
   <si>
@@ -1745,6 +1754,12 @@
   </si>
   <si>
     <t>Singapore</t>
+  </si>
+  <si>
+    <t>Kumar: From Rags to Drag</t>
+  </si>
+  <si>
+    <t>Kumarason "Kumar" Chinnadurai</t>
   </si>
   <si>
     <t>SX</t>
@@ -3201,12 +3216,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G310"/>
+  <dimension ref="A1:G311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F196" sqref="F196"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -4033,63 +4048,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
+        <v>146</v>
+      </c>
+      <c r="B65" t="s">
+        <v>147</v>
+      </c>
+      <c r="C65" t="s">
         <v>150</v>
       </c>
-      <c r="B65" t="s">
+      <c r="D65" t="s">
         <v>151</v>
       </c>
-      <c r="C65" t="s">
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65" t="s">
         <v>152</v>
-      </c>
-      <c r="D65" t="s">
-        <v>153</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B66" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C66" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D66" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B67" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C67" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D67" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B68" t="s">
+        <v>154</v>
+      </c>
+      <c r="C68" t="s">
         <v>159</v>
+      </c>
+      <c r="D68" t="s">
+        <v>160</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -4097,10 +4121,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B69" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -4108,10 +4132,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B70" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -4119,16 +4143,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B71" t="s">
-        <v>165</v>
-      </c>
-      <c r="C71" t="s">
         <v>166</v>
-      </c>
-      <c r="D71" t="s">
-        <v>167</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -4136,16 +4154,16 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
+        <v>167</v>
+      </c>
+      <c r="B72" t="s">
         <v>168</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>169</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>170</v>
-      </c>
-      <c r="D72" t="s">
-        <v>171</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -4153,10 +4171,16 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
+        <v>171</v>
+      </c>
+      <c r="B73" t="s">
         <v>172</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>173</v>
+      </c>
+      <c r="D73" t="s">
+        <v>174</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -4164,16 +4188,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B74" t="s">
-        <v>175</v>
-      </c>
-      <c r="C74" t="s">
         <v>176</v>
-      </c>
-      <c r="D74" t="s">
-        <v>177</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -4181,10 +4199,16 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
+        <v>177</v>
+      </c>
+      <c r="B75" t="s">
         <v>178</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>179</v>
+      </c>
+      <c r="D75" t="s">
+        <v>180</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -4192,10 +4216,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B76" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -4203,10 +4227,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B77" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -4214,10 +4238,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B78" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -4225,16 +4249,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B79" t="s">
-        <v>187</v>
-      </c>
-      <c r="C79" t="s">
         <v>188</v>
-      </c>
-      <c r="D79" t="s">
-        <v>189</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -4242,10 +4260,16 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
+        <v>189</v>
+      </c>
+      <c r="B80" t="s">
         <v>190</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>191</v>
+      </c>
+      <c r="D80" t="s">
+        <v>192</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -4253,16 +4277,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B81" t="s">
-        <v>193</v>
-      </c>
-      <c r="C81" t="s">
         <v>194</v>
-      </c>
-      <c r="D81" t="s">
-        <v>195</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -4270,10 +4288,16 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
+        <v>195</v>
+      </c>
+      <c r="B82" t="s">
         <v>196</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>197</v>
+      </c>
+      <c r="D82" t="s">
+        <v>198</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -4281,10 +4305,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B83" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -4292,16 +4316,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B84" t="s">
-        <v>201</v>
-      </c>
-      <c r="C84" t="s">
         <v>202</v>
-      </c>
-      <c r="D84" t="s">
-        <v>203</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -4309,16 +4327,16 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B85" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C85" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D85" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -4326,38 +4344,44 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B86" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C86" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D86" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B87" t="s">
+        <v>204</v>
+      </c>
+      <c r="C87" t="s">
         <v>209</v>
       </c>
+      <c r="D87" t="s">
+        <v>210</v>
+      </c>
       <c r="E87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B88" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -4365,10 +4389,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B89" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -4376,10 +4400,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B90" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -4387,10 +4411,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B91" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -4398,10 +4422,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B92" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -4409,33 +4433,27 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B93" t="s">
-        <v>221</v>
-      </c>
-      <c r="C93" t="s">
         <v>222</v>
       </c>
-      <c r="D93" t="s">
-        <v>223</v>
-      </c>
       <c r="E93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B94" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C94" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D94" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -4443,33 +4461,33 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B95" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C95" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D95" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B96" t="s">
+        <v>224</v>
+      </c>
+      <c r="C96" t="s">
         <v>229</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>230</v>
-      </c>
-      <c r="D96" t="s">
-        <v>231</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -4477,16 +4495,16 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B97" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C97" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D97" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -4494,16 +4512,16 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B98" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C98" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D98" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -4511,16 +4529,16 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B99" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C99" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D99" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -4528,44 +4546,44 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B100" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C100" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D100" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B101" t="s">
+        <v>232</v>
+      </c>
+      <c r="C101" t="s">
         <v>241</v>
       </c>
+      <c r="D101" t="s">
+        <v>242</v>
+      </c>
       <c r="E101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B102" t="s">
-        <v>243</v>
-      </c>
-      <c r="C102" t="s">
         <v>244</v>
-      </c>
-      <c r="D102" t="s">
-        <v>245</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -4573,16 +4591,16 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B103" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C103" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D103" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -4590,10 +4608,16 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B104" t="s">
+        <v>246</v>
+      </c>
+      <c r="C104" t="s">
         <v>249</v>
+      </c>
+      <c r="D104" t="s">
+        <v>250</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -4601,10 +4625,10 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B105" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -4612,10 +4636,10 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B106" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -4623,10 +4647,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B107" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -4634,10 +4658,10 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B108" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -4645,10 +4669,10 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B109" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -4656,38 +4680,38 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B110" t="s">
-        <v>261</v>
-      </c>
-      <c r="C110" t="s">
         <v>262</v>
       </c>
-      <c r="D110" t="s">
-        <v>263</v>
-      </c>
       <c r="E110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
+        <v>263</v>
+      </c>
+      <c r="B111" t="s">
         <v>264</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
         <v>265</v>
       </c>
+      <c r="D111" t="s">
+        <v>266</v>
+      </c>
       <c r="E111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B112" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -4695,16 +4719,10 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B113" t="s">
-        <v>269</v>
-      </c>
-      <c r="C113" t="s">
         <v>270</v>
-      </c>
-      <c r="D113" t="s">
-        <v>271</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -4712,10 +4730,16 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
+        <v>271</v>
+      </c>
+      <c r="B114" t="s">
         <v>272</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" t="s">
         <v>273</v>
+      </c>
+      <c r="D114" t="s">
+        <v>274</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -4723,10 +4747,10 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B115" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -4734,10 +4758,10 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B116" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -4745,10 +4769,10 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B117" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -4756,50 +4780,44 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B118" t="s">
-        <v>281</v>
-      </c>
-      <c r="C118" t="s">
         <v>282</v>
       </c>
-      <c r="D118" t="s">
-        <v>283</v>
-      </c>
       <c r="E118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
+        <v>283</v>
+      </c>
+      <c r="B119" t="s">
         <v>284</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" t="s">
         <v>285</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>286</v>
       </c>
-      <c r="D119" t="s">
-        <v>287</v>
-      </c>
       <c r="E119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B120" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C120" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D120" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -4807,16 +4825,16 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B121" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C121" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D121" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -4824,16 +4842,16 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B122" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C122" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D122" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -4841,89 +4859,89 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B123" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C123" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D123" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="B124" t="s">
+        <v>288</v>
+      </c>
+      <c r="C124" t="s">
         <v>297</v>
       </c>
+      <c r="D124" t="s">
+        <v>298</v>
+      </c>
       <c r="E124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B125" t="s">
-        <v>299</v>
-      </c>
-      <c r="C125" t="s">
         <v>300</v>
       </c>
-      <c r="D125" t="s">
-        <v>301</v>
-      </c>
       <c r="E125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
+        <v>301</v>
+      </c>
+      <c r="B126" t="s">
         <v>302</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C126" t="s">
         <v>303</v>
       </c>
+      <c r="D126" t="s">
+        <v>304</v>
+      </c>
       <c r="E126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B127" t="s">
-        <v>305</v>
-      </c>
-      <c r="C127" t="s">
         <v>306</v>
       </c>
-      <c r="D127" t="s">
-        <v>307</v>
-      </c>
       <c r="E127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B128" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C128" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D128" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -4931,58 +4949,55 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B129" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C129" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D129" t="s">
         <v>310</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B130" t="s">
+        <v>308</v>
+      </c>
+      <c r="C130" t="s">
         <v>312</v>
       </c>
+      <c r="D130" t="s">
+        <v>313</v>
+      </c>
       <c r="E130">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B131" t="s">
-        <v>314</v>
-      </c>
-      <c r="C131" t="s">
         <v>315</v>
       </c>
-      <c r="D131" t="s">
+      <c r="E131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" t="s">
         <v>316</v>
       </c>
-      <c r="E131">
-        <v>0</v>
-      </c>
-      <c r="F131" t="s">
+      <c r="B132" t="s">
         <v>317</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="A132" t="s">
-        <v>313</v>
-      </c>
-      <c r="B132" t="s">
-        <v>314</v>
       </c>
       <c r="C132" t="s">
         <v>318</v>
@@ -4993,19 +5008,22 @@
       <c r="E132">
         <v>0</v>
       </c>
+      <c r="F132" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B133" t="s">
+        <v>317</v>
+      </c>
+      <c r="C133" t="s">
         <v>321</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
         <v>322</v>
-      </c>
-      <c r="D133" t="s">
-        <v>323</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -5013,10 +5031,16 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
+        <v>323</v>
+      </c>
+      <c r="B134" t="s">
         <v>324</v>
       </c>
-      <c r="B134" t="s">
+      <c r="C134" t="s">
         <v>325</v>
+      </c>
+      <c r="D134" t="s">
+        <v>326</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -5024,10 +5048,10 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B135" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -5035,16 +5059,10 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B136" t="s">
-        <v>329</v>
-      </c>
-      <c r="C136" t="s">
         <v>330</v>
-      </c>
-      <c r="D136" t="s">
-        <v>331</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -5052,33 +5070,33 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B137" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C137" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D137" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B138" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C138" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D138" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E138">
         <v>1</v>
@@ -5086,21 +5104,27 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B139" t="s">
+        <v>332</v>
+      </c>
+      <c r="C139" t="s">
         <v>337</v>
       </c>
+      <c r="D139" t="s">
+        <v>338</v>
+      </c>
       <c r="E139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B140" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -5108,10 +5132,10 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B141" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -5119,16 +5143,10 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B142" t="s">
-        <v>343</v>
-      </c>
-      <c r="C142" t="s">
         <v>344</v>
-      </c>
-      <c r="D142" t="s">
-        <v>345</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -5136,16 +5154,16 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B143" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C143" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D143" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -5153,33 +5171,33 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B144" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C144" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D144" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B145" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C145" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D145" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E145">
         <v>1</v>
@@ -5187,16 +5205,16 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B146" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C146" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D146" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -5204,21 +5222,27 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="B147" t="s">
+        <v>346</v>
+      </c>
+      <c r="C147" t="s">
         <v>355</v>
       </c>
+      <c r="D147" t="s">
+        <v>356</v>
+      </c>
       <c r="E147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B148" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -5226,10 +5250,10 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B149" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E149">
         <v>0</v>
@@ -5237,10 +5261,10 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B150" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E150">
         <v>0</v>
@@ -5248,10 +5272,10 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B151" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E151">
         <v>0</v>
@@ -5259,73 +5283,73 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B152" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E152">
         <v>0</v>
       </c>
     </row>
-    <row r="153" ht="16.8" spans="1:7">
+    <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B153" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E153">
         <v>0</v>
       </c>
-      <c r="G153" s="1"/>
     </row>
     <row r="154" ht="16.8" spans="1:7">
       <c r="A154" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B154" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E154">
         <v>0</v>
       </c>
       <c r="G154" s="1"/>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" ht="16.8" spans="1:7">
       <c r="A155" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B155" t="s">
-        <v>371</v>
-      </c>
-      <c r="C155" t="s">
         <v>372</v>
       </c>
-      <c r="D155" t="s">
-        <v>373</v>
-      </c>
       <c r="E155">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G155" s="1"/>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
+        <v>373</v>
+      </c>
+      <c r="B156" t="s">
         <v>374</v>
       </c>
-      <c r="B156" t="s">
+      <c r="C156" t="s">
         <v>375</v>
       </c>
+      <c r="D156" t="s">
+        <v>376</v>
+      </c>
       <c r="E156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B157" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E157">
         <v>0</v>
@@ -5333,10 +5357,10 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B158" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E158">
         <v>0</v>
@@ -5344,10 +5368,10 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B159" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -5355,10 +5379,10 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B160" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E160">
         <v>0</v>
@@ -5366,10 +5390,10 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B161" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E161">
         <v>0</v>
@@ -5377,10 +5401,10 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B162" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E162">
         <v>0</v>
@@ -5388,10 +5412,10 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B163" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E163">
         <v>0</v>
@@ -5399,33 +5423,27 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B164" t="s">
-        <v>391</v>
-      </c>
-      <c r="C164" t="s">
         <v>392</v>
       </c>
-      <c r="D164" t="s">
-        <v>393</v>
-      </c>
       <c r="E164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B165" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C165" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D165" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="E165">
         <v>1</v>
@@ -5433,69 +5451,75 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B166" t="s">
+        <v>394</v>
+      </c>
+      <c r="C166" t="s">
+        <v>397</v>
+      </c>
+      <c r="D166" t="s">
         <v>396</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B167" t="s">
-        <v>398</v>
-      </c>
-      <c r="C167" t="s">
         <v>399</v>
       </c>
-      <c r="D167" t="s">
+      <c r="E167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" t="s">
         <v>400</v>
       </c>
-      <c r="E167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
-      <c r="A168" t="s">
-        <v>397</v>
-      </c>
       <c r="B168" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C168" t="s">
+        <v>402</v>
+      </c>
+      <c r="D168" t="s">
+        <v>403</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" t="s">
+        <v>400</v>
+      </c>
+      <c r="B169" t="s">
         <v>401</v>
       </c>
-      <c r="D168" t="s">
-        <v>402</v>
-      </c>
-      <c r="E168">
+      <c r="C169" t="s">
+        <v>404</v>
+      </c>
+      <c r="D169" t="s">
+        <v>405</v>
+      </c>
+      <c r="E169">
         <v>1</v>
       </c>
-      <c r="F168" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
-      <c r="A169" t="s">
-        <v>404</v>
-      </c>
-      <c r="B169" t="s">
-        <v>405</v>
-      </c>
-      <c r="E169">
-        <v>0</v>
+      <c r="F169" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B170" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E170">
         <v>0</v>
@@ -5503,10 +5527,10 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B171" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E171">
         <v>0</v>
@@ -5514,10 +5538,10 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B172" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E172">
         <v>0</v>
@@ -5525,10 +5549,10 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B173" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -5536,10 +5560,10 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B174" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E174">
         <v>0</v>
@@ -5547,38 +5571,38 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B175" t="s">
-        <v>417</v>
-      </c>
-      <c r="C175" t="s">
         <v>418</v>
       </c>
-      <c r="D175" t="s">
-        <v>419</v>
-      </c>
       <c r="E175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="s">
+        <v>419</v>
+      </c>
+      <c r="B176" t="s">
         <v>420</v>
       </c>
-      <c r="B176" t="s">
+      <c r="C176" t="s">
         <v>421</v>
       </c>
+      <c r="D176" t="s">
+        <v>422</v>
+      </c>
       <c r="E176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B177" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E177">
         <v>0</v>
@@ -5586,10 +5610,10 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B178" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E178">
         <v>0</v>
@@ -5597,10 +5621,10 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B179" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E179">
         <v>0</v>
@@ -5608,10 +5632,10 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B180" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E180">
         <v>0</v>
@@ -5619,10 +5643,10 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B181" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E181">
         <v>0</v>
@@ -5630,10 +5654,10 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B182" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E182">
         <v>0</v>
@@ -5641,16 +5665,10 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B183" t="s">
-        <v>435</v>
-      </c>
-      <c r="C183" t="s">
         <v>436</v>
-      </c>
-      <c r="D183" t="s">
-        <v>437</v>
       </c>
       <c r="E183">
         <v>0</v>
@@ -5658,10 +5676,16 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" t="s">
+        <v>437</v>
+      </c>
+      <c r="B184" t="s">
         <v>438</v>
       </c>
-      <c r="B184" t="s">
+      <c r="C184" t="s">
         <v>439</v>
+      </c>
+      <c r="D184" t="s">
+        <v>440</v>
       </c>
       <c r="E184">
         <v>0</v>
@@ -5669,10 +5693,10 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B185" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E185">
         <v>0</v>
@@ -5680,10 +5704,10 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B186" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E186">
         <v>0</v>
@@ -5691,10 +5715,10 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B187" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E187">
         <v>0</v>
@@ -5702,38 +5726,38 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B188" t="s">
-        <v>447</v>
-      </c>
-      <c r="C188" t="s">
         <v>448</v>
       </c>
-      <c r="D188" t="s">
-        <v>449</v>
-      </c>
       <c r="E188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" t="s">
+        <v>449</v>
+      </c>
+      <c r="B189" t="s">
         <v>450</v>
       </c>
-      <c r="B189" t="s">
+      <c r="C189" t="s">
         <v>451</v>
       </c>
+      <c r="D189" t="s">
+        <v>452</v>
+      </c>
       <c r="E189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B190" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E190">
         <v>0</v>
@@ -5741,10 +5765,10 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B191" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E191">
         <v>0</v>
@@ -5752,10 +5776,10 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B192" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E192">
         <v>0</v>
@@ -5763,64 +5787,55 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B193" t="s">
-        <v>459</v>
-      </c>
-      <c r="C193" t="s">
         <v>460</v>
       </c>
-      <c r="D193" t="s">
-        <v>461</v>
-      </c>
       <c r="E193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B194" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C194" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D194" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E194">
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:5">
       <c r="A195" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B195" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C195" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D195" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E195">
-        <v>0</v>
-      </c>
-      <c r="F195" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
       <c r="A196" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B196" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C196" t="s">
         <v>467</v>
@@ -5831,13 +5846,22 @@
       <c r="E196">
         <v>0</v>
       </c>
+      <c r="F196" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="B197" t="s">
+        <v>462</v>
+      </c>
+      <c r="C197" t="s">
         <v>470</v>
+      </c>
+      <c r="D197" t="s">
+        <v>471</v>
       </c>
       <c r="E197">
         <v>0</v>
@@ -5845,10 +5869,10 @@
     </row>
     <row r="198" spans="1:5">
       <c r="A198" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B198" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E198">
         <v>0</v>
@@ -5856,16 +5880,10 @@
     </row>
     <row r="199" spans="1:5">
       <c r="A199" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B199" t="s">
-        <v>474</v>
-      </c>
-      <c r="C199" t="s">
         <v>475</v>
-      </c>
-      <c r="D199" t="s">
-        <v>476</v>
       </c>
       <c r="E199">
         <v>0</v>
@@ -5873,10 +5891,16 @@
     </row>
     <row r="200" spans="1:5">
       <c r="A200" t="s">
+        <v>476</v>
+      </c>
+      <c r="B200" t="s">
         <v>477</v>
       </c>
-      <c r="B200" t="s">
+      <c r="C200" t="s">
         <v>478</v>
+      </c>
+      <c r="D200" t="s">
+        <v>479</v>
       </c>
       <c r="E200">
         <v>0</v>
@@ -5884,16 +5908,10 @@
     </row>
     <row r="201" spans="1:5">
       <c r="A201" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B201" t="s">
-        <v>480</v>
-      </c>
-      <c r="C201" t="s">
         <v>481</v>
-      </c>
-      <c r="D201" t="s">
-        <v>482</v>
       </c>
       <c r="E201">
         <v>0</v>
@@ -5901,16 +5919,16 @@
     </row>
     <row r="202" spans="1:5">
       <c r="A202" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B202" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C202" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D202" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="E202">
         <v>0</v>
@@ -5918,52 +5936,58 @@
     </row>
     <row r="203" spans="1:5">
       <c r="A203" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B203" t="s">
+        <v>483</v>
+      </c>
+      <c r="C203" t="s">
+        <v>486</v>
+      </c>
+      <c r="D203" t="s">
         <v>485</v>
       </c>
       <c r="E203">
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:5">
       <c r="A204" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B204" t="s">
-        <v>487</v>
-      </c>
-      <c r="C204" t="s">
         <v>488</v>
       </c>
-      <c r="D204" t="s">
+      <c r="E204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" t="s">
         <v>489</v>
       </c>
-      <c r="E204">
-        <v>0</v>
-      </c>
-      <c r="F204" t="s">
+      <c r="B205" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="205" spans="1:5">
-      <c r="A205" t="s">
+      <c r="C205" t="s">
         <v>491</v>
       </c>
-      <c r="B205" t="s">
+      <c r="D205" t="s">
         <v>492</v>
       </c>
       <c r="E205">
         <v>0</v>
+      </c>
+      <c r="F205" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B206" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E206">
         <v>0</v>
@@ -5971,10 +5995,10 @@
     </row>
     <row r="207" spans="1:5">
       <c r="A207" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B207" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E207">
         <v>0</v>
@@ -5982,16 +6006,10 @@
     </row>
     <row r="208" spans="1:5">
       <c r="A208" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B208" t="s">
-        <v>498</v>
-      </c>
-      <c r="C208" t="s">
         <v>499</v>
-      </c>
-      <c r="D208" t="s">
-        <v>500</v>
       </c>
       <c r="E208">
         <v>0</v>
@@ -5999,10 +6017,16 @@
     </row>
     <row r="209" spans="1:5">
       <c r="A209" t="s">
+        <v>500</v>
+      </c>
+      <c r="B209" t="s">
         <v>501</v>
       </c>
-      <c r="B209" t="s">
+      <c r="C209" t="s">
         <v>502</v>
+      </c>
+      <c r="D209" t="s">
+        <v>503</v>
       </c>
       <c r="E209">
         <v>0</v>
@@ -6010,38 +6034,38 @@
     </row>
     <row r="210" spans="1:5">
       <c r="A210" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B210" t="s">
-        <v>504</v>
-      </c>
-      <c r="C210" t="s">
         <v>505</v>
       </c>
-      <c r="D210" t="s">
-        <v>506</v>
-      </c>
       <c r="E210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" t="s">
+        <v>506</v>
+      </c>
+      <c r="B211" t="s">
         <v>507</v>
       </c>
-      <c r="B211" t="s">
+      <c r="C211" t="s">
         <v>508</v>
       </c>
+      <c r="D211" t="s">
+        <v>509</v>
+      </c>
       <c r="E211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B212" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E212">
         <v>0</v>
@@ -6049,16 +6073,10 @@
     </row>
     <row r="213" spans="1:5">
       <c r="A213" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B213" t="s">
-        <v>512</v>
-      </c>
-      <c r="C213" t="s">
         <v>513</v>
-      </c>
-      <c r="D213" t="s">
-        <v>514</v>
       </c>
       <c r="E213">
         <v>0</v>
@@ -6066,38 +6084,44 @@
     </row>
     <row r="214" spans="1:5">
       <c r="A214" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B214" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C214" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D214" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B215" t="s">
+        <v>515</v>
+      </c>
+      <c r="C215" t="s">
         <v>518</v>
       </c>
+      <c r="D215" t="s">
+        <v>519</v>
+      </c>
       <c r="E215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B216" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E216">
         <v>0</v>
@@ -6105,10 +6129,10 @@
     </row>
     <row r="217" spans="1:5">
       <c r="A217" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B217" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E217">
         <v>0</v>
@@ -6116,10 +6140,10 @@
     </row>
     <row r="218" spans="1:5">
       <c r="A218" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B218" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E218">
         <v>0</v>
@@ -6127,10 +6151,10 @@
     </row>
     <row r="219" spans="1:5">
       <c r="A219" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B219" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E219">
         <v>0</v>
@@ -6138,16 +6162,10 @@
     </row>
     <row r="220" spans="1:5">
       <c r="A220" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B220" t="s">
-        <v>528</v>
-      </c>
-      <c r="C220" t="s">
         <v>529</v>
-      </c>
-      <c r="D220" t="s">
-        <v>530</v>
       </c>
       <c r="E220">
         <v>0</v>
@@ -6155,16 +6173,16 @@
     </row>
     <row r="221" spans="1:5">
       <c r="A221" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B221" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C221" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D221" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E221">
         <v>0</v>
@@ -6172,16 +6190,16 @@
     </row>
     <row r="222" spans="1:5">
       <c r="A222" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B222" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C222" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D222" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E222">
         <v>0</v>
@@ -6189,44 +6207,50 @@
     </row>
     <row r="223" spans="1:5">
       <c r="A223" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B223" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C223" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D223" t="s">
-        <v>207</v>
+        <v>537</v>
       </c>
       <c r="E223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="B224" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="C224" t="s">
         <v>538</v>
       </c>
       <c r="D224" t="s">
-        <v>539</v>
+        <v>210</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" t="s">
+        <v>539</v>
+      </c>
+      <c r="B225" t="s">
         <v>540</v>
       </c>
-      <c r="B225" t="s">
+      <c r="C225" t="s">
         <v>541</v>
+      </c>
+      <c r="D225" t="s">
+        <v>542</v>
       </c>
       <c r="E225">
         <v>0</v>
@@ -6234,10 +6258,10 @@
     </row>
     <row r="226" spans="1:5">
       <c r="A226" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B226" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E226">
         <v>0</v>
@@ -6245,10 +6269,10 @@
     </row>
     <row r="227" spans="1:5">
       <c r="A227" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B227" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E227">
         <v>0</v>
@@ -6256,10 +6280,10 @@
     </row>
     <row r="228" spans="1:5">
       <c r="A228" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B228" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E228">
         <v>0</v>
@@ -6267,10 +6291,10 @@
     </row>
     <row r="229" spans="1:5">
       <c r="A229" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B229" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E229">
         <v>0</v>
@@ -6278,10 +6302,10 @@
     </row>
     <row r="230" spans="1:5">
       <c r="A230" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B230" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E230">
         <v>0</v>
@@ -6289,10 +6313,10 @@
     </row>
     <row r="231" spans="1:5">
       <c r="A231" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B231" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E231">
         <v>0</v>
@@ -6300,10 +6324,10 @@
     </row>
     <row r="232" spans="1:5">
       <c r="A232" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B232" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E232">
         <v>0</v>
@@ -6311,10 +6335,10 @@
     </row>
     <row r="233" spans="1:5">
       <c r="A233" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B233" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E233">
         <v>0</v>
@@ -6322,10 +6346,10 @@
     </row>
     <row r="234" spans="1:5">
       <c r="A234" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B234" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E234">
         <v>0</v>
@@ -6333,10 +6357,10 @@
     </row>
     <row r="235" spans="1:5">
       <c r="A235" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B235" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E235">
         <v>0</v>
@@ -6344,16 +6368,10 @@
     </row>
     <row r="236" spans="1:5">
       <c r="A236" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B236" t="s">
-        <v>563</v>
-      </c>
-      <c r="C236" t="s">
         <v>564</v>
-      </c>
-      <c r="D236" t="s">
-        <v>565</v>
       </c>
       <c r="E236">
         <v>0</v>
@@ -6361,10 +6379,16 @@
     </row>
     <row r="237" spans="1:5">
       <c r="A237" t="s">
+        <v>565</v>
+      </c>
+      <c r="B237" t="s">
         <v>566</v>
       </c>
-      <c r="B237" t="s">
+      <c r="C237" t="s">
         <v>567</v>
+      </c>
+      <c r="D237" t="s">
+        <v>568</v>
       </c>
       <c r="E237">
         <v>0</v>
@@ -6372,10 +6396,10 @@
     </row>
     <row r="238" spans="1:5">
       <c r="A238" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B238" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E238">
         <v>0</v>
@@ -6383,16 +6407,10 @@
     </row>
     <row r="239" spans="1:5">
       <c r="A239" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B239" t="s">
-        <v>571</v>
-      </c>
-      <c r="C239" t="s">
         <v>572</v>
-      </c>
-      <c r="D239" t="s">
-        <v>573</v>
       </c>
       <c r="E239">
         <v>0</v>
@@ -6400,10 +6418,16 @@
     </row>
     <row r="240" spans="1:5">
       <c r="A240" t="s">
+        <v>573</v>
+      </c>
+      <c r="B240" t="s">
         <v>574</v>
       </c>
-      <c r="B240" t="s">
+      <c r="C240" t="s">
         <v>575</v>
+      </c>
+      <c r="D240" t="s">
+        <v>576</v>
       </c>
       <c r="E240">
         <v>0</v>
@@ -6411,10 +6435,16 @@
     </row>
     <row r="241" spans="1:5">
       <c r="A241" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B241" t="s">
-        <v>577</v>
+        <v>578</v>
+      </c>
+      <c r="C241" t="s">
+        <v>579</v>
+      </c>
+      <c r="D241" t="s">
+        <v>580</v>
       </c>
       <c r="E241">
         <v>0</v>
@@ -6422,10 +6452,10 @@
     </row>
     <row r="242" spans="1:5">
       <c r="A242" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="B242" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="E242">
         <v>0</v>
@@ -6433,10 +6463,10 @@
     </row>
     <row r="243" spans="1:5">
       <c r="A243" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="B243" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="E243">
         <v>0</v>
@@ -6444,10 +6474,10 @@
     </row>
     <row r="244" spans="1:5">
       <c r="A244" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="B244" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="E244">
         <v>0</v>
@@ -6455,16 +6485,10 @@
     </row>
     <row r="245" spans="1:5">
       <c r="A245" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="B245" t="s">
-        <v>585</v>
-      </c>
-      <c r="C245" t="s">
-        <v>586</v>
-      </c>
-      <c r="D245" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E245">
         <v>0</v>
@@ -6472,16 +6496,16 @@
     </row>
     <row r="246" spans="1:5">
       <c r="A246" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="B246" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="C246" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="D246" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="E246">
         <v>0</v>
@@ -6489,16 +6513,16 @@
     </row>
     <row r="247" spans="1:5">
       <c r="A247" t="s">
+        <v>589</v>
+      </c>
+      <c r="B247" t="s">
         <v>590</v>
       </c>
-      <c r="B247" t="s">
-        <v>591</v>
-      </c>
       <c r="C247" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D247" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E247">
         <v>0</v>
@@ -6506,16 +6530,16 @@
     </row>
     <row r="248" spans="1:5">
       <c r="A248" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="B248" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="C248" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="D248" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="E248">
         <v>0</v>
@@ -6523,38 +6547,44 @@
     </row>
     <row r="249" spans="1:5">
       <c r="A249" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="B249" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="C249" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="D249" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="E249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B250" t="s">
-        <v>599</v>
+        <v>596</v>
+      </c>
+      <c r="C250" t="s">
+        <v>601</v>
+      </c>
+      <c r="D250" t="s">
+        <v>602</v>
       </c>
       <c r="E250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="B251" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="E251">
         <v>0</v>
@@ -6562,16 +6592,10 @@
     </row>
     <row r="252" spans="1:5">
       <c r="A252" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="B252" t="s">
-        <v>603</v>
-      </c>
-      <c r="C252" t="s">
-        <v>604</v>
-      </c>
-      <c r="D252" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E252">
         <v>0</v>
@@ -6579,16 +6603,16 @@
     </row>
     <row r="253" spans="1:5">
       <c r="A253" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B253" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C253" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D253" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="E253">
         <v>0</v>
@@ -6596,16 +6620,16 @@
     </row>
     <row r="254" spans="1:5">
       <c r="A254" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="B254" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="C254" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="D254" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="E254">
         <v>0</v>
@@ -6613,16 +6637,16 @@
     </row>
     <row r="255" spans="1:5">
       <c r="A255" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="B255" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="C255" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="D255" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="E255">
         <v>0</v>
@@ -6630,16 +6654,16 @@
     </row>
     <row r="256" spans="1:5">
       <c r="A256" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="B256" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="C256" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="D256" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="E256">
         <v>0</v>
@@ -6647,16 +6671,16 @@
     </row>
     <row r="257" spans="1:5">
       <c r="A257" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="B257" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="C257" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="D257" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="E257">
         <v>0</v>
@@ -6664,16 +6688,16 @@
     </row>
     <row r="258" spans="1:5">
       <c r="A258" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="B258" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="C258" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="D258" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="E258">
         <v>0</v>
@@ -6681,10 +6705,16 @@
     </row>
     <row r="259" spans="1:5">
       <c r="A259" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="B259" t="s">
-        <v>621</v>
+        <v>612</v>
+      </c>
+      <c r="C259" t="s">
+        <v>623</v>
+      </c>
+      <c r="D259" t="s">
+        <v>624</v>
       </c>
       <c r="E259">
         <v>0</v>
@@ -6692,16 +6722,10 @@
     </row>
     <row r="260" spans="1:5">
       <c r="A260" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="B260" t="s">
-        <v>623</v>
-      </c>
-      <c r="C260" t="s">
-        <v>624</v>
-      </c>
-      <c r="D260" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E260">
         <v>0</v>
@@ -6709,10 +6733,16 @@
     </row>
     <row r="261" spans="1:5">
       <c r="A261" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B261" t="s">
-        <v>627</v>
+        <v>628</v>
+      </c>
+      <c r="C261" t="s">
+        <v>629</v>
+      </c>
+      <c r="D261" t="s">
+        <v>630</v>
       </c>
       <c r="E261">
         <v>0</v>
@@ -6720,10 +6750,10 @@
     </row>
     <row r="262" spans="1:5">
       <c r="A262" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="B262" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="E262">
         <v>0</v>
@@ -6731,10 +6761,10 @@
     </row>
     <row r="263" spans="1:5">
       <c r="A263" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="B263" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="E263">
         <v>0</v>
@@ -6742,16 +6772,10 @@
     </row>
     <row r="264" spans="1:5">
       <c r="A264" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="B264" t="s">
-        <v>633</v>
-      </c>
-      <c r="C264" t="s">
-        <v>634</v>
-      </c>
-      <c r="D264" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="E264">
         <v>0</v>
@@ -6759,16 +6783,16 @@
     </row>
     <row r="265" spans="1:5">
       <c r="A265" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="B265" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="C265" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="D265" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="E265">
         <v>0</v>
@@ -6782,7 +6806,7 @@
         <v>638</v>
       </c>
       <c r="C266" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="D266" t="s">
         <v>640</v>
@@ -6793,16 +6817,16 @@
     </row>
     <row r="267" spans="1:5">
       <c r="A267" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="B267" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="C267" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="D267" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="E267">
         <v>0</v>
@@ -6810,16 +6834,16 @@
     </row>
     <row r="268" spans="1:5">
       <c r="A268" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="B268" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="C268" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="D268" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="E268">
         <v>0</v>
@@ -6827,13 +6851,13 @@
     </row>
     <row r="269" spans="1:5">
       <c r="A269" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B269" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C269" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="D269" t="s">
         <v>647</v>
@@ -6844,10 +6868,16 @@
     </row>
     <row r="270" spans="1:5">
       <c r="A270" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B270" t="s">
-        <v>649</v>
+        <v>650</v>
+      </c>
+      <c r="C270" t="s">
+        <v>651</v>
+      </c>
+      <c r="D270" t="s">
+        <v>652</v>
       </c>
       <c r="E270">
         <v>0</v>
@@ -6855,10 +6885,10 @@
     </row>
     <row r="271" spans="1:5">
       <c r="A271" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="B271" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="E271">
         <v>0</v>
@@ -6866,10 +6896,10 @@
     </row>
     <row r="272" spans="1:5">
       <c r="A272" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="B272" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="E272">
         <v>0</v>
@@ -6877,16 +6907,10 @@
     </row>
     <row r="273" spans="1:5">
       <c r="A273" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="B273" t="s">
-        <v>655</v>
-      </c>
-      <c r="C273" t="s">
-        <v>656</v>
-      </c>
-      <c r="D273" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E273">
         <v>0</v>
@@ -6894,16 +6918,16 @@
     </row>
     <row r="274" spans="1:5">
       <c r="A274" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="B274" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="C274" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="D274" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="E274">
         <v>0</v>
@@ -6911,16 +6935,16 @@
     </row>
     <row r="275" spans="1:5">
       <c r="A275" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="B275" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="C275" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="D275" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="E275">
         <v>0</v>
@@ -6928,10 +6952,16 @@
     </row>
     <row r="276" spans="1:5">
       <c r="A276" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B276" t="s">
-        <v>662</v>
+        <v>660</v>
+      </c>
+      <c r="C276" t="s">
+        <v>664</v>
+      </c>
+      <c r="D276" t="s">
+        <v>665</v>
       </c>
       <c r="E276">
         <v>0</v>
@@ -6939,10 +6969,10 @@
     </row>
     <row r="277" spans="1:5">
       <c r="A277" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="B277" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="E277">
         <v>0</v>
@@ -6950,10 +6980,10 @@
     </row>
     <row r="278" spans="1:5">
       <c r="A278" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="B278" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="E278">
         <v>0</v>
@@ -6961,10 +6991,10 @@
     </row>
     <row r="279" spans="1:5">
       <c r="A279" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="B279" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="E279">
         <v>0</v>
@@ -6972,44 +7002,38 @@
     </row>
     <row r="280" spans="1:5">
       <c r="A280" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="B280" t="s">
-        <v>670</v>
-      </c>
-      <c r="C280" t="s">
-        <v>671</v>
-      </c>
-      <c r="D280" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:5">
       <c r="A281" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B281" t="s">
-        <v>674</v>
+        <v>675</v>
+      </c>
+      <c r="C281" t="s">
+        <v>676</v>
+      </c>
+      <c r="D281" t="s">
+        <v>677</v>
       </c>
       <c r="E281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:5">
       <c r="A282" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="B282" t="s">
-        <v>676</v>
-      </c>
-      <c r="C282" t="s">
-        <v>677</v>
-      </c>
-      <c r="D282" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E282">
         <v>0</v>
@@ -7017,16 +7041,16 @@
     </row>
     <row r="283" spans="1:5">
       <c r="A283" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="B283" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="C283" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D283" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="E283">
         <v>0</v>
@@ -7034,10 +7058,16 @@
     </row>
     <row r="284" spans="1:5">
       <c r="A284" t="s">
+        <v>680</v>
+      </c>
+      <c r="B284" t="s">
         <v>681</v>
       </c>
-      <c r="B284" t="s">
-        <v>682</v>
+      <c r="C284" t="s">
+        <v>684</v>
+      </c>
+      <c r="D284" t="s">
+        <v>685</v>
       </c>
       <c r="E284">
         <v>0</v>
@@ -7045,10 +7075,10 @@
     </row>
     <row r="285" spans="1:5">
       <c r="A285" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="B285" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="E285">
         <v>0</v>
@@ -7056,10 +7086,10 @@
     </row>
     <row r="286" spans="1:5">
       <c r="A286" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="B286" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="E286">
         <v>0</v>
@@ -7067,10 +7097,10 @@
     </row>
     <row r="287" spans="1:5">
       <c r="A287" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="B287" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="E287">
         <v>0</v>
@@ -7078,10 +7108,10 @@
     </row>
     <row r="288" spans="1:5">
       <c r="A288" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="B288" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="E288">
         <v>0</v>
@@ -7089,44 +7119,44 @@
     </row>
     <row r="289" spans="1:5">
       <c r="A289" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="B289" t="s">
-        <v>692</v>
-      </c>
-      <c r="C289" t="s">
-        <v>693</v>
-      </c>
-      <c r="D289" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="E289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:5">
       <c r="A290" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B290" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C290" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D290" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="E290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:5">
       <c r="A291" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B291" t="s">
-        <v>700</v>
+        <v>701</v>
+      </c>
+      <c r="C291" t="s">
+        <v>702</v>
+      </c>
+      <c r="D291" t="s">
+        <v>703</v>
       </c>
       <c r="E291">
         <v>0</v>
@@ -7134,10 +7164,10 @@
     </row>
     <row r="292" spans="1:5">
       <c r="A292" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="B292" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="E292">
         <v>0</v>
@@ -7145,33 +7175,27 @@
     </row>
     <row r="293" spans="1:5">
       <c r="A293" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="B293" t="s">
-        <v>704</v>
-      </c>
-      <c r="C293" t="s">
-        <v>705</v>
-      </c>
-      <c r="D293" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="E293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:5">
       <c r="A294" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="B294" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="C294" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="D294" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="E294">
         <v>1</v>
@@ -7179,16 +7203,16 @@
     </row>
     <row r="295" spans="1:5">
       <c r="A295" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="B295" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="C295" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="D295" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="E295">
         <v>1</v>
@@ -7196,16 +7220,16 @@
     </row>
     <row r="296" spans="1:5">
       <c r="A296" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="B296" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="C296" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="D296" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="E296">
         <v>1</v>
@@ -7213,21 +7237,27 @@
     </row>
     <row r="297" spans="1:5">
       <c r="A297" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="B297" t="s">
-        <v>714</v>
+        <v>709</v>
+      </c>
+      <c r="C297" t="s">
+        <v>716</v>
+      </c>
+      <c r="D297" t="s">
+        <v>717</v>
       </c>
       <c r="E297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:5">
       <c r="A298" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="B298" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="E298">
         <v>0</v>
@@ -7235,10 +7265,10 @@
     </row>
     <row r="299" spans="1:5">
       <c r="A299" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="B299" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="E299">
         <v>0</v>
@@ -7246,10 +7276,10 @@
     </row>
     <row r="300" spans="1:5">
       <c r="A300" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="B300" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="E300">
         <v>0</v>
@@ -7257,52 +7287,52 @@
     </row>
     <row r="301" spans="1:5">
       <c r="A301" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="B301" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="E301">
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:6">
+    <row r="302" spans="1:5">
       <c r="A302" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="B302" t="s">
-        <v>724</v>
-      </c>
-      <c r="C302" t="s">
-        <v>725</v>
-      </c>
-      <c r="D302" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="E302">
-        <v>1</v>
-      </c>
-      <c r="F302" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
       <c r="A303" t="s">
         <v>728</v>
       </c>
       <c r="B303" t="s">
         <v>729</v>
       </c>
+      <c r="C303" t="s">
+        <v>730</v>
+      </c>
+      <c r="D303" t="s">
+        <v>731</v>
+      </c>
       <c r="E303">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F303" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="304" spans="1:5">
       <c r="A304" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="B304" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="E304">
         <v>0</v>
@@ -7310,10 +7340,10 @@
     </row>
     <row r="305" spans="1:5">
       <c r="A305" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="B305" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="E305">
         <v>0</v>
@@ -7321,10 +7351,10 @@
     </row>
     <row r="306" spans="1:5">
       <c r="A306" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="B306" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="E306">
         <v>0</v>
@@ -7332,16 +7362,10 @@
     </row>
     <row r="307" spans="1:5">
       <c r="A307" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="B307" t="s">
-        <v>737</v>
-      </c>
-      <c r="C307" t="s">
-        <v>738</v>
-      </c>
-      <c r="D307" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="E307">
         <v>0</v>
@@ -7349,16 +7373,16 @@
     </row>
     <row r="308" spans="1:5">
       <c r="A308" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="B308" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="C308" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="D308" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="E308">
         <v>0</v>
@@ -7366,16 +7390,16 @@
     </row>
     <row r="309" spans="1:5">
       <c r="A309" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="B309" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="C309" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="D309" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="E309">
         <v>0</v>
@@ -7383,18 +7407,35 @@
     </row>
     <row r="310" spans="1:5">
       <c r="A310" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B310" t="s">
-        <v>745</v>
+        <v>742</v>
+      </c>
+      <c r="C310" t="s">
+        <v>747</v>
+      </c>
+      <c r="D310" t="s">
+        <v>748</v>
       </c>
       <c r="E310">
         <v>0</v>
       </c>
     </row>
+    <row r="311" spans="1:5">
+      <c r="A311" t="s">
+        <v>749</v>
+      </c>
+      <c r="B311" t="s">
+        <v>750</v>
+      </c>
+      <c r="E311">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F310">
-    <sortState ref="A2:F310">
+  <autoFilter ref="A1:F311">
+    <sortState ref="A2:F311">
       <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>

--- a/read_the_world.xlsx
+++ b/read_the_world.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$311</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$312</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754">
   <si>
     <t>Code</t>
   </si>
@@ -1478,6 +1478,15 @@
   </si>
   <si>
     <t>Through a Glass, Darkly</t>
+  </si>
+  <si>
+    <t>Naïve. Super</t>
+  </si>
+  <si>
+    <t>Erlend Loe</t>
+  </si>
+  <si>
+    <t>book that inspired Mayor Pete to learn Norwegian (https://www.newyorker.com/books/page-turner/the-coming-of-age-tale-that-inspired-mayor-pete-to-learn-norwegian)</t>
   </si>
   <si>
     <t>OM</t>
@@ -3216,12 +3225,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G311"/>
+  <dimension ref="A1:G312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="G196" sqref="G196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -5951,54 +5960,63 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:6">
       <c r="A204" t="s">
+        <v>482</v>
+      </c>
+      <c r="B204" t="s">
+        <v>483</v>
+      </c>
+      <c r="C204" t="s">
         <v>487</v>
       </c>
-      <c r="B204" t="s">
+      <c r="D204" t="s">
         <v>488</v>
       </c>
       <c r="E204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:6">
+      <c r="F204" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
       <c r="A205" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B205" t="s">
-        <v>490</v>
-      </c>
-      <c r="C205" t="s">
         <v>491</v>
       </c>
-      <c r="D205" t="s">
+      <c r="E205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" t="s">
         <v>492</v>
       </c>
-      <c r="E205">
-        <v>0</v>
-      </c>
-      <c r="F205" t="s">
+      <c r="B206" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="206" spans="1:5">
-      <c r="A206" t="s">
+      <c r="C206" t="s">
         <v>494</v>
       </c>
-      <c r="B206" t="s">
+      <c r="D206" t="s">
         <v>495</v>
       </c>
       <c r="E206">
         <v>0</v>
+      </c>
+      <c r="F206" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B207" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E207">
         <v>0</v>
@@ -6006,10 +6024,10 @@
     </row>
     <row r="208" spans="1:5">
       <c r="A208" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B208" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E208">
         <v>0</v>
@@ -6017,16 +6035,10 @@
     </row>
     <row r="209" spans="1:5">
       <c r="A209" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B209" t="s">
-        <v>501</v>
-      </c>
-      <c r="C209" t="s">
         <v>502</v>
-      </c>
-      <c r="D209" t="s">
-        <v>503</v>
       </c>
       <c r="E209">
         <v>0</v>
@@ -6034,10 +6046,16 @@
     </row>
     <row r="210" spans="1:5">
       <c r="A210" t="s">
+        <v>503</v>
+      </c>
+      <c r="B210" t="s">
         <v>504</v>
       </c>
-      <c r="B210" t="s">
+      <c r="C210" t="s">
         <v>505</v>
+      </c>
+      <c r="D210" t="s">
+        <v>506</v>
       </c>
       <c r="E210">
         <v>0</v>
@@ -6045,38 +6063,38 @@
     </row>
     <row r="211" spans="1:5">
       <c r="A211" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B211" t="s">
-        <v>507</v>
-      </c>
-      <c r="C211" t="s">
         <v>508</v>
       </c>
-      <c r="D211" t="s">
-        <v>509</v>
-      </c>
       <c r="E211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" t="s">
+        <v>509</v>
+      </c>
+      <c r="B212" t="s">
         <v>510</v>
       </c>
-      <c r="B212" t="s">
+      <c r="C212" t="s">
         <v>511</v>
       </c>
+      <c r="D212" t="s">
+        <v>512</v>
+      </c>
       <c r="E212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B213" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E213">
         <v>0</v>
@@ -6084,16 +6102,10 @@
     </row>
     <row r="214" spans="1:5">
       <c r="A214" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B214" t="s">
-        <v>515</v>
-      </c>
-      <c r="C214" t="s">
         <v>516</v>
-      </c>
-      <c r="D214" t="s">
-        <v>517</v>
       </c>
       <c r="E214">
         <v>0</v>
@@ -6101,38 +6113,44 @@
     </row>
     <row r="215" spans="1:5">
       <c r="A215" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="B215" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C215" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D215" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B216" t="s">
+        <v>518</v>
+      </c>
+      <c r="C216" t="s">
         <v>521</v>
       </c>
+      <c r="D216" t="s">
+        <v>522</v>
+      </c>
       <c r="E216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B217" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E217">
         <v>0</v>
@@ -6140,10 +6158,10 @@
     </row>
     <row r="218" spans="1:5">
       <c r="A218" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B218" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E218">
         <v>0</v>
@@ -6151,10 +6169,10 @@
     </row>
     <row r="219" spans="1:5">
       <c r="A219" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B219" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E219">
         <v>0</v>
@@ -6162,10 +6180,10 @@
     </row>
     <row r="220" spans="1:5">
       <c r="A220" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B220" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E220">
         <v>0</v>
@@ -6173,16 +6191,10 @@
     </row>
     <row r="221" spans="1:5">
       <c r="A221" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B221" t="s">
-        <v>531</v>
-      </c>
-      <c r="C221" t="s">
         <v>532</v>
-      </c>
-      <c r="D221" t="s">
-        <v>533</v>
       </c>
       <c r="E221">
         <v>0</v>
@@ -6190,16 +6202,16 @@
     </row>
     <row r="222" spans="1:5">
       <c r="A222" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B222" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C222" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D222" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E222">
         <v>0</v>
@@ -6207,16 +6219,16 @@
     </row>
     <row r="223" spans="1:5">
       <c r="A223" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B223" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C223" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D223" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E223">
         <v>0</v>
@@ -6224,44 +6236,50 @@
     </row>
     <row r="224" spans="1:5">
       <c r="A224" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B224" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C224" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D224" t="s">
-        <v>210</v>
+        <v>540</v>
       </c>
       <c r="E224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="B225" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="C225" t="s">
         <v>541</v>
       </c>
       <c r="D225" t="s">
-        <v>542</v>
+        <v>210</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" t="s">
+        <v>542</v>
+      </c>
+      <c r="B226" t="s">
         <v>543</v>
       </c>
-      <c r="B226" t="s">
+      <c r="C226" t="s">
         <v>544</v>
+      </c>
+      <c r="D226" t="s">
+        <v>545</v>
       </c>
       <c r="E226">
         <v>0</v>
@@ -6269,10 +6287,10 @@
     </row>
     <row r="227" spans="1:5">
       <c r="A227" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B227" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E227">
         <v>0</v>
@@ -6280,10 +6298,10 @@
     </row>
     <row r="228" spans="1:5">
       <c r="A228" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B228" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E228">
         <v>0</v>
@@ -6291,10 +6309,10 @@
     </row>
     <row r="229" spans="1:5">
       <c r="A229" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B229" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E229">
         <v>0</v>
@@ -6302,10 +6320,10 @@
     </row>
     <row r="230" spans="1:5">
       <c r="A230" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B230" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E230">
         <v>0</v>
@@ -6313,10 +6331,10 @@
     </row>
     <row r="231" spans="1:5">
       <c r="A231" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B231" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E231">
         <v>0</v>
@@ -6324,10 +6342,10 @@
     </row>
     <row r="232" spans="1:5">
       <c r="A232" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B232" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E232">
         <v>0</v>
@@ -6335,10 +6353,10 @@
     </row>
     <row r="233" spans="1:5">
       <c r="A233" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B233" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E233">
         <v>0</v>
@@ -6346,10 +6364,10 @@
     </row>
     <row r="234" spans="1:5">
       <c r="A234" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B234" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E234">
         <v>0</v>
@@ -6357,10 +6375,10 @@
     </row>
     <row r="235" spans="1:5">
       <c r="A235" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B235" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E235">
         <v>0</v>
@@ -6368,10 +6386,10 @@
     </row>
     <row r="236" spans="1:5">
       <c r="A236" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B236" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E236">
         <v>0</v>
@@ -6379,16 +6397,10 @@
     </row>
     <row r="237" spans="1:5">
       <c r="A237" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B237" t="s">
-        <v>566</v>
-      </c>
-      <c r="C237" t="s">
         <v>567</v>
-      </c>
-      <c r="D237" t="s">
-        <v>568</v>
       </c>
       <c r="E237">
         <v>0</v>
@@ -6396,10 +6408,16 @@
     </row>
     <row r="238" spans="1:5">
       <c r="A238" t="s">
+        <v>568</v>
+      </c>
+      <c r="B238" t="s">
         <v>569</v>
       </c>
-      <c r="B238" t="s">
+      <c r="C238" t="s">
         <v>570</v>
+      </c>
+      <c r="D238" t="s">
+        <v>571</v>
       </c>
       <c r="E238">
         <v>0</v>
@@ -6407,10 +6425,10 @@
     </row>
     <row r="239" spans="1:5">
       <c r="A239" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B239" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E239">
         <v>0</v>
@@ -6418,16 +6436,10 @@
     </row>
     <row r="240" spans="1:5">
       <c r="A240" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B240" t="s">
-        <v>574</v>
-      </c>
-      <c r="C240" t="s">
         <v>575</v>
-      </c>
-      <c r="D240" t="s">
-        <v>576</v>
       </c>
       <c r="E240">
         <v>0</v>
@@ -6435,16 +6447,16 @@
     </row>
     <row r="241" spans="1:5">
       <c r="A241" t="s">
+        <v>576</v>
+      </c>
+      <c r="B241" t="s">
         <v>577</v>
       </c>
-      <c r="B241" t="s">
+      <c r="C241" t="s">
         <v>578</v>
       </c>
-      <c r="C241" t="s">
+      <c r="D241" t="s">
         <v>579</v>
-      </c>
-      <c r="D241" t="s">
-        <v>580</v>
       </c>
       <c r="E241">
         <v>0</v>
@@ -6452,10 +6464,16 @@
     </row>
     <row r="242" spans="1:5">
       <c r="A242" t="s">
+        <v>580</v>
+      </c>
+      <c r="B242" t="s">
         <v>581</v>
       </c>
-      <c r="B242" t="s">
+      <c r="C242" t="s">
         <v>582</v>
+      </c>
+      <c r="D242" t="s">
+        <v>583</v>
       </c>
       <c r="E242">
         <v>0</v>
@@ -6463,10 +6481,10 @@
     </row>
     <row r="243" spans="1:5">
       <c r="A243" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B243" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E243">
         <v>0</v>
@@ -6474,10 +6492,10 @@
     </row>
     <row r="244" spans="1:5">
       <c r="A244" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B244" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E244">
         <v>0</v>
@@ -6485,10 +6503,10 @@
     </row>
     <row r="245" spans="1:5">
       <c r="A245" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B245" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E245">
         <v>0</v>
@@ -6496,16 +6514,10 @@
     </row>
     <row r="246" spans="1:5">
       <c r="A246" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B246" t="s">
-        <v>590</v>
-      </c>
-      <c r="C246" t="s">
         <v>591</v>
-      </c>
-      <c r="D246" t="s">
-        <v>592</v>
       </c>
       <c r="E246">
         <v>0</v>
@@ -6513,16 +6525,16 @@
     </row>
     <row r="247" spans="1:5">
       <c r="A247" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B247" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C247" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D247" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E247">
         <v>0</v>
@@ -6530,16 +6542,16 @@
     </row>
     <row r="248" spans="1:5">
       <c r="A248" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B248" t="s">
+        <v>593</v>
+      </c>
+      <c r="C248" t="s">
         <v>596</v>
       </c>
-      <c r="C248" t="s">
+      <c r="D248" t="s">
         <v>597</v>
-      </c>
-      <c r="D248" t="s">
-        <v>598</v>
       </c>
       <c r="E248">
         <v>0</v>
@@ -6547,16 +6559,16 @@
     </row>
     <row r="249" spans="1:5">
       <c r="A249" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="B249" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="C249" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D249" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E249">
         <v>0</v>
@@ -6564,38 +6576,44 @@
     </row>
     <row r="250" spans="1:5">
       <c r="A250" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="B250" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="C250" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D250" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="B251" t="s">
+        <v>599</v>
+      </c>
+      <c r="C251" t="s">
         <v>604</v>
       </c>
+      <c r="D251" t="s">
+        <v>605</v>
+      </c>
       <c r="E251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B252" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E252">
         <v>0</v>
@@ -6603,16 +6621,10 @@
     </row>
     <row r="253" spans="1:5">
       <c r="A253" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B253" t="s">
-        <v>608</v>
-      </c>
-      <c r="C253" t="s">
         <v>609</v>
-      </c>
-      <c r="D253" t="s">
-        <v>610</v>
       </c>
       <c r="E253">
         <v>0</v>
@@ -6620,16 +6632,16 @@
     </row>
     <row r="254" spans="1:5">
       <c r="A254" t="s">
+        <v>610</v>
+      </c>
+      <c r="B254" t="s">
         <v>611</v>
       </c>
-      <c r="B254" t="s">
+      <c r="C254" t="s">
         <v>612</v>
       </c>
-      <c r="C254" t="s">
+      <c r="D254" t="s">
         <v>613</v>
-      </c>
-      <c r="D254" t="s">
-        <v>614</v>
       </c>
       <c r="E254">
         <v>0</v>
@@ -6637,16 +6649,16 @@
     </row>
     <row r="255" spans="1:5">
       <c r="A255" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="B255" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="C255" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D255" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E255">
         <v>0</v>
@@ -6654,16 +6666,16 @@
     </row>
     <row r="256" spans="1:5">
       <c r="A256" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="B256" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="C256" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D256" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E256">
         <v>0</v>
@@ -6671,16 +6683,16 @@
     </row>
     <row r="257" spans="1:5">
       <c r="A257" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="B257" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="C257" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D257" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E257">
         <v>0</v>
@@ -6688,16 +6700,16 @@
     </row>
     <row r="258" spans="1:5">
       <c r="A258" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="B258" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="C258" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D258" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E258">
         <v>0</v>
@@ -6705,16 +6717,16 @@
     </row>
     <row r="259" spans="1:5">
       <c r="A259" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="B259" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="C259" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D259" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E259">
         <v>0</v>
@@ -6722,10 +6734,16 @@
     </row>
     <row r="260" spans="1:5">
       <c r="A260" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="B260" t="s">
+        <v>615</v>
+      </c>
+      <c r="C260" t="s">
         <v>626</v>
+      </c>
+      <c r="D260" t="s">
+        <v>627</v>
       </c>
       <c r="E260">
         <v>0</v>
@@ -6733,16 +6751,10 @@
     </row>
     <row r="261" spans="1:5">
       <c r="A261" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B261" t="s">
-        <v>628</v>
-      </c>
-      <c r="C261" t="s">
         <v>629</v>
-      </c>
-      <c r="D261" t="s">
-        <v>630</v>
       </c>
       <c r="E261">
         <v>0</v>
@@ -6750,10 +6762,16 @@
     </row>
     <row r="262" spans="1:5">
       <c r="A262" t="s">
+        <v>630</v>
+      </c>
+      <c r="B262" t="s">
         <v>631</v>
       </c>
-      <c r="B262" t="s">
+      <c r="C262" t="s">
         <v>632</v>
+      </c>
+      <c r="D262" t="s">
+        <v>633</v>
       </c>
       <c r="E262">
         <v>0</v>
@@ -6761,10 +6779,10 @@
     </row>
     <row r="263" spans="1:5">
       <c r="A263" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B263" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E263">
         <v>0</v>
@@ -6772,10 +6790,10 @@
     </row>
     <row r="264" spans="1:5">
       <c r="A264" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B264" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E264">
         <v>0</v>
@@ -6783,16 +6801,10 @@
     </row>
     <row r="265" spans="1:5">
       <c r="A265" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B265" t="s">
-        <v>638</v>
-      </c>
-      <c r="C265" t="s">
         <v>639</v>
-      </c>
-      <c r="D265" t="s">
-        <v>640</v>
       </c>
       <c r="E265">
         <v>0</v>
@@ -6800,16 +6812,16 @@
     </row>
     <row r="266" spans="1:5">
       <c r="A266" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="B266" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="C266" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D266" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="E266">
         <v>0</v>
@@ -6817,16 +6829,16 @@
     </row>
     <row r="267" spans="1:5">
       <c r="A267" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B267" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C267" t="s">
         <v>644</v>
       </c>
       <c r="D267" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E267">
         <v>0</v>
@@ -6834,16 +6846,16 @@
     </row>
     <row r="268" spans="1:5">
       <c r="A268" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="B268" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="C268" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D268" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E268">
         <v>0</v>
@@ -6851,16 +6863,16 @@
     </row>
     <row r="269" spans="1:5">
       <c r="A269" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="B269" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="C269" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D269" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="E269">
         <v>0</v>
@@ -6868,16 +6880,16 @@
     </row>
     <row r="270" spans="1:5">
       <c r="A270" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B270" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C270" t="s">
         <v>651</v>
       </c>
       <c r="D270" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E270">
         <v>0</v>
@@ -6885,10 +6897,16 @@
     </row>
     <row r="271" spans="1:5">
       <c r="A271" t="s">
+        <v>652</v>
+      </c>
+      <c r="B271" t="s">
         <v>653</v>
       </c>
-      <c r="B271" t="s">
+      <c r="C271" t="s">
         <v>654</v>
+      </c>
+      <c r="D271" t="s">
+        <v>655</v>
       </c>
       <c r="E271">
         <v>0</v>
@@ -6896,10 +6914,10 @@
     </row>
     <row r="272" spans="1:5">
       <c r="A272" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B272" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E272">
         <v>0</v>
@@ -6907,10 +6925,10 @@
     </row>
     <row r="273" spans="1:5">
       <c r="A273" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B273" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E273">
         <v>0</v>
@@ -6918,16 +6936,10 @@
     </row>
     <row r="274" spans="1:5">
       <c r="A274" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B274" t="s">
-        <v>660</v>
-      </c>
-      <c r="C274" t="s">
         <v>661</v>
-      </c>
-      <c r="D274" t="s">
-        <v>662</v>
       </c>
       <c r="E274">
         <v>0</v>
@@ -6935,16 +6947,16 @@
     </row>
     <row r="275" spans="1:5">
       <c r="A275" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="B275" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="C275" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D275" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="E275">
         <v>0</v>
@@ -6952,13 +6964,13 @@
     </row>
     <row r="276" spans="1:5">
       <c r="A276" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="B276" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="C276" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="D276" t="s">
         <v>665</v>
@@ -6969,10 +6981,16 @@
     </row>
     <row r="277" spans="1:5">
       <c r="A277" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B277" t="s">
+        <v>663</v>
+      </c>
+      <c r="C277" t="s">
         <v>667</v>
+      </c>
+      <c r="D277" t="s">
+        <v>668</v>
       </c>
       <c r="E277">
         <v>0</v>
@@ -6980,10 +6998,10 @@
     </row>
     <row r="278" spans="1:5">
       <c r="A278" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B278" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E278">
         <v>0</v>
@@ -6991,10 +7009,10 @@
     </row>
     <row r="279" spans="1:5">
       <c r="A279" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B279" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="E279">
         <v>0</v>
@@ -7002,10 +7020,10 @@
     </row>
     <row r="280" spans="1:5">
       <c r="A280" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B280" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="E280">
         <v>0</v>
@@ -7013,44 +7031,38 @@
     </row>
     <row r="281" spans="1:5">
       <c r="A281" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B281" t="s">
-        <v>675</v>
-      </c>
-      <c r="C281" t="s">
         <v>676</v>
       </c>
-      <c r="D281" t="s">
-        <v>677</v>
-      </c>
       <c r="E281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:5">
       <c r="A282" t="s">
+        <v>677</v>
+      </c>
+      <c r="B282" t="s">
         <v>678</v>
       </c>
-      <c r="B282" t="s">
+      <c r="C282" t="s">
         <v>679</v>
       </c>
+      <c r="D282" t="s">
+        <v>680</v>
+      </c>
       <c r="E282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:5">
       <c r="A283" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B283" t="s">
-        <v>681</v>
-      </c>
-      <c r="C283" t="s">
         <v>682</v>
-      </c>
-      <c r="D283" t="s">
-        <v>683</v>
       </c>
       <c r="E283">
         <v>0</v>
@@ -7058,16 +7070,16 @@
     </row>
     <row r="284" spans="1:5">
       <c r="A284" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="B284" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="C284" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D284" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="E284">
         <v>0</v>
@@ -7075,10 +7087,16 @@
     </row>
     <row r="285" spans="1:5">
       <c r="A285" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B285" t="s">
+        <v>684</v>
+      </c>
+      <c r="C285" t="s">
         <v>687</v>
+      </c>
+      <c r="D285" t="s">
+        <v>688</v>
       </c>
       <c r="E285">
         <v>0</v>
@@ -7086,10 +7104,10 @@
     </row>
     <row r="286" spans="1:5">
       <c r="A286" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B286" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E286">
         <v>0</v>
@@ -7097,10 +7115,10 @@
     </row>
     <row r="287" spans="1:5">
       <c r="A287" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B287" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="E287">
         <v>0</v>
@@ -7108,10 +7126,10 @@
     </row>
     <row r="288" spans="1:5">
       <c r="A288" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B288" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="E288">
         <v>0</v>
@@ -7119,10 +7137,10 @@
     </row>
     <row r="289" spans="1:5">
       <c r="A289" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B289" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="E289">
         <v>0</v>
@@ -7130,44 +7148,44 @@
     </row>
     <row r="290" spans="1:5">
       <c r="A290" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B290" t="s">
-        <v>697</v>
-      </c>
-      <c r="C290" t="s">
         <v>698</v>
       </c>
-      <c r="D290" t="s">
-        <v>699</v>
-      </c>
       <c r="E290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:5">
       <c r="A291" t="s">
+        <v>699</v>
+      </c>
+      <c r="B291" t="s">
         <v>700</v>
       </c>
-      <c r="B291" t="s">
+      <c r="C291" t="s">
         <v>701</v>
       </c>
-      <c r="C291" t="s">
+      <c r="D291" t="s">
         <v>702</v>
       </c>
-      <c r="D291" t="s">
-        <v>703</v>
-      </c>
       <c r="E291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:5">
       <c r="A292" t="s">
+        <v>703</v>
+      </c>
+      <c r="B292" t="s">
         <v>704</v>
       </c>
-      <c r="B292" t="s">
+      <c r="C292" t="s">
         <v>705</v>
+      </c>
+      <c r="D292" t="s">
+        <v>706</v>
       </c>
       <c r="E292">
         <v>0</v>
@@ -7175,10 +7193,10 @@
     </row>
     <row r="293" spans="1:5">
       <c r="A293" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B293" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="E293">
         <v>0</v>
@@ -7186,33 +7204,27 @@
     </row>
     <row r="294" spans="1:5">
       <c r="A294" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B294" t="s">
-        <v>709</v>
-      </c>
-      <c r="C294" t="s">
         <v>710</v>
       </c>
-      <c r="D294" t="s">
-        <v>711</v>
-      </c>
       <c r="E294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:5">
       <c r="A295" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="B295" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="C295" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D295" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="E295">
         <v>1</v>
@@ -7220,16 +7232,16 @@
     </row>
     <row r="296" spans="1:5">
       <c r="A296" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="B296" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="C296" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D296" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="E296">
         <v>1</v>
@@ -7237,16 +7249,16 @@
     </row>
     <row r="297" spans="1:5">
       <c r="A297" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="B297" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="C297" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="D297" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="E297">
         <v>1</v>
@@ -7254,21 +7266,27 @@
     </row>
     <row r="298" spans="1:5">
       <c r="A298" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="B298" t="s">
+        <v>712</v>
+      </c>
+      <c r="C298" t="s">
         <v>719</v>
       </c>
+      <c r="D298" t="s">
+        <v>720</v>
+      </c>
       <c r="E298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:5">
       <c r="A299" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B299" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="E299">
         <v>0</v>
@@ -7276,10 +7294,10 @@
     </row>
     <row r="300" spans="1:5">
       <c r="A300" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B300" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="E300">
         <v>0</v>
@@ -7287,10 +7305,10 @@
     </row>
     <row r="301" spans="1:5">
       <c r="A301" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B301" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="E301">
         <v>0</v>
@@ -7298,52 +7316,52 @@
     </row>
     <row r="302" spans="1:5">
       <c r="A302" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B302" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="E302">
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:6">
+    <row r="303" spans="1:5">
       <c r="A303" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B303" t="s">
-        <v>729</v>
-      </c>
-      <c r="C303" t="s">
         <v>730</v>
       </c>
-      <c r="D303" t="s">
+      <c r="E303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
+      <c r="A304" t="s">
         <v>731</v>
       </c>
-      <c r="E303">
+      <c r="B304" t="s">
+        <v>732</v>
+      </c>
+      <c r="C304" t="s">
+        <v>733</v>
+      </c>
+      <c r="D304" t="s">
+        <v>734</v>
+      </c>
+      <c r="E304">
         <v>1</v>
       </c>
-      <c r="F303" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5">
-      <c r="A304" t="s">
-        <v>733</v>
-      </c>
-      <c r="B304" t="s">
-        <v>734</v>
-      </c>
-      <c r="E304">
-        <v>0</v>
+      <c r="F304" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="305" spans="1:5">
       <c r="A305" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B305" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="E305">
         <v>0</v>
@@ -7351,10 +7369,10 @@
     </row>
     <row r="306" spans="1:5">
       <c r="A306" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B306" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="E306">
         <v>0</v>
@@ -7362,10 +7380,10 @@
     </row>
     <row r="307" spans="1:5">
       <c r="A307" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B307" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="E307">
         <v>0</v>
@@ -7373,16 +7391,10 @@
     </row>
     <row r="308" spans="1:5">
       <c r="A308" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B308" t="s">
-        <v>742</v>
-      </c>
-      <c r="C308" t="s">
         <v>743</v>
-      </c>
-      <c r="D308" t="s">
-        <v>744</v>
       </c>
       <c r="E308">
         <v>0</v>
@@ -7390,16 +7402,16 @@
     </row>
     <row r="309" spans="1:5">
       <c r="A309" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="B309" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="C309" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D309" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="E309">
         <v>0</v>
@@ -7407,16 +7419,16 @@
     </row>
     <row r="310" spans="1:5">
       <c r="A310" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="B310" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="C310" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D310" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="E310">
         <v>0</v>
@@ -7424,18 +7436,35 @@
     </row>
     <row r="311" spans="1:5">
       <c r="A311" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="B311" t="s">
+        <v>745</v>
+      </c>
+      <c r="C311" t="s">
         <v>750</v>
       </c>
+      <c r="D311" t="s">
+        <v>751</v>
+      </c>
       <c r="E311">
         <v>0</v>
       </c>
     </row>
+    <row r="312" spans="1:5">
+      <c r="A312" t="s">
+        <v>752</v>
+      </c>
+      <c r="B312" t="s">
+        <v>753</v>
+      </c>
+      <c r="E312">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F311">
-    <sortState ref="A2:F311">
+  <autoFilter ref="A1:F312">
+    <sortState ref="A2:F312">
       <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>

--- a/read_the_world.xlsx
+++ b/read_the_world.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$312</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$314</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758">
   <si>
     <t>Code</t>
   </si>
@@ -652,6 +652,12 @@
     <t>Paulo Coelho</t>
   </si>
   <si>
+    <t>Living Well Is the Best Revenge</t>
+  </si>
+  <si>
+    <t>Calvin Tomkins</t>
+  </si>
+  <si>
     <t>GF</t>
   </si>
   <si>
@@ -1088,6 +1094,12 @@
   </si>
   <si>
     <t>John Henry Patterson</t>
+  </si>
+  <si>
+    <t>One Day I Will Write About This Place: A Memoir</t>
+  </si>
+  <si>
+    <t>Binyavanga Wainaina</t>
   </si>
   <si>
     <t>KI</t>
@@ -2286,10 +2298,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -2307,6 +2319,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -2314,34 +2341,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2361,23 +2364,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2390,6 +2385,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2405,26 +2416,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2436,16 +2440,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2460,13 +2472,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2478,7 +2520,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2496,7 +2538,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2508,19 +2568,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2536,114 +2656,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -2651,39 +2663,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2717,6 +2696,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2735,6 +2725,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -2743,11 +2757,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2756,148 +2768,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3225,12 +3237,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G312"/>
+  <dimension ref="A1:G314"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G196" sqref="G196"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -4387,9 +4399,15 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
+        <v>203</v>
+      </c>
+      <c r="B88" t="s">
+        <v>204</v>
+      </c>
+      <c r="C88" t="s">
         <v>211</v>
       </c>
-      <c r="B88" t="s">
+      <c r="D88" t="s">
         <v>212</v>
       </c>
       <c r="E88">
@@ -4458,22 +4476,16 @@
       <c r="B94" t="s">
         <v>224</v>
       </c>
-      <c r="C94" t="s">
-        <v>225</v>
-      </c>
-      <c r="D94" t="s">
-        <v>226</v>
-      </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B95" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C95" t="s">
         <v>227</v>
@@ -4487,10 +4499,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B96" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C96" t="s">
         <v>229</v>
@@ -4499,21 +4511,21 @@
         <v>230</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
+        <v>225</v>
+      </c>
+      <c r="B97" t="s">
+        <v>226</v>
+      </c>
+      <c r="C97" t="s">
         <v>231</v>
       </c>
-      <c r="B97" t="s">
+      <c r="D97" t="s">
         <v>232</v>
-      </c>
-      <c r="C97" t="s">
-        <v>233</v>
-      </c>
-      <c r="D97" t="s">
-        <v>234</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -4521,10 +4533,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B98" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C98" t="s">
         <v>235</v>
@@ -4538,10 +4550,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B99" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C99" t="s">
         <v>237</v>
@@ -4555,10 +4567,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B100" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C100" t="s">
         <v>239</v>
@@ -4572,10 +4584,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B101" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C101" t="s">
         <v>241</v>
@@ -4584,18 +4596,24 @@
         <v>242</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
+        <v>233</v>
+      </c>
+      <c r="B102" t="s">
+        <v>234</v>
+      </c>
+      <c r="C102" t="s">
         <v>243</v>
       </c>
-      <c r="B102" t="s">
+      <c r="D102" t="s">
         <v>244</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4605,22 +4623,16 @@
       <c r="B103" t="s">
         <v>246</v>
       </c>
-      <c r="C103" t="s">
-        <v>247</v>
-      </c>
-      <c r="D103" t="s">
-        <v>248</v>
-      </c>
       <c r="E103">
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B104" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C104" t="s">
         <v>249</v>
@@ -4634,9 +4646,15 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
+        <v>247</v>
+      </c>
+      <c r="B105" t="s">
+        <v>248</v>
+      </c>
+      <c r="C105" t="s">
         <v>251</v>
       </c>
-      <c r="B105" t="s">
+      <c r="D105" t="s">
         <v>252</v>
       </c>
       <c r="E105">
@@ -4705,25 +4723,25 @@
       <c r="B111" t="s">
         <v>264</v>
       </c>
-      <c r="C111" t="s">
-        <v>265</v>
-      </c>
-      <c r="D111" t="s">
-        <v>266</v>
-      </c>
       <c r="E111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
+        <v>265</v>
+      </c>
+      <c r="B112" t="s">
+        <v>266</v>
+      </c>
+      <c r="C112" t="s">
         <v>267</v>
       </c>
-      <c r="B112" t="s">
+      <c r="D112" t="s">
         <v>268</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4744,21 +4762,21 @@
       <c r="B114" t="s">
         <v>272</v>
       </c>
-      <c r="C114" t="s">
-        <v>273</v>
-      </c>
-      <c r="D114" t="s">
-        <v>274</v>
-      </c>
       <c r="E114">
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
+        <v>273</v>
+      </c>
+      <c r="B115" t="s">
+        <v>274</v>
+      </c>
+      <c r="C115" t="s">
         <v>275</v>
       </c>
-      <c r="B115" t="s">
+      <c r="D115" t="s">
         <v>276</v>
       </c>
       <c r="E115">
@@ -4805,39 +4823,33 @@
       <c r="B119" t="s">
         <v>284</v>
       </c>
-      <c r="C119" t="s">
-        <v>285</v>
-      </c>
-      <c r="D119" t="s">
-        <v>286</v>
-      </c>
       <c r="E119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
+        <v>285</v>
+      </c>
+      <c r="B120" t="s">
+        <v>286</v>
+      </c>
+      <c r="C120" t="s">
         <v>287</v>
       </c>
-      <c r="B120" t="s">
+      <c r="D120" t="s">
         <v>288</v>
       </c>
-      <c r="C120" t="s">
-        <v>289</v>
-      </c>
-      <c r="D120" t="s">
-        <v>290</v>
-      </c>
       <c r="E120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B121" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C121" t="s">
         <v>291</v>
@@ -4851,10 +4863,10 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B122" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C122" t="s">
         <v>293</v>
@@ -4868,10 +4880,10 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B123" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C123" t="s">
         <v>295</v>
@@ -4885,10 +4897,10 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B124" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C124" t="s">
         <v>297</v>
@@ -4897,18 +4909,24 @@
         <v>298</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
+        <v>289</v>
+      </c>
+      <c r="B125" t="s">
+        <v>290</v>
+      </c>
+      <c r="C125" t="s">
         <v>299</v>
       </c>
-      <c r="B125" t="s">
+      <c r="D125" t="s">
         <v>300</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -4918,25 +4936,25 @@
       <c r="B126" t="s">
         <v>302</v>
       </c>
-      <c r="C126" t="s">
-        <v>303</v>
-      </c>
-      <c r="D126" t="s">
-        <v>304</v>
-      </c>
       <c r="E126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
+        <v>303</v>
+      </c>
+      <c r="B127" t="s">
+        <v>304</v>
+      </c>
+      <c r="C127" t="s">
         <v>305</v>
       </c>
-      <c r="B127" t="s">
+      <c r="D127" t="s">
         <v>306</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -4946,28 +4964,22 @@
       <c r="B128" t="s">
         <v>308</v>
       </c>
-      <c r="C128" t="s">
-        <v>309</v>
-      </c>
-      <c r="D128" t="s">
-        <v>310</v>
-      </c>
       <c r="E128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B129" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C129" t="s">
         <v>311</v>
       </c>
       <c r="D129" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E129">
         <v>1</v>
@@ -4975,81 +4987,81 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B130" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C130" t="s">
+        <v>313</v>
+      </c>
+      <c r="D130" t="s">
         <v>312</v>
       </c>
-      <c r="D130" t="s">
-        <v>313</v>
-      </c>
       <c r="E130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
+        <v>309</v>
+      </c>
+      <c r="B131" t="s">
+        <v>310</v>
+      </c>
+      <c r="C131" t="s">
         <v>314</v>
       </c>
-      <c r="B131" t="s">
+      <c r="D131" t="s">
         <v>315</v>
       </c>
       <c r="E131">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:5">
       <c r="A132" t="s">
         <v>316</v>
       </c>
       <c r="B132" t="s">
         <v>317</v>
       </c>
-      <c r="C132" t="s">
+      <c r="E132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" t="s">
         <v>318</v>
       </c>
-      <c r="D132" t="s">
+      <c r="B133" t="s">
         <v>319</v>
       </c>
-      <c r="E132">
-        <v>0</v>
-      </c>
-      <c r="F132" t="s">
+      <c r="C133" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="A133" t="s">
-        <v>316</v>
-      </c>
-      <c r="B133" t="s">
-        <v>317</v>
-      </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
         <v>321</v>
       </c>
-      <c r="D133" t="s">
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133" t="s">
         <v>322</v>
-      </c>
-      <c r="E133">
-        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
+        <v>318</v>
+      </c>
+      <c r="B134" t="s">
+        <v>319</v>
+      </c>
+      <c r="C134" t="s">
         <v>323</v>
       </c>
-      <c r="B134" t="s">
+      <c r="D134" t="s">
         <v>324</v>
-      </c>
-      <c r="C134" t="s">
-        <v>325</v>
-      </c>
-      <c r="D134" t="s">
-        <v>326</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -5057,9 +5069,15 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
+        <v>325</v>
+      </c>
+      <c r="B135" t="s">
+        <v>326</v>
+      </c>
+      <c r="C135" t="s">
         <v>327</v>
       </c>
-      <c r="B135" t="s">
+      <c r="D135" t="s">
         <v>328</v>
       </c>
       <c r="E135">
@@ -5084,22 +5102,16 @@
       <c r="B137" t="s">
         <v>332</v>
       </c>
-      <c r="C137" t="s">
-        <v>333</v>
-      </c>
-      <c r="D137" t="s">
-        <v>334</v>
-      </c>
       <c r="E137">
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B138" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C138" t="s">
         <v>335</v>
@@ -5108,15 +5120,15 @@
         <v>336</v>
       </c>
       <c r="E138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B139" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C139" t="s">
         <v>337</v>
@@ -5130,13 +5142,19 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
+        <v>333</v>
+      </c>
+      <c r="B140" t="s">
+        <v>334</v>
+      </c>
+      <c r="C140" t="s">
         <v>339</v>
       </c>
-      <c r="B140" t="s">
+      <c r="D140" t="s">
         <v>340</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -5168,22 +5186,16 @@
       <c r="B143" t="s">
         <v>346</v>
       </c>
-      <c r="C143" t="s">
-        <v>347</v>
-      </c>
-      <c r="D143" t="s">
-        <v>348</v>
-      </c>
       <c r="E143">
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B144" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C144" t="s">
         <v>349</v>
@@ -5197,10 +5209,10 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B145" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C145" t="s">
         <v>351</v>
@@ -5209,15 +5221,15 @@
         <v>352</v>
       </c>
       <c r="E145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B146" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C146" t="s">
         <v>353</v>
@@ -5231,10 +5243,10 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B147" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C147" t="s">
         <v>355</v>
@@ -5248,24 +5260,36 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
+        <v>347</v>
+      </c>
+      <c r="B148" t="s">
+        <v>348</v>
+      </c>
+      <c r="C148" t="s">
         <v>357</v>
       </c>
-      <c r="B148" t="s">
+      <c r="D148" t="s">
         <v>358</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
+        <v>347</v>
+      </c>
+      <c r="B149" t="s">
+        <v>348</v>
+      </c>
+      <c r="C149" t="s">
         <v>359</v>
       </c>
-      <c r="B149" t="s">
+      <c r="D149" t="s">
         <v>360</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -5312,7 +5336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" ht="16.8" spans="1:7">
+    <row r="154" spans="1:5">
       <c r="A154" t="s">
         <v>369</v>
       </c>
@@ -5322,9 +5346,8 @@
       <c r="E154">
         <v>0</v>
       </c>
-      <c r="G154" s="1"/>
-    </row>
-    <row r="155" ht="16.8" spans="1:7">
+    </row>
+    <row r="155" spans="1:5">
       <c r="A155" t="s">
         <v>371</v>
       </c>
@@ -5334,45 +5357,46 @@
       <c r="E155">
         <v>0</v>
       </c>
-      <c r="G155" s="1"/>
-    </row>
-    <row r="156" spans="1:5">
+    </row>
+    <row r="156" ht="16.8" spans="1:7">
       <c r="A156" t="s">
         <v>373</v>
       </c>
       <c r="B156" t="s">
         <v>374</v>
       </c>
-      <c r="C156" t="s">
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="G156" s="1"/>
+    </row>
+    <row r="157" ht="16.8" spans="1:7">
+      <c r="A157" t="s">
         <v>375</v>
       </c>
-      <c r="D156" t="s">
+      <c r="B157" t="s">
         <v>376</v>
       </c>
-      <c r="E156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
-      <c r="A157" t="s">
-        <v>377</v>
-      </c>
-      <c r="B157" t="s">
-        <v>378</v>
-      </c>
       <c r="E157">
         <v>0</v>
       </c>
+      <c r="G157" s="1"/>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
+        <v>377</v>
+      </c>
+      <c r="B158" t="s">
+        <v>378</v>
+      </c>
+      <c r="C158" t="s">
         <v>379</v>
       </c>
-      <c r="B158" t="s">
+      <c r="D158" t="s">
         <v>380</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -5448,101 +5472,101 @@
       <c r="B165" t="s">
         <v>394</v>
       </c>
-      <c r="C165" t="s">
-        <v>395</v>
-      </c>
-      <c r="D165" t="s">
-        <v>396</v>
-      </c>
       <c r="E165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B166" t="s">
-        <v>394</v>
-      </c>
-      <c r="C166" t="s">
-        <v>397</v>
-      </c>
-      <c r="D166" t="s">
         <v>396</v>
       </c>
       <c r="E166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="s">
+        <v>397</v>
+      </c>
+      <c r="B167" t="s">
         <v>398</v>
       </c>
-      <c r="B167" t="s">
+      <c r="C167" t="s">
         <v>399</v>
       </c>
+      <c r="D167" t="s">
+        <v>400</v>
+      </c>
       <c r="E167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" t="s">
+        <v>397</v>
+      </c>
+      <c r="B168" t="s">
+        <v>398</v>
+      </c>
+      <c r="C168" t="s">
+        <v>401</v>
+      </c>
+      <c r="D168" t="s">
         <v>400</v>
       </c>
-      <c r="B168" t="s">
-        <v>401</v>
-      </c>
-      <c r="C168" t="s">
+      <c r="E168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" t="s">
         <v>402</v>
       </c>
-      <c r="D168" t="s">
+      <c r="B169" t="s">
         <v>403</v>
       </c>
-      <c r="E168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
-      <c r="A169" t="s">
-        <v>400</v>
-      </c>
-      <c r="B169" t="s">
-        <v>401</v>
-      </c>
-      <c r="C169" t="s">
-        <v>404</v>
-      </c>
-      <c r="D169" t="s">
-        <v>405</v>
-      </c>
       <c r="E169">
-        <v>1</v>
-      </c>
-      <c r="F169" t="s">
-        <v>406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
+        <v>404</v>
+      </c>
+      <c r="B170" t="s">
+        <v>405</v>
+      </c>
+      <c r="C170" t="s">
+        <v>406</v>
+      </c>
+      <c r="D170" t="s">
         <v>407</v>
       </c>
-      <c r="B170" t="s">
+      <c r="E170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" t="s">
+        <v>404</v>
+      </c>
+      <c r="B171" t="s">
+        <v>405</v>
+      </c>
+      <c r="C171" t="s">
         <v>408</v>
       </c>
-      <c r="E170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
-      <c r="A171" t="s">
+      <c r="D171" t="s">
         <v>409</v>
       </c>
-      <c r="B171" t="s">
+      <c r="E171">
+        <v>1</v>
+      </c>
+      <c r="F171" t="s">
         <v>410</v>
-      </c>
-      <c r="E171">
-        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -5596,22 +5620,16 @@
       <c r="B176" t="s">
         <v>420</v>
       </c>
-      <c r="C176" t="s">
-        <v>421</v>
-      </c>
-      <c r="D176" t="s">
-        <v>422</v>
-      </c>
       <c r="E176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B177" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E177">
         <v>0</v>
@@ -5619,13 +5637,19 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="s">
+        <v>423</v>
+      </c>
+      <c r="B178" t="s">
+        <v>424</v>
+      </c>
+      <c r="C178" t="s">
         <v>425</v>
       </c>
-      <c r="B178" t="s">
+      <c r="D178" t="s">
         <v>426</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -5690,22 +5714,16 @@
       <c r="B184" t="s">
         <v>438</v>
       </c>
-      <c r="C184" t="s">
-        <v>439</v>
-      </c>
-      <c r="D184" t="s">
-        <v>440</v>
-      </c>
       <c r="E184">
         <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B185" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E185">
         <v>0</v>
@@ -5713,9 +5731,15 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" t="s">
+        <v>441</v>
+      </c>
+      <c r="B186" t="s">
+        <v>442</v>
+      </c>
+      <c r="C186" t="s">
         <v>443</v>
       </c>
-      <c r="B186" t="s">
+      <c r="D186" t="s">
         <v>444</v>
       </c>
       <c r="E186">
@@ -5751,22 +5775,16 @@
       <c r="B189" t="s">
         <v>450</v>
       </c>
-      <c r="C189" t="s">
-        <v>451</v>
-      </c>
-      <c r="D189" t="s">
-        <v>452</v>
-      </c>
       <c r="E189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B190" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E190">
         <v>0</v>
@@ -5774,13 +5792,19 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" t="s">
+        <v>453</v>
+      </c>
+      <c r="B191" t="s">
+        <v>454</v>
+      </c>
+      <c r="C191" t="s">
         <v>455</v>
       </c>
-      <c r="B191" t="s">
+      <c r="D191" t="s">
         <v>456</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -5812,39 +5836,27 @@
       <c r="B194" t="s">
         <v>462</v>
       </c>
-      <c r="C194" t="s">
-        <v>463</v>
-      </c>
-      <c r="D194" t="s">
-        <v>464</v>
-      </c>
       <c r="E194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B195" t="s">
-        <v>462</v>
-      </c>
-      <c r="C195" t="s">
+        <v>464</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" t="s">
         <v>465</v>
       </c>
-      <c r="D195" t="s">
+      <c r="B196" t="s">
         <v>466</v>
-      </c>
-      <c r="E195">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
-      <c r="A196" t="s">
-        <v>461</v>
-      </c>
-      <c r="B196" t="s">
-        <v>462</v>
       </c>
       <c r="C196" t="s">
         <v>467</v>
@@ -5853,45 +5865,57 @@
         <v>468</v>
       </c>
       <c r="E196">
-        <v>0</v>
-      </c>
-      <c r="F196" t="s">
-        <v>469</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="B197" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="C197" t="s">
+        <v>469</v>
+      </c>
+      <c r="D197" t="s">
         <v>470</v>
       </c>
-      <c r="D197" t="s">
+      <c r="E197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" t="s">
+        <v>465</v>
+      </c>
+      <c r="B198" t="s">
+        <v>466</v>
+      </c>
+      <c r="C198" t="s">
         <v>471</v>
       </c>
-      <c r="E197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
-      <c r="A198" t="s">
+      <c r="D198" t="s">
         <v>472</v>
       </c>
-      <c r="B198" t="s">
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198" t="s">
         <v>473</v>
-      </c>
-      <c r="E198">
-        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" t="s">
+        <v>465</v>
+      </c>
+      <c r="B199" t="s">
+        <v>466</v>
+      </c>
+      <c r="C199" t="s">
         <v>474</v>
       </c>
-      <c r="B199" t="s">
+      <c r="D199" t="s">
         <v>475</v>
       </c>
       <c r="E199">
@@ -5905,22 +5929,16 @@
       <c r="B200" t="s">
         <v>477</v>
       </c>
-      <c r="C200" t="s">
-        <v>478</v>
-      </c>
-      <c r="D200" t="s">
-        <v>479</v>
-      </c>
       <c r="E200">
         <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B201" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E201">
         <v>0</v>
@@ -5928,16 +5946,16 @@
     </row>
     <row r="202" spans="1:5">
       <c r="A202" t="s">
+        <v>480</v>
+      </c>
+      <c r="B202" t="s">
+        <v>481</v>
+      </c>
+      <c r="C202" t="s">
         <v>482</v>
       </c>
-      <c r="B202" t="s">
+      <c r="D202" t="s">
         <v>483</v>
-      </c>
-      <c r="C202" t="s">
-        <v>484</v>
-      </c>
-      <c r="D202" t="s">
-        <v>485</v>
       </c>
       <c r="E202">
         <v>0</v>
@@ -5945,47 +5963,44 @@
     </row>
     <row r="203" spans="1:5">
       <c r="A203" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B203" t="s">
-        <v>483</v>
-      </c>
-      <c r="C203" t="s">
+        <v>485</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" t="s">
         <v>486</v>
       </c>
-      <c r="D203" t="s">
-        <v>485</v>
-      </c>
-      <c r="E203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6">
-      <c r="A204" t="s">
-        <v>482</v>
-      </c>
       <c r="B204" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="C204" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D204" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E204">
         <v>0</v>
-      </c>
-      <c r="F204" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" t="s">
+        <v>486</v>
+      </c>
+      <c r="B205" t="s">
+        <v>487</v>
+      </c>
+      <c r="C205" t="s">
         <v>490</v>
       </c>
-      <c r="B205" t="s">
-        <v>491</v>
+      <c r="D205" t="s">
+        <v>489</v>
       </c>
       <c r="E205">
         <v>0</v>
@@ -5993,44 +6008,53 @@
     </row>
     <row r="206" spans="1:6">
       <c r="A206" t="s">
+        <v>486</v>
+      </c>
+      <c r="B206" t="s">
+        <v>487</v>
+      </c>
+      <c r="C206" t="s">
+        <v>491</v>
+      </c>
+      <c r="D206" t="s">
         <v>492</v>
       </c>
-      <c r="B206" t="s">
+      <c r="E206">
+        <v>0</v>
+      </c>
+      <c r="F206" t="s">
         <v>493</v>
-      </c>
-      <c r="C206" t="s">
-        <v>494</v>
-      </c>
-      <c r="D206" t="s">
-        <v>495</v>
-      </c>
-      <c r="E206">
-        <v>0</v>
-      </c>
-      <c r="F206" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" t="s">
+        <v>494</v>
+      </c>
+      <c r="B207" t="s">
+        <v>495</v>
+      </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" t="s">
+        <v>496</v>
+      </c>
+      <c r="B208" t="s">
         <v>497</v>
       </c>
-      <c r="B207" t="s">
+      <c r="C208" t="s">
         <v>498</v>
       </c>
-      <c r="E207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5">
-      <c r="A208" t="s">
+      <c r="D208" t="s">
         <v>499</v>
       </c>
-      <c r="B208" t="s">
+      <c r="E208">
+        <v>0</v>
+      </c>
+      <c r="F208" t="s">
         <v>500</v>
-      </c>
-      <c r="E208">
-        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -6051,22 +6075,16 @@
       <c r="B210" t="s">
         <v>504</v>
       </c>
-      <c r="C210" t="s">
-        <v>505</v>
-      </c>
-      <c r="D210" t="s">
-        <v>506</v>
-      </c>
       <c r="E210">
         <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B211" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E211">
         <v>0</v>
@@ -6074,27 +6092,27 @@
     </row>
     <row r="212" spans="1:5">
       <c r="A212" t="s">
+        <v>507</v>
+      </c>
+      <c r="B212" t="s">
+        <v>508</v>
+      </c>
+      <c r="C212" t="s">
         <v>509</v>
       </c>
-      <c r="B212" t="s">
+      <c r="D212" t="s">
         <v>510</v>
       </c>
-      <c r="C212" t="s">
-        <v>511</v>
-      </c>
-      <c r="D212" t="s">
-        <v>512</v>
-      </c>
       <c r="E212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B213" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E213">
         <v>0</v>
@@ -6102,13 +6120,19 @@
     </row>
     <row r="214" spans="1:5">
       <c r="A214" t="s">
+        <v>513</v>
+      </c>
+      <c r="B214" t="s">
+        <v>514</v>
+      </c>
+      <c r="C214" t="s">
         <v>515</v>
       </c>
-      <c r="B214" t="s">
+      <c r="D214" t="s">
         <v>516</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -6118,38 +6142,32 @@
       <c r="B215" t="s">
         <v>518</v>
       </c>
-      <c r="C215" t="s">
-        <v>519</v>
-      </c>
-      <c r="D215" t="s">
-        <v>520</v>
-      </c>
       <c r="E215">
         <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B216" t="s">
-        <v>518</v>
-      </c>
-      <c r="C216" t="s">
-        <v>521</v>
-      </c>
-      <c r="D216" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" t="s">
+        <v>521</v>
+      </c>
+      <c r="B217" t="s">
+        <v>522</v>
+      </c>
+      <c r="C217" t="s">
         <v>523</v>
       </c>
-      <c r="B217" t="s">
+      <c r="D217" t="s">
         <v>524</v>
       </c>
       <c r="E217">
@@ -6158,13 +6176,19 @@
     </row>
     <row r="218" spans="1:5">
       <c r="A218" t="s">
+        <v>521</v>
+      </c>
+      <c r="B218" t="s">
+        <v>522</v>
+      </c>
+      <c r="C218" t="s">
         <v>525</v>
       </c>
-      <c r="B218" t="s">
+      <c r="D218" t="s">
         <v>526</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -6207,28 +6231,16 @@
       <c r="B222" t="s">
         <v>534</v>
       </c>
-      <c r="C222" t="s">
-        <v>535</v>
-      </c>
-      <c r="D222" t="s">
-        <v>536</v>
-      </c>
       <c r="E222">
         <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B223" t="s">
-        <v>534</v>
-      </c>
-      <c r="C223" t="s">
-        <v>537</v>
-      </c>
-      <c r="D223" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E223">
         <v>0</v>
@@ -6236,10 +6248,10 @@
     </row>
     <row r="224" spans="1:5">
       <c r="A224" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="B224" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="C224" t="s">
         <v>539</v>
@@ -6253,33 +6265,33 @@
     </row>
     <row r="225" spans="1:5">
       <c r="A225" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="B225" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="C225" t="s">
         <v>541</v>
       </c>
       <c r="D225" t="s">
-        <v>210</v>
+        <v>542</v>
       </c>
       <c r="E225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="B226" t="s">
+        <v>538</v>
+      </c>
+      <c r="C226" t="s">
         <v>543</v>
       </c>
-      <c r="C226" t="s">
+      <c r="D226" t="s">
         <v>544</v>
-      </c>
-      <c r="D226" t="s">
-        <v>545</v>
       </c>
       <c r="E226">
         <v>0</v>
@@ -6287,20 +6299,32 @@
     </row>
     <row r="227" spans="1:5">
       <c r="A227" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="B227" t="s">
-        <v>547</v>
+        <v>538</v>
+      </c>
+      <c r="C227" t="s">
+        <v>545</v>
+      </c>
+      <c r="D227" t="s">
+        <v>210</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" t="s">
+        <v>546</v>
+      </c>
+      <c r="B228" t="s">
+        <v>547</v>
+      </c>
+      <c r="C228" t="s">
         <v>548</v>
       </c>
-      <c r="B228" t="s">
+      <c r="D228" t="s">
         <v>549</v>
       </c>
       <c r="E228">
@@ -6413,22 +6437,16 @@
       <c r="B238" t="s">
         <v>569</v>
       </c>
-      <c r="C238" t="s">
-        <v>570</v>
-      </c>
-      <c r="D238" t="s">
-        <v>571</v>
-      </c>
       <c r="E238">
         <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B239" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E239">
         <v>0</v>
@@ -6436,9 +6454,15 @@
     </row>
     <row r="240" spans="1:5">
       <c r="A240" t="s">
+        <v>572</v>
+      </c>
+      <c r="B240" t="s">
+        <v>573</v>
+      </c>
+      <c r="C240" t="s">
         <v>574</v>
       </c>
-      <c r="B240" t="s">
+      <c r="D240" t="s">
         <v>575</v>
       </c>
       <c r="E240">
@@ -6452,28 +6476,16 @@
       <c r="B241" t="s">
         <v>577</v>
       </c>
-      <c r="C241" t="s">
-        <v>578</v>
-      </c>
-      <c r="D241" t="s">
-        <v>579</v>
-      </c>
       <c r="E241">
         <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B242" t="s">
-        <v>581</v>
-      </c>
-      <c r="C242" t="s">
-        <v>582</v>
-      </c>
-      <c r="D242" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="E242">
         <v>0</v>
@@ -6481,10 +6493,16 @@
     </row>
     <row r="243" spans="1:5">
       <c r="A243" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B243" t="s">
-        <v>585</v>
+        <v>581</v>
+      </c>
+      <c r="C243" t="s">
+        <v>582</v>
+      </c>
+      <c r="D243" t="s">
+        <v>583</v>
       </c>
       <c r="E243">
         <v>0</v>
@@ -6492,9 +6510,15 @@
     </row>
     <row r="244" spans="1:5">
       <c r="A244" t="s">
+        <v>584</v>
+      </c>
+      <c r="B244" t="s">
+        <v>585</v>
+      </c>
+      <c r="C244" t="s">
         <v>586</v>
       </c>
-      <c r="B244" t="s">
+      <c r="D244" t="s">
         <v>587</v>
       </c>
       <c r="E244">
@@ -6530,28 +6554,16 @@
       <c r="B247" t="s">
         <v>593</v>
       </c>
-      <c r="C247" t="s">
-        <v>594</v>
-      </c>
-      <c r="D247" t="s">
-        <v>595</v>
-      </c>
       <c r="E247">
         <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B248" t="s">
-        <v>593</v>
-      </c>
-      <c r="C248" t="s">
-        <v>596</v>
-      </c>
-      <c r="D248" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E248">
         <v>0</v>
@@ -6559,16 +6571,16 @@
     </row>
     <row r="249" spans="1:5">
       <c r="A249" t="s">
+        <v>596</v>
+      </c>
+      <c r="B249" t="s">
+        <v>597</v>
+      </c>
+      <c r="C249" t="s">
         <v>598</v>
       </c>
-      <c r="B249" t="s">
+      <c r="D249" t="s">
         <v>599</v>
-      </c>
-      <c r="C249" t="s">
-        <v>600</v>
-      </c>
-      <c r="D249" t="s">
-        <v>601</v>
       </c>
       <c r="E249">
         <v>0</v>
@@ -6576,16 +6588,16 @@
     </row>
     <row r="250" spans="1:5">
       <c r="A250" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B250" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C250" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D250" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E250">
         <v>0</v>
@@ -6593,10 +6605,10 @@
     </row>
     <row r="251" spans="1:5">
       <c r="A251" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="B251" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="C251" t="s">
         <v>604</v>
@@ -6605,14 +6617,20 @@
         <v>605</v>
       </c>
       <c r="E251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" t="s">
+        <v>602</v>
+      </c>
+      <c r="B252" t="s">
+        <v>603</v>
+      </c>
+      <c r="C252" t="s">
         <v>606</v>
       </c>
-      <c r="B252" t="s">
+      <c r="D252" t="s">
         <v>607</v>
       </c>
       <c r="E252">
@@ -6621,13 +6639,19 @@
     </row>
     <row r="253" spans="1:5">
       <c r="A253" t="s">
+        <v>602</v>
+      </c>
+      <c r="B253" t="s">
+        <v>603</v>
+      </c>
+      <c r="C253" t="s">
         <v>608</v>
       </c>
-      <c r="B253" t="s">
+      <c r="D253" t="s">
         <v>609</v>
       </c>
       <c r="E253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -6637,28 +6661,16 @@
       <c r="B254" t="s">
         <v>611</v>
       </c>
-      <c r="C254" t="s">
-        <v>612</v>
-      </c>
-      <c r="D254" t="s">
-        <v>613</v>
-      </c>
       <c r="E254">
         <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:5">
       <c r="A255" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B255" t="s">
-        <v>615</v>
-      </c>
-      <c r="C255" t="s">
-        <v>616</v>
-      </c>
-      <c r="D255" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="E255">
         <v>0</v>
@@ -6672,10 +6684,10 @@
         <v>615</v>
       </c>
       <c r="C256" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D256" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E256">
         <v>0</v>
@@ -6683,10 +6695,10 @@
     </row>
     <row r="257" spans="1:5">
       <c r="A257" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="B257" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="C257" t="s">
         <v>620</v>
@@ -6700,10 +6712,10 @@
     </row>
     <row r="258" spans="1:5">
       <c r="A258" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="B258" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="C258" t="s">
         <v>622</v>
@@ -6717,10 +6729,10 @@
     </row>
     <row r="259" spans="1:5">
       <c r="A259" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="B259" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="C259" t="s">
         <v>624</v>
@@ -6734,10 +6746,10 @@
     </row>
     <row r="260" spans="1:5">
       <c r="A260" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="B260" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="C260" t="s">
         <v>626</v>
@@ -6751,9 +6763,15 @@
     </row>
     <row r="261" spans="1:5">
       <c r="A261" t="s">
+        <v>618</v>
+      </c>
+      <c r="B261" t="s">
+        <v>619</v>
+      </c>
+      <c r="C261" t="s">
         <v>628</v>
       </c>
-      <c r="B261" t="s">
+      <c r="D261" t="s">
         <v>629</v>
       </c>
       <c r="E261">
@@ -6762,16 +6780,16 @@
     </row>
     <row r="262" spans="1:5">
       <c r="A262" t="s">
+        <v>618</v>
+      </c>
+      <c r="B262" t="s">
+        <v>619</v>
+      </c>
+      <c r="C262" t="s">
         <v>630</v>
       </c>
-      <c r="B262" t="s">
+      <c r="D262" t="s">
         <v>631</v>
-      </c>
-      <c r="C262" t="s">
-        <v>632</v>
-      </c>
-      <c r="D262" t="s">
-        <v>633</v>
       </c>
       <c r="E262">
         <v>0</v>
@@ -6779,10 +6797,10 @@
     </row>
     <row r="263" spans="1:5">
       <c r="A263" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B263" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E263">
         <v>0</v>
@@ -6790,9 +6808,15 @@
     </row>
     <row r="264" spans="1:5">
       <c r="A264" t="s">
+        <v>634</v>
+      </c>
+      <c r="B264" t="s">
+        <v>635</v>
+      </c>
+      <c r="C264" t="s">
         <v>636</v>
       </c>
-      <c r="B264" t="s">
+      <c r="D264" t="s">
         <v>637</v>
       </c>
       <c r="E264">
@@ -6817,27 +6841,15 @@
       <c r="B266" t="s">
         <v>641</v>
       </c>
-      <c r="C266" t="s">
-        <v>642</v>
-      </c>
-      <c r="D266" t="s">
-        <v>643</v>
-      </c>
       <c r="E266">
         <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:5">
       <c r="A267" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B267" t="s">
-        <v>641</v>
-      </c>
-      <c r="C267" t="s">
-        <v>644</v>
-      </c>
-      <c r="D267" t="s">
         <v>643</v>
       </c>
       <c r="E267">
@@ -6846,16 +6858,16 @@
     </row>
     <row r="268" spans="1:5">
       <c r="A268" t="s">
+        <v>644</v>
+      </c>
+      <c r="B268" t="s">
         <v>645</v>
       </c>
-      <c r="B268" t="s">
+      <c r="C268" t="s">
         <v>646</v>
       </c>
-      <c r="C268" t="s">
+      <c r="D268" t="s">
         <v>647</v>
-      </c>
-      <c r="D268" t="s">
-        <v>648</v>
       </c>
       <c r="E268">
         <v>0</v>
@@ -6863,16 +6875,16 @@
     </row>
     <row r="269" spans="1:5">
       <c r="A269" t="s">
+        <v>644</v>
+      </c>
+      <c r="B269" t="s">
         <v>645</v>
       </c>
-      <c r="B269" t="s">
-        <v>646</v>
-      </c>
       <c r="C269" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D269" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="E269">
         <v>0</v>
@@ -6880,16 +6892,16 @@
     </row>
     <row r="270" spans="1:5">
       <c r="A270" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="B270" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="C270" t="s">
         <v>651</v>
       </c>
       <c r="D270" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="E270">
         <v>0</v>
@@ -6897,16 +6909,16 @@
     </row>
     <row r="271" spans="1:5">
       <c r="A271" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B271" t="s">
+        <v>650</v>
+      </c>
+      <c r="C271" t="s">
         <v>653</v>
       </c>
-      <c r="C271" t="s">
+      <c r="D271" t="s">
         <v>654</v>
-      </c>
-      <c r="D271" t="s">
-        <v>655</v>
       </c>
       <c r="E271">
         <v>0</v>
@@ -6914,10 +6926,16 @@
     </row>
     <row r="272" spans="1:5">
       <c r="A272" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="B272" t="s">
-        <v>657</v>
+        <v>650</v>
+      </c>
+      <c r="C272" t="s">
+        <v>655</v>
+      </c>
+      <c r="D272" t="s">
+        <v>654</v>
       </c>
       <c r="E272">
         <v>0</v>
@@ -6925,9 +6943,15 @@
     </row>
     <row r="273" spans="1:5">
       <c r="A273" t="s">
+        <v>656</v>
+      </c>
+      <c r="B273" t="s">
+        <v>657</v>
+      </c>
+      <c r="C273" t="s">
         <v>658</v>
       </c>
-      <c r="B273" t="s">
+      <c r="D273" t="s">
         <v>659</v>
       </c>
       <c r="E273">
@@ -6952,27 +6976,15 @@
       <c r="B275" t="s">
         <v>663</v>
       </c>
-      <c r="C275" t="s">
-        <v>664</v>
-      </c>
-      <c r="D275" t="s">
-        <v>665</v>
-      </c>
       <c r="E275">
         <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:5">
       <c r="A276" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B276" t="s">
-        <v>663</v>
-      </c>
-      <c r="C276" t="s">
-        <v>666</v>
-      </c>
-      <c r="D276" t="s">
         <v>665</v>
       </c>
       <c r="E276">
@@ -6981,16 +6993,16 @@
     </row>
     <row r="277" spans="1:5">
       <c r="A277" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="B277" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="C277" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D277" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="E277">
         <v>0</v>
@@ -6998,10 +7010,16 @@
     </row>
     <row r="278" spans="1:5">
       <c r="A278" t="s">
+        <v>666</v>
+      </c>
+      <c r="B278" t="s">
+        <v>667</v>
+      </c>
+      <c r="C278" t="s">
+        <v>670</v>
+      </c>
+      <c r="D278" t="s">
         <v>669</v>
-      </c>
-      <c r="B278" t="s">
-        <v>670</v>
       </c>
       <c r="E278">
         <v>0</v>
@@ -7009,9 +7027,15 @@
     </row>
     <row r="279" spans="1:5">
       <c r="A279" t="s">
+        <v>666</v>
+      </c>
+      <c r="B279" t="s">
+        <v>667</v>
+      </c>
+      <c r="C279" t="s">
         <v>671</v>
       </c>
-      <c r="B279" t="s">
+      <c r="D279" t="s">
         <v>672</v>
       </c>
       <c r="E279">
@@ -7047,22 +7071,16 @@
       <c r="B282" t="s">
         <v>678</v>
       </c>
-      <c r="C282" t="s">
-        <v>679</v>
-      </c>
-      <c r="D282" t="s">
-        <v>680</v>
-      </c>
       <c r="E282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:5">
       <c r="A283" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B283" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E283">
         <v>0</v>
@@ -7070,33 +7088,27 @@
     </row>
     <row r="284" spans="1:5">
       <c r="A284" t="s">
+        <v>681</v>
+      </c>
+      <c r="B284" t="s">
+        <v>682</v>
+      </c>
+      <c r="C284" t="s">
         <v>683</v>
       </c>
-      <c r="B284" t="s">
+      <c r="D284" t="s">
         <v>684</v>
       </c>
-      <c r="C284" t="s">
-        <v>685</v>
-      </c>
-      <c r="D284" t="s">
-        <v>686</v>
-      </c>
       <c r="E284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:5">
       <c r="A285" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B285" t="s">
-        <v>684</v>
-      </c>
-      <c r="C285" t="s">
-        <v>687</v>
-      </c>
-      <c r="D285" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E285">
         <v>0</v>
@@ -7104,9 +7116,15 @@
     </row>
     <row r="286" spans="1:5">
       <c r="A286" t="s">
+        <v>687</v>
+      </c>
+      <c r="B286" t="s">
+        <v>688</v>
+      </c>
+      <c r="C286" t="s">
         <v>689</v>
       </c>
-      <c r="B286" t="s">
+      <c r="D286" t="s">
         <v>690</v>
       </c>
       <c r="E286">
@@ -7115,9 +7133,15 @@
     </row>
     <row r="287" spans="1:5">
       <c r="A287" t="s">
+        <v>687</v>
+      </c>
+      <c r="B287" t="s">
+        <v>688</v>
+      </c>
+      <c r="C287" t="s">
         <v>691</v>
       </c>
-      <c r="B287" t="s">
+      <c r="D287" t="s">
         <v>692</v>
       </c>
       <c r="E287">
@@ -7164,28 +7188,16 @@
       <c r="B291" t="s">
         <v>700</v>
       </c>
-      <c r="C291" t="s">
-        <v>701</v>
-      </c>
-      <c r="D291" t="s">
-        <v>702</v>
-      </c>
       <c r="E291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:5">
       <c r="A292" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B292" t="s">
-        <v>704</v>
-      </c>
-      <c r="C292" t="s">
-        <v>705</v>
-      </c>
-      <c r="D292" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="E292">
         <v>0</v>
@@ -7193,20 +7205,32 @@
     </row>
     <row r="293" spans="1:5">
       <c r="A293" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B293" t="s">
-        <v>708</v>
+        <v>704</v>
+      </c>
+      <c r="C293" t="s">
+        <v>705</v>
+      </c>
+      <c r="D293" t="s">
+        <v>706</v>
       </c>
       <c r="E293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:5">
       <c r="A294" t="s">
+        <v>707</v>
+      </c>
+      <c r="B294" t="s">
+        <v>708</v>
+      </c>
+      <c r="C294" t="s">
         <v>709</v>
       </c>
-      <c r="B294" t="s">
+      <c r="D294" t="s">
         <v>710</v>
       </c>
       <c r="E294">
@@ -7220,39 +7244,27 @@
       <c r="B295" t="s">
         <v>712</v>
       </c>
-      <c r="C295" t="s">
-        <v>713</v>
-      </c>
-      <c r="D295" t="s">
-        <v>714</v>
-      </c>
       <c r="E295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:5">
       <c r="A296" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="B296" t="s">
-        <v>712</v>
-      </c>
-      <c r="C296" t="s">
-        <v>715</v>
-      </c>
-      <c r="D296" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:5">
       <c r="A297" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="B297" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="C297" t="s">
         <v>717</v>
@@ -7266,10 +7278,10 @@
     </row>
     <row r="298" spans="1:5">
       <c r="A298" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="B298" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="C298" t="s">
         <v>719</v>
@@ -7283,24 +7295,36 @@
     </row>
     <row r="299" spans="1:5">
       <c r="A299" t="s">
+        <v>715</v>
+      </c>
+      <c r="B299" t="s">
+        <v>716</v>
+      </c>
+      <c r="C299" t="s">
         <v>721</v>
       </c>
-      <c r="B299" t="s">
+      <c r="D299" t="s">
         <v>722</v>
       </c>
       <c r="E299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:5">
       <c r="A300" t="s">
+        <v>715</v>
+      </c>
+      <c r="B300" t="s">
+        <v>716</v>
+      </c>
+      <c r="C300" t="s">
         <v>723</v>
       </c>
-      <c r="B300" t="s">
+      <c r="D300" t="s">
         <v>724</v>
       </c>
       <c r="E300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -7336,46 +7360,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:6">
+    <row r="304" spans="1:5">
       <c r="A304" t="s">
         <v>731</v>
       </c>
       <c r="B304" t="s">
         <v>732</v>
       </c>
-      <c r="C304" t="s">
-        <v>733</v>
-      </c>
-      <c r="D304" t="s">
-        <v>734</v>
-      </c>
       <c r="E304">
-        <v>1</v>
-      </c>
-      <c r="F304" t="s">
-        <v>735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:5">
       <c r="A305" t="s">
+        <v>733</v>
+      </c>
+      <c r="B305" t="s">
+        <v>734</v>
+      </c>
+      <c r="E305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6">
+      <c r="A306" t="s">
+        <v>735</v>
+      </c>
+      <c r="B306" t="s">
         <v>736</v>
       </c>
-      <c r="B305" t="s">
+      <c r="C306" t="s">
         <v>737</v>
       </c>
-      <c r="E305">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5">
-      <c r="A306" t="s">
+      <c r="D306" t="s">
         <v>738</v>
       </c>
-      <c r="B306" t="s">
+      <c r="E306">
+        <v>1</v>
+      </c>
+      <c r="F306" t="s">
         <v>739</v>
-      </c>
-      <c r="E306">
-        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -7407,28 +7431,16 @@
       <c r="B309" t="s">
         <v>745</v>
       </c>
-      <c r="C309" t="s">
-        <v>746</v>
-      </c>
-      <c r="D309" t="s">
-        <v>747</v>
-      </c>
       <c r="E309">
         <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:5">
       <c r="A310" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B310" t="s">
-        <v>745</v>
-      </c>
-      <c r="C310" t="s">
-        <v>748</v>
-      </c>
-      <c r="D310" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E310">
         <v>0</v>
@@ -7436,10 +7448,10 @@
     </row>
     <row r="311" spans="1:5">
       <c r="A311" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="B311" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="C311" t="s">
         <v>750</v>
@@ -7453,18 +7465,52 @@
     </row>
     <row r="312" spans="1:5">
       <c r="A312" t="s">
+        <v>748</v>
+      </c>
+      <c r="B312" t="s">
+        <v>749</v>
+      </c>
+      <c r="C312" t="s">
         <v>752</v>
       </c>
-      <c r="B312" t="s">
+      <c r="D312" t="s">
         <v>753</v>
       </c>
       <c r="E312">
         <v>0</v>
       </c>
     </row>
+    <row r="313" spans="1:5">
+      <c r="A313" t="s">
+        <v>748</v>
+      </c>
+      <c r="B313" t="s">
+        <v>749</v>
+      </c>
+      <c r="C313" t="s">
+        <v>754</v>
+      </c>
+      <c r="D313" t="s">
+        <v>755</v>
+      </c>
+      <c r="E313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" t="s">
+        <v>756</v>
+      </c>
+      <c r="B314" t="s">
+        <v>757</v>
+      </c>
+      <c r="E314">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F312">
-    <sortState ref="A2:F312">
+  <autoFilter ref="A1:F314">
+    <sortState ref="A1:F314">
       <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>

--- a/read_the_world.xlsx
+++ b/read_the_world.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$314</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$315</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760">
   <si>
     <t>Code</t>
   </si>
@@ -1847,6 +1847,12 @@
   </si>
   <si>
     <t>Trevor Noah</t>
+  </si>
+  <si>
+    <t>Long Walk to Freedom</t>
+  </si>
+  <si>
+    <t>Nelson Mandela</t>
   </si>
   <si>
     <t>GS</t>
@@ -3237,12 +3243,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G314"/>
+  <dimension ref="A1:G315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="I249" sqref="I249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -6656,9 +6662,15 @@
     </row>
     <row r="254" spans="1:5">
       <c r="A254" t="s">
+        <v>602</v>
+      </c>
+      <c r="B254" t="s">
+        <v>603</v>
+      </c>
+      <c r="C254" t="s">
         <v>610</v>
       </c>
-      <c r="B254" t="s">
+      <c r="D254" t="s">
         <v>611</v>
       </c>
       <c r="E254">
@@ -6683,28 +6695,22 @@
       <c r="B256" t="s">
         <v>615</v>
       </c>
-      <c r="C256" t="s">
-        <v>616</v>
-      </c>
-      <c r="D256" t="s">
-        <v>617</v>
-      </c>
       <c r="E256">
         <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:5">
       <c r="A257" t="s">
+        <v>616</v>
+      </c>
+      <c r="B257" t="s">
+        <v>617</v>
+      </c>
+      <c r="C257" t="s">
         <v>618</v>
       </c>
-      <c r="B257" t="s">
+      <c r="D257" t="s">
         <v>619</v>
-      </c>
-      <c r="C257" t="s">
-        <v>620</v>
-      </c>
-      <c r="D257" t="s">
-        <v>621</v>
       </c>
       <c r="E257">
         <v>0</v>
@@ -6712,10 +6718,10 @@
     </row>
     <row r="258" spans="1:5">
       <c r="A258" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B258" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C258" t="s">
         <v>622</v>
@@ -6729,10 +6735,10 @@
     </row>
     <row r="259" spans="1:5">
       <c r="A259" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B259" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C259" t="s">
         <v>624</v>
@@ -6746,10 +6752,10 @@
     </row>
     <row r="260" spans="1:5">
       <c r="A260" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B260" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C260" t="s">
         <v>626</v>
@@ -6763,10 +6769,10 @@
     </row>
     <row r="261" spans="1:5">
       <c r="A261" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B261" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C261" t="s">
         <v>628</v>
@@ -6780,10 +6786,10 @@
     </row>
     <row r="262" spans="1:5">
       <c r="A262" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B262" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C262" t="s">
         <v>630</v>
@@ -6797,9 +6803,15 @@
     </row>
     <row r="263" spans="1:5">
       <c r="A263" t="s">
+        <v>620</v>
+      </c>
+      <c r="B263" t="s">
+        <v>621</v>
+      </c>
+      <c r="C263" t="s">
         <v>632</v>
       </c>
-      <c r="B263" t="s">
+      <c r="D263" t="s">
         <v>633</v>
       </c>
       <c r="E263">
@@ -6813,21 +6825,21 @@
       <c r="B264" t="s">
         <v>635</v>
       </c>
-      <c r="C264" t="s">
-        <v>636</v>
-      </c>
-      <c r="D264" t="s">
-        <v>637</v>
-      </c>
       <c r="E264">
         <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:5">
       <c r="A265" t="s">
+        <v>636</v>
+      </c>
+      <c r="B265" t="s">
+        <v>637</v>
+      </c>
+      <c r="C265" t="s">
         <v>638</v>
       </c>
-      <c r="B265" t="s">
+      <c r="D265" t="s">
         <v>639</v>
       </c>
       <c r="E265">
@@ -6863,28 +6875,22 @@
       <c r="B268" t="s">
         <v>645</v>
       </c>
-      <c r="C268" t="s">
-        <v>646</v>
-      </c>
-      <c r="D268" t="s">
-        <v>647</v>
-      </c>
       <c r="E268">
         <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:5">
       <c r="A269" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B269" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C269" t="s">
         <v>648</v>
       </c>
       <c r="D269" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="E269">
         <v>0</v>
@@ -6892,16 +6898,16 @@
     </row>
     <row r="270" spans="1:5">
       <c r="A270" t="s">
+        <v>646</v>
+      </c>
+      <c r="B270" t="s">
+        <v>647</v>
+      </c>
+      <c r="C270" t="s">
+        <v>650</v>
+      </c>
+      <c r="D270" t="s">
         <v>649</v>
-      </c>
-      <c r="B270" t="s">
-        <v>650</v>
-      </c>
-      <c r="C270" t="s">
-        <v>651</v>
-      </c>
-      <c r="D270" t="s">
-        <v>652</v>
       </c>
       <c r="E270">
         <v>0</v>
@@ -6909,10 +6915,10 @@
     </row>
     <row r="271" spans="1:5">
       <c r="A271" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B271" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C271" t="s">
         <v>653</v>
@@ -6926,16 +6932,16 @@
     </row>
     <row r="272" spans="1:5">
       <c r="A272" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B272" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C272" t="s">
         <v>655</v>
       </c>
       <c r="D272" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="E272">
         <v>0</v>
@@ -6943,16 +6949,16 @@
     </row>
     <row r="273" spans="1:5">
       <c r="A273" t="s">
+        <v>651</v>
+      </c>
+      <c r="B273" t="s">
+        <v>652</v>
+      </c>
+      <c r="C273" t="s">
+        <v>657</v>
+      </c>
+      <c r="D273" t="s">
         <v>656</v>
-      </c>
-      <c r="B273" t="s">
-        <v>657</v>
-      </c>
-      <c r="C273" t="s">
-        <v>658</v>
-      </c>
-      <c r="D273" t="s">
-        <v>659</v>
       </c>
       <c r="E273">
         <v>0</v>
@@ -6960,9 +6966,15 @@
     </row>
     <row r="274" spans="1:5">
       <c r="A274" t="s">
+        <v>658</v>
+      </c>
+      <c r="B274" t="s">
+        <v>659</v>
+      </c>
+      <c r="C274" t="s">
         <v>660</v>
       </c>
-      <c r="B274" t="s">
+      <c r="D274" t="s">
         <v>661</v>
       </c>
       <c r="E274">
@@ -6998,28 +7010,22 @@
       <c r="B277" t="s">
         <v>667</v>
       </c>
-      <c r="C277" t="s">
-        <v>668</v>
-      </c>
-      <c r="D277" t="s">
-        <v>669</v>
-      </c>
       <c r="E277">
         <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:5">
       <c r="A278" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B278" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C278" t="s">
         <v>670</v>
       </c>
       <c r="D278" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="E278">
         <v>0</v>
@@ -7027,16 +7033,16 @@
     </row>
     <row r="279" spans="1:5">
       <c r="A279" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B279" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C279" t="s">
+        <v>672</v>
+      </c>
+      <c r="D279" t="s">
         <v>671</v>
-      </c>
-      <c r="D279" t="s">
-        <v>672</v>
       </c>
       <c r="E279">
         <v>0</v>
@@ -7044,9 +7050,15 @@
     </row>
     <row r="280" spans="1:5">
       <c r="A280" t="s">
+        <v>668</v>
+      </c>
+      <c r="B280" t="s">
+        <v>669</v>
+      </c>
+      <c r="C280" t="s">
         <v>673</v>
       </c>
-      <c r="B280" t="s">
+      <c r="D280" t="s">
         <v>674</v>
       </c>
       <c r="E280">
@@ -7093,25 +7105,25 @@
       <c r="B284" t="s">
         <v>682</v>
       </c>
-      <c r="C284" t="s">
-        <v>683</v>
-      </c>
-      <c r="D284" t="s">
-        <v>684</v>
-      </c>
       <c r="E284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:5">
       <c r="A285" t="s">
+        <v>683</v>
+      </c>
+      <c r="B285" t="s">
+        <v>684</v>
+      </c>
+      <c r="C285" t="s">
         <v>685</v>
       </c>
-      <c r="B285" t="s">
+      <c r="D285" t="s">
         <v>686</v>
       </c>
       <c r="E285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -7121,22 +7133,16 @@
       <c r="B286" t="s">
         <v>688</v>
       </c>
-      <c r="C286" t="s">
-        <v>689</v>
-      </c>
-      <c r="D286" t="s">
-        <v>690</v>
-      </c>
       <c r="E286">
         <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:5">
       <c r="A287" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B287" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="C287" t="s">
         <v>691</v>
@@ -7150,9 +7156,15 @@
     </row>
     <row r="288" spans="1:5">
       <c r="A288" t="s">
+        <v>689</v>
+      </c>
+      <c r="B288" t="s">
+        <v>690</v>
+      </c>
+      <c r="C288" t="s">
         <v>693</v>
       </c>
-      <c r="B288" t="s">
+      <c r="D288" t="s">
         <v>694</v>
       </c>
       <c r="E288">
@@ -7210,38 +7222,38 @@
       <c r="B293" t="s">
         <v>704</v>
       </c>
-      <c r="C293" t="s">
-        <v>705</v>
-      </c>
-      <c r="D293" t="s">
-        <v>706</v>
-      </c>
       <c r="E293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:5">
       <c r="A294" t="s">
+        <v>705</v>
+      </c>
+      <c r="B294" t="s">
+        <v>706</v>
+      </c>
+      <c r="C294" t="s">
         <v>707</v>
       </c>
-      <c r="B294" t="s">
+      <c r="D294" t="s">
         <v>708</v>
       </c>
-      <c r="C294" t="s">
-        <v>709</v>
-      </c>
-      <c r="D294" t="s">
-        <v>710</v>
-      </c>
       <c r="E294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:5">
       <c r="A295" t="s">
+        <v>709</v>
+      </c>
+      <c r="B295" t="s">
+        <v>710</v>
+      </c>
+      <c r="C295" t="s">
         <v>711</v>
       </c>
-      <c r="B295" t="s">
+      <c r="D295" t="s">
         <v>712</v>
       </c>
       <c r="E295">
@@ -7266,22 +7278,16 @@
       <c r="B297" t="s">
         <v>716</v>
       </c>
-      <c r="C297" t="s">
-        <v>717</v>
-      </c>
-      <c r="D297" t="s">
-        <v>718</v>
-      </c>
       <c r="E297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:5">
       <c r="A298" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B298" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="C298" t="s">
         <v>719</v>
@@ -7295,10 +7301,10 @@
     </row>
     <row r="299" spans="1:5">
       <c r="A299" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B299" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="C299" t="s">
         <v>721</v>
@@ -7312,10 +7318,10 @@
     </row>
     <row r="300" spans="1:5">
       <c r="A300" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B300" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="C300" t="s">
         <v>723</v>
@@ -7329,13 +7335,19 @@
     </row>
     <row r="301" spans="1:5">
       <c r="A301" t="s">
+        <v>717</v>
+      </c>
+      <c r="B301" t="s">
+        <v>718</v>
+      </c>
+      <c r="C301" t="s">
         <v>725</v>
       </c>
-      <c r="B301" t="s">
+      <c r="D301" t="s">
         <v>726</v>
       </c>
       <c r="E301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -7382,35 +7394,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:6">
+    <row r="306" spans="1:5">
       <c r="A306" t="s">
         <v>735</v>
       </c>
       <c r="B306" t="s">
         <v>736</v>
       </c>
-      <c r="C306" t="s">
+      <c r="E306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
+      <c r="A307" t="s">
         <v>737</v>
       </c>
-      <c r="D306" t="s">
+      <c r="B307" t="s">
         <v>738</v>
       </c>
-      <c r="E306">
+      <c r="C307" t="s">
+        <v>739</v>
+      </c>
+      <c r="D307" t="s">
+        <v>740</v>
+      </c>
+      <c r="E307">
         <v>1</v>
       </c>
-      <c r="F306" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5">
-      <c r="A307" t="s">
-        <v>740</v>
-      </c>
-      <c r="B307" t="s">
+      <c r="F307" t="s">
         <v>741</v>
-      </c>
-      <c r="E307">
-        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -7453,22 +7465,16 @@
       <c r="B311" t="s">
         <v>749</v>
       </c>
-      <c r="C311" t="s">
-        <v>750</v>
-      </c>
-      <c r="D311" t="s">
-        <v>751</v>
-      </c>
       <c r="E311">
         <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:5">
       <c r="A312" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B312" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="C312" t="s">
         <v>752</v>
@@ -7482,10 +7488,10 @@
     </row>
     <row r="313" spans="1:5">
       <c r="A313" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B313" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="C313" t="s">
         <v>754</v>
@@ -7499,18 +7505,35 @@
     </row>
     <row r="314" spans="1:5">
       <c r="A314" t="s">
+        <v>750</v>
+      </c>
+      <c r="B314" t="s">
+        <v>751</v>
+      </c>
+      <c r="C314" t="s">
         <v>756</v>
       </c>
-      <c r="B314" t="s">
+      <c r="D314" t="s">
         <v>757</v>
       </c>
       <c r="E314">
         <v>0</v>
       </c>
     </row>
+    <row r="315" spans="1:5">
+      <c r="A315" t="s">
+        <v>758</v>
+      </c>
+      <c r="B315" t="s">
+        <v>759</v>
+      </c>
+      <c r="E315">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F314">
-    <sortState ref="A1:F314">
+  <autoFilter ref="A1:F315">
+    <sortState ref="A1:F315">
       <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
